--- a/resources/analysis/char distribution/Character Distribution.xlsx
+++ b/resources/analysis/char distribution/Character Distribution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\mzatt\Projects\Git - v4j\resources\analysis\char distribution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF11A8E1-BC5E-4167-AEDE-14DD76BC6549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77ADCAD1-FFE9-432A-8413-59307895C618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{ECC3CD32-09AE-4AED-9EE9-BD1FB4BEAB7F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ECC3CD32-09AE-4AED-9EE9-BD1FB4BEAB7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Compact" sheetId="2" r:id="rId1"/>
@@ -3130,8 +3130,8 @@
   </sheetPr>
   <dimension ref="A1:AI58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:XFD6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AF43" sqref="AF42:AF43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7000,8 +7000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5676BBC-4181-4DB2-9C99-4C4C3BE5CBF3}">
   <dimension ref="A1:AG60"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AH45" sqref="AH45:AH49"/>
+    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AH30" sqref="AH30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9965,7 +9965,7 @@
         <v>33</v>
       </c>
       <c r="B54" s="9">
-        <v>0.4365</v>
+        <v>6.6400000000000001E-2</v>
       </c>
       <c r="AF54" s="1"/>
     </row>
@@ -9974,7 +9974,7 @@
         <v>34</v>
       </c>
       <c r="B55" s="9">
-        <v>0.18429999999999999</v>
+        <v>0.92949999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.25">
@@ -9982,7 +9982,7 @@
         <v>35</v>
       </c>
       <c r="B56" s="9">
-        <v>0.15970000000000001</v>
+        <v>0.3034</v>
       </c>
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.25">
@@ -9990,7 +9990,7 @@
         <v>36</v>
       </c>
       <c r="B57" s="9">
-        <v>0.41089999999999999</v>
+        <v>0.99539999999999995</v>
       </c>
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.25">
@@ -9998,7 +9998,7 @@
         <v>37</v>
       </c>
       <c r="B58" s="9">
-        <v>0.89349999999999996</v>
+        <v>0.95899999999999996</v>
       </c>
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.25">

--- a/resources/analysis/char distribution/Character Distribution.xlsx
+++ b/resources/analysis/char distribution/Character Distribution.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\mzatt\Projects\Git - v4j\resources\analysis\char distribution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC67E23F-F2E8-4046-A55F-01ACAF1CB16A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2E1EDC-0B97-4BA4-9D24-9EF0218CD65E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13320" yWindow="120" windowWidth="15405" windowHeight="15450" tabRatio="806" xr2:uid="{ECC3CD32-09AE-4AED-9EE9-BD1FB4BEAB7F}"/>
+    <workbookView xWindow="10575" yWindow="15" windowWidth="15630" windowHeight="15585" tabRatio="806" activeTab="2" xr2:uid="{ECC3CD32-09AE-4AED-9EE9-BD1FB4BEAB7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Compact" sheetId="2" r:id="rId1"/>
     <sheet name="TwoSamplesCharDistributionTest" sheetId="4" r:id="rId2"/>
     <sheet name="CountCharactersByCluster" sheetId="3" r:id="rId3"/>
-    <sheet name="Compact (2)" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2377" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="622">
   <si>
     <t>Transcription     : AUGMENTED</t>
   </si>
@@ -1544,12 +1543,6 @@
   </si>
   <si>
     <t>+ (389 / 694) (35.92% / 32.12%)</t>
-  </si>
-  <si>
-    <t>First word of paragraph VS. standard population</t>
-  </si>
-  <si>
-    <t>*INITIALS* of First word of paragraph VS. standard population</t>
   </si>
   <si>
     <t>Too few samples</t>
@@ -2413,259 +2406,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="84">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="48">
     <dxf>
       <fill>
         <patternFill>
@@ -3317,8 +3058,8 @@
   </sheetPr>
   <dimension ref="A1:AI58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:AD49"/>
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6836,7 +6577,7 @@
         <v>43</v>
       </c>
       <c r="E57" s="23" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F57" s="22"/>
       <c r="G57" s="22"/>
@@ -7188,7 +6929,7 @@
   <dimension ref="A1:AG49"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:AC49"/>
+      <selection activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7393,7 +7134,7 @@
         <v>386</v>
       </c>
       <c r="N9" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="O9" t="s">
         <v>387</v>
@@ -7411,7 +7152,7 @@
         <v>391</v>
       </c>
       <c r="T9" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="U9" t="s">
         <v>392</v>
@@ -7426,7 +7167,7 @@
         <v>395</v>
       </c>
       <c r="Y9" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="Z9" t="s">
         <v>396</v>
@@ -7473,28 +7214,28 @@
         <v>50</v>
       </c>
       <c r="J10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="K10" t="s">
         <v>51</v>
       </c>
       <c r="L10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="M10" t="s">
         <v>52</v>
       </c>
       <c r="N10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="O10" t="s">
         <v>53</v>
       </c>
       <c r="P10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="Q10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="R10" t="s">
         <v>54</v>
@@ -7503,7 +7244,7 @@
         <v>55</v>
       </c>
       <c r="T10" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="U10" t="s">
         <v>56</v>
@@ -7512,7 +7253,7 @@
         <v>57</v>
       </c>
       <c r="W10" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="X10" t="s">
         <v>58</v>
@@ -7524,7 +7265,7 @@
         <v>59</v>
       </c>
       <c r="AA10" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AB10" t="s">
         <v>60</v>
@@ -7577,16 +7318,16 @@
         <v>71</v>
       </c>
       <c r="N11" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="O11" t="s">
         <v>72</v>
       </c>
       <c r="P11" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="Q11" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="R11" t="s">
         <v>73</v>
@@ -7595,7 +7336,7 @@
         <v>74</v>
       </c>
       <c r="T11" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="U11" t="s">
         <v>75</v>
@@ -7610,7 +7351,7 @@
         <v>78</v>
       </c>
       <c r="Y11" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="Z11" t="s">
         <v>79</v>
@@ -7657,28 +7398,28 @@
         <v>88</v>
       </c>
       <c r="J12" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="K12" t="s">
         <v>89</v>
       </c>
       <c r="L12" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="M12" t="s">
         <v>90</v>
       </c>
       <c r="N12" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="O12" t="s">
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="Q12" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="R12" t="s">
         <v>92</v>
@@ -7687,7 +7428,7 @@
         <v>93</v>
       </c>
       <c r="T12" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="U12" t="s">
         <v>94</v>
@@ -7696,19 +7437,19 @@
         <v>95</v>
       </c>
       <c r="W12" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="X12" t="s">
         <v>96</v>
       </c>
       <c r="Y12" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="Z12" t="s">
         <v>97</v>
       </c>
       <c r="AA12" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="AB12" t="s">
         <v>98</v>
@@ -7749,7 +7490,7 @@
         <v>105</v>
       </c>
       <c r="J13" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="K13" t="s">
         <v>106</v>
@@ -7761,16 +7502,16 @@
         <v>108</v>
       </c>
       <c r="N13" t="s">
+        <v>496</v>
+      </c>
+      <c r="O13" t="s">
+        <v>497</v>
+      </c>
+      <c r="P13" t="s">
         <v>498</v>
       </c>
-      <c r="O13" t="s">
+      <c r="Q13" t="s">
         <v>499</v>
-      </c>
-      <c r="P13" t="s">
-        <v>500</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>501</v>
       </c>
       <c r="R13" t="s">
         <v>109</v>
@@ -7779,7 +7520,7 @@
         <v>110</v>
       </c>
       <c r="T13" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="U13" t="s">
         <v>111</v>
@@ -7794,7 +7535,7 @@
         <v>114</v>
       </c>
       <c r="Y13" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="Z13" t="s">
         <v>115</v>
@@ -7988,7 +7729,7 @@
         <v>409</v>
       </c>
       <c r="N18" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="O18" t="s">
         <v>410</v>
@@ -8021,7 +7762,7 @@
         <v>419</v>
       </c>
       <c r="Y18" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="Z18" t="s">
         <v>420</v>
@@ -8063,7 +7804,7 @@
         <v>124</v>
       </c>
       <c r="J19" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="K19" t="s">
         <v>125</v>
@@ -8075,13 +7816,13 @@
         <v>127</v>
       </c>
       <c r="N19" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="O19" t="s">
         <v>128</v>
       </c>
       <c r="P19" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="Q19" t="s">
         <v>129</v>
@@ -8093,7 +7834,7 @@
         <v>131</v>
       </c>
       <c r="T19" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="U19" t="s">
         <v>132</v>
@@ -8161,13 +7902,13 @@
         <v>149</v>
       </c>
       <c r="N20" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="O20" t="s">
         <v>150</v>
       </c>
       <c r="P20" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="Q20" t="s">
         <v>151</v>
@@ -8179,7 +7920,7 @@
         <v>153</v>
       </c>
       <c r="T20" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="U20" t="s">
         <v>154</v>
@@ -8194,7 +7935,7 @@
         <v>157</v>
       </c>
       <c r="Y20" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="Z20" t="s">
         <v>158</v>
@@ -8235,7 +7976,7 @@
         <v>167</v>
       </c>
       <c r="J21" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K21" t="s">
         <v>168</v>
@@ -8247,13 +7988,13 @@
         <v>170</v>
       </c>
       <c r="N21" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="O21" t="s">
         <v>171</v>
       </c>
       <c r="P21" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="Q21" t="s">
         <v>172</v>
@@ -8265,7 +8006,7 @@
         <v>174</v>
       </c>
       <c r="T21" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="U21" t="s">
         <v>175</v>
@@ -8280,7 +8021,7 @@
         <v>178</v>
       </c>
       <c r="Y21" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="Z21" t="s">
         <v>179</v>
@@ -8333,7 +8074,7 @@
         <v>192</v>
       </c>
       <c r="N22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="O22" t="s">
         <v>193</v>
@@ -8366,7 +8107,7 @@
         <v>202</v>
       </c>
       <c r="Y22" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="Z22" t="s">
         <v>203</v>
@@ -8538,7 +8279,7 @@
         <v>433</v>
       </c>
       <c r="N27" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="O27" t="s">
         <v>434</v>
@@ -8556,7 +8297,7 @@
         <v>438</v>
       </c>
       <c r="T27" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="U27" t="s">
         <v>439</v>
@@ -8571,7 +8312,7 @@
         <v>442</v>
       </c>
       <c r="Y27" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="Z27" t="s">
         <v>443</v>
@@ -8613,7 +8354,7 @@
         <v>212</v>
       </c>
       <c r="J28" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="K28" t="s">
         <v>213</v>
@@ -8625,13 +8366,13 @@
         <v>215</v>
       </c>
       <c r="N28" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="O28" t="s">
         <v>216</v>
       </c>
       <c r="P28" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="Q28" t="s">
         <v>217</v>
@@ -8643,7 +8384,7 @@
         <v>219</v>
       </c>
       <c r="T28" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="U28" t="s">
         <v>220</v>
@@ -8652,7 +8393,7 @@
         <v>221</v>
       </c>
       <c r="W28" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="X28" t="s">
         <v>222</v>
@@ -8711,13 +8452,13 @@
         <v>236</v>
       </c>
       <c r="N29" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="O29" t="s">
         <v>237</v>
       </c>
       <c r="P29" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="Q29" t="s">
         <v>238</v>
@@ -8729,7 +8470,7 @@
         <v>240</v>
       </c>
       <c r="T29" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="U29" t="s">
         <v>241</v>
@@ -8744,7 +8485,7 @@
         <v>244</v>
       </c>
       <c r="Y29" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="Z29" t="s">
         <v>245</v>
@@ -8785,7 +8526,7 @@
         <v>254</v>
       </c>
       <c r="J30" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="K30" t="s">
         <v>255</v>
@@ -8797,13 +8538,13 @@
         <v>257</v>
       </c>
       <c r="N30" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="O30" t="s">
         <v>258</v>
       </c>
       <c r="P30" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="Q30" t="s">
         <v>259</v>
@@ -8815,7 +8556,7 @@
         <v>261</v>
       </c>
       <c r="T30" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="U30" t="s">
         <v>262</v>
@@ -8830,13 +8571,13 @@
         <v>265</v>
       </c>
       <c r="Y30" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="Z30" t="s">
         <v>266</v>
       </c>
       <c r="AA30" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AB30" t="s">
         <v>267</v>
@@ -8883,7 +8624,7 @@
         <v>278</v>
       </c>
       <c r="N31" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="O31" t="s">
         <v>279</v>
@@ -8916,7 +8657,7 @@
         <v>288</v>
       </c>
       <c r="Y31" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="Z31" t="s">
         <v>289</v>
@@ -9076,7 +8817,7 @@
         <v>452</v>
       </c>
       <c r="J36" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="K36" t="s">
         <v>453</v>
@@ -9088,25 +8829,25 @@
         <v>455</v>
       </c>
       <c r="N36" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="O36" t="s">
         <v>456</v>
       </c>
       <c r="P36" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="Q36" t="s">
         <v>457</v>
       </c>
       <c r="R36" t="s">
+        <v>541</v>
+      </c>
+      <c r="S36" t="s">
+        <v>542</v>
+      </c>
+      <c r="T36" t="s">
         <v>543</v>
-      </c>
-      <c r="S36" t="s">
-        <v>544</v>
-      </c>
-      <c r="T36" t="s">
-        <v>545</v>
       </c>
       <c r="U36" t="s">
         <v>458</v>
@@ -9121,13 +8862,13 @@
         <v>43</v>
       </c>
       <c r="Y36" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="Z36" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="AA36" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AB36" t="s">
         <v>460</v>
@@ -9145,52 +8886,52 @@
         <v>292</v>
       </c>
       <c r="D37" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E37" t="s">
         <v>293</v>
       </c>
       <c r="F37" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="G37" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H37" t="s">
         <v>294</v>
       </c>
       <c r="I37" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="J37" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="K37" t="s">
         <v>295</v>
       </c>
       <c r="L37" t="s">
+        <v>548</v>
+      </c>
+      <c r="M37" t="s">
+        <v>549</v>
+      </c>
+      <c r="N37" t="s">
         <v>550</v>
       </c>
-      <c r="M37" t="s">
+      <c r="O37" t="s">
         <v>551</v>
       </c>
-      <c r="N37" t="s">
+      <c r="P37" t="s">
         <v>552</v>
       </c>
-      <c r="O37" t="s">
+      <c r="Q37" t="s">
         <v>553</v>
       </c>
-      <c r="P37" t="s">
+      <c r="R37" t="s">
         <v>554</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="S37" t="s">
         <v>555</v>
-      </c>
-      <c r="R37" t="s">
-        <v>556</v>
-      </c>
-      <c r="S37" t="s">
-        <v>557</v>
       </c>
       <c r="T37" t="s">
         <v>43</v>
@@ -9231,7 +8972,7 @@
         <v>299</v>
       </c>
       <c r="D38" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E38" t="s">
         <v>300</v>
@@ -9240,7 +8981,7 @@
         <v>301</v>
       </c>
       <c r="G38" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H38" t="s">
         <v>302</v>
@@ -9249,37 +8990,37 @@
         <v>303</v>
       </c>
       <c r="J38" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="K38" t="s">
         <v>304</v>
       </c>
       <c r="L38" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="M38" t="s">
         <v>305</v>
       </c>
       <c r="N38" t="s">
+        <v>560</v>
+      </c>
+      <c r="O38" t="s">
+        <v>561</v>
+      </c>
+      <c r="P38" t="s">
         <v>562</v>
       </c>
-      <c r="O38" t="s">
+      <c r="Q38" t="s">
         <v>563</v>
       </c>
-      <c r="P38" t="s">
+      <c r="R38" t="s">
+        <v>560</v>
+      </c>
+      <c r="S38" t="s">
         <v>564</v>
       </c>
-      <c r="Q38" t="s">
-        <v>565</v>
-      </c>
-      <c r="R38" t="s">
-        <v>562</v>
-      </c>
-      <c r="S38" t="s">
-        <v>566</v>
-      </c>
       <c r="T38" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="U38" t="s">
         <v>306</v>
@@ -9300,7 +9041,7 @@
         <v>43</v>
       </c>
       <c r="AA38" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AB38" t="s">
         <v>308</v>
@@ -9335,37 +9076,37 @@
         <v>315</v>
       </c>
       <c r="J39" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="K39" t="s">
         <v>316</v>
       </c>
       <c r="L39" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="M39" t="s">
         <v>317</v>
       </c>
       <c r="N39" t="s">
+        <v>567</v>
+      </c>
+      <c r="O39" t="s">
+        <v>568</v>
+      </c>
+      <c r="P39" t="s">
         <v>569</v>
       </c>
-      <c r="O39" t="s">
+      <c r="Q39" t="s">
         <v>570</v>
       </c>
-      <c r="P39" t="s">
+      <c r="R39" t="s">
         <v>571</v>
       </c>
-      <c r="Q39" t="s">
+      <c r="S39" t="s">
         <v>572</v>
       </c>
-      <c r="R39" t="s">
+      <c r="T39" t="s">
         <v>573</v>
-      </c>
-      <c r="S39" t="s">
-        <v>574</v>
-      </c>
-      <c r="T39" t="s">
-        <v>575</v>
       </c>
       <c r="U39" t="s">
         <v>318</v>
@@ -9386,7 +9127,7 @@
         <v>43</v>
       </c>
       <c r="AA39" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AB39" t="s">
         <v>320</v>
@@ -9421,7 +9162,7 @@
         <v>327</v>
       </c>
       <c r="J40" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="K40" t="s">
         <v>328</v>
@@ -9433,25 +9174,25 @@
         <v>330</v>
       </c>
       <c r="N40" t="s">
+        <v>575</v>
+      </c>
+      <c r="O40" t="s">
+        <v>576</v>
+      </c>
+      <c r="P40" t="s">
         <v>577</v>
       </c>
-      <c r="O40" t="s">
+      <c r="Q40" t="s">
         <v>578</v>
       </c>
-      <c r="P40" t="s">
+      <c r="R40" t="s">
         <v>579</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="S40" t="s">
         <v>580</v>
       </c>
-      <c r="R40" t="s">
+      <c r="T40" t="s">
         <v>581</v>
-      </c>
-      <c r="S40" t="s">
-        <v>582</v>
-      </c>
-      <c r="T40" t="s">
-        <v>583</v>
       </c>
       <c r="U40" t="s">
         <v>331</v>
@@ -9463,7 +9204,7 @@
         <v>43</v>
       </c>
       <c r="X40" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="Y40" t="s">
         <v>43</v>
@@ -9472,7 +9213,7 @@
         <v>43</v>
       </c>
       <c r="AA40" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="AB40" t="s">
         <v>333</v>
@@ -9620,52 +9361,52 @@
         <v>464</v>
       </c>
       <c r="H45" t="s">
+        <v>582</v>
+      </c>
+      <c r="I45" t="s">
+        <v>583</v>
+      </c>
+      <c r="J45" t="s">
         <v>584</v>
       </c>
-      <c r="I45" t="s">
+      <c r="K45" t="s">
         <v>585</v>
       </c>
-      <c r="J45" t="s">
+      <c r="L45" t="s">
         <v>586</v>
       </c>
-      <c r="K45" t="s">
+      <c r="M45" t="s">
         <v>587</v>
       </c>
-      <c r="L45" t="s">
+      <c r="N45" t="s">
+        <v>43</v>
+      </c>
+      <c r="O45" t="s">
+        <v>584</v>
+      </c>
+      <c r="P45" t="s">
         <v>588</v>
       </c>
-      <c r="M45" t="s">
+      <c r="Q45" t="s">
         <v>589</v>
       </c>
-      <c r="N45" t="s">
-        <v>43</v>
-      </c>
-      <c r="O45" t="s">
-        <v>586</v>
-      </c>
-      <c r="P45" t="s">
+      <c r="R45" t="s">
         <v>590</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="S45" t="s">
         <v>591</v>
       </c>
-      <c r="R45" t="s">
-        <v>592</v>
-      </c>
-      <c r="S45" t="s">
-        <v>593</v>
-      </c>
       <c r="T45" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="U45" t="s">
         <v>465</v>
       </c>
       <c r="V45" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="W45" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="X45" t="s">
         <v>43</v>
@@ -9695,10 +9436,10 @@
         <v>43</v>
       </c>
       <c r="D46" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E46" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F46" t="s">
         <v>334</v>
@@ -9707,40 +9448,40 @@
         <v>335</v>
       </c>
       <c r="H46" t="s">
+        <v>595</v>
+      </c>
+      <c r="I46" t="s">
+        <v>596</v>
+      </c>
+      <c r="J46" t="s">
+        <v>43</v>
+      </c>
+      <c r="K46" t="s">
         <v>597</v>
       </c>
-      <c r="I46" t="s">
+      <c r="L46" t="s">
+        <v>595</v>
+      </c>
+      <c r="M46" t="s">
+        <v>43</v>
+      </c>
+      <c r="N46" t="s">
+        <v>43</v>
+      </c>
+      <c r="O46" t="s">
+        <v>43</v>
+      </c>
+      <c r="P46" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>43</v>
+      </c>
+      <c r="R46" t="s">
         <v>598</v>
       </c>
-      <c r="J46" t="s">
-        <v>43</v>
-      </c>
-      <c r="K46" t="s">
-        <v>599</v>
-      </c>
-      <c r="L46" t="s">
-        <v>597</v>
-      </c>
-      <c r="M46" t="s">
-        <v>43</v>
-      </c>
-      <c r="N46" t="s">
-        <v>43</v>
-      </c>
-      <c r="O46" t="s">
-        <v>43</v>
-      </c>
-      <c r="P46" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>43</v>
-      </c>
-      <c r="R46" t="s">
-        <v>600</v>
-      </c>
       <c r="S46" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="T46" t="s">
         <v>43</v>
@@ -9749,10 +9490,10 @@
         <v>336</v>
       </c>
       <c r="V46" t="s">
+        <v>596</v>
+      </c>
+      <c r="W46" t="s">
         <v>598</v>
-      </c>
-      <c r="W46" t="s">
-        <v>600</v>
       </c>
       <c r="X46" t="s">
         <v>43</v>
@@ -9764,7 +9505,7 @@
         <v>337</v>
       </c>
       <c r="AA46" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="AB46" t="s">
         <v>338</v>
@@ -9781,7 +9522,7 @@
         <v>43</v>
       </c>
       <c r="D47" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E47" t="s">
         <v>339</v>
@@ -9793,40 +9534,40 @@
         <v>341</v>
       </c>
       <c r="H47" t="s">
+        <v>601</v>
+      </c>
+      <c r="I47" t="s">
+        <v>602</v>
+      </c>
+      <c r="J47" t="s">
         <v>603</v>
       </c>
-      <c r="I47" t="s">
+      <c r="K47" t="s">
         <v>604</v>
       </c>
-      <c r="J47" t="s">
+      <c r="L47" t="s">
         <v>605</v>
       </c>
-      <c r="K47" t="s">
+      <c r="M47" t="s">
         <v>606</v>
       </c>
-      <c r="L47" t="s">
+      <c r="N47" t="s">
+        <v>43</v>
+      </c>
+      <c r="O47" t="s">
+        <v>601</v>
+      </c>
+      <c r="P47" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>43</v>
+      </c>
+      <c r="R47" t="s">
         <v>607</v>
       </c>
-      <c r="M47" t="s">
-        <v>608</v>
-      </c>
-      <c r="N47" t="s">
-        <v>43</v>
-      </c>
-      <c r="O47" t="s">
-        <v>603</v>
-      </c>
-      <c r="P47" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>43</v>
-      </c>
-      <c r="R47" t="s">
-        <v>609</v>
-      </c>
       <c r="S47" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="T47" t="s">
         <v>43</v>
@@ -9835,7 +9576,7 @@
         <v>342</v>
       </c>
       <c r="V47" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="W47" t="s">
         <v>43</v>
@@ -9850,7 +9591,7 @@
         <v>343</v>
       </c>
       <c r="AA47" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="AB47" t="s">
         <v>344</v>
@@ -9864,7 +9605,7 @@
         <v>0</v>
       </c>
       <c r="C48" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D48" t="s">
         <v>345</v>
@@ -9879,40 +9620,40 @@
         <v>348</v>
       </c>
       <c r="H48" t="s">
+        <v>610</v>
+      </c>
+      <c r="I48" t="s">
+        <v>610</v>
+      </c>
+      <c r="J48" t="s">
+        <v>43</v>
+      </c>
+      <c r="K48" t="s">
+        <v>611</v>
+      </c>
+      <c r="L48" t="s">
+        <v>610</v>
+      </c>
+      <c r="M48" t="s">
         <v>612</v>
       </c>
-      <c r="I48" t="s">
+      <c r="N48" t="s">
+        <v>43</v>
+      </c>
+      <c r="O48" t="s">
+        <v>609</v>
+      </c>
+      <c r="P48" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>43</v>
+      </c>
+      <c r="R48" t="s">
+        <v>610</v>
+      </c>
+      <c r="S48" t="s">
         <v>612</v>
-      </c>
-      <c r="J48" t="s">
-        <v>43</v>
-      </c>
-      <c r="K48" t="s">
-        <v>613</v>
-      </c>
-      <c r="L48" t="s">
-        <v>612</v>
-      </c>
-      <c r="M48" t="s">
-        <v>614</v>
-      </c>
-      <c r="N48" t="s">
-        <v>43</v>
-      </c>
-      <c r="O48" t="s">
-        <v>611</v>
-      </c>
-      <c r="P48" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>43</v>
-      </c>
-      <c r="R48" t="s">
-        <v>612</v>
-      </c>
-      <c r="S48" t="s">
-        <v>614</v>
       </c>
       <c r="T48" t="s">
         <v>43</v>
@@ -9921,7 +9662,7 @@
         <v>349</v>
       </c>
       <c r="V48" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="W48" t="s">
         <v>43</v>
@@ -9936,7 +9677,7 @@
         <v>350</v>
       </c>
       <c r="AA48" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="AB48" t="s">
         <v>351</v>
@@ -9965,49 +9706,49 @@
         <v>355</v>
       </c>
       <c r="H49" t="s">
+        <v>614</v>
+      </c>
+      <c r="I49" t="s">
+        <v>615</v>
+      </c>
+      <c r="J49" t="s">
+        <v>615</v>
+      </c>
+      <c r="K49" t="s">
         <v>616</v>
       </c>
-      <c r="I49" t="s">
+      <c r="L49" t="s">
         <v>617</v>
       </c>
-      <c r="J49" t="s">
-        <v>617</v>
-      </c>
-      <c r="K49" t="s">
+      <c r="M49" t="s">
         <v>618</v>
       </c>
-      <c r="L49" t="s">
+      <c r="N49" t="s">
+        <v>43</v>
+      </c>
+      <c r="O49" t="s">
+        <v>43</v>
+      </c>
+      <c r="P49" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>43</v>
+      </c>
+      <c r="R49" t="s">
         <v>619</v>
       </c>
-      <c r="M49" t="s">
+      <c r="S49" t="s">
         <v>620</v>
       </c>
-      <c r="N49" t="s">
-        <v>43</v>
-      </c>
-      <c r="O49" t="s">
-        <v>43</v>
-      </c>
-      <c r="P49" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>43</v>
-      </c>
-      <c r="R49" t="s">
-        <v>621</v>
-      </c>
-      <c r="S49" t="s">
-        <v>622</v>
-      </c>
       <c r="T49" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="U49" t="s">
         <v>356</v>
       </c>
       <c r="V49" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="W49" t="s">
         <v>43</v>
@@ -10323,7 +10064,7 @@
   </sheetPr>
   <dimension ref="A1:AJ23"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
@@ -11326,2543 +11067,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDEE8D32-CC71-4848-B2FD-4F2C60145E58}">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:AI38"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="23"/>
-    <col min="2" max="2" width="9" style="33" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" style="14" hidden="1" customWidth="1"/>
-    <col min="4" max="11" width="3.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="3.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="3.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="2.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="27" max="29" width="3.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.140625" style="23"/>
-    <col min="31" max="31" width="3.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="55.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="9.140625" style="23"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B1" s="33" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:35" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
-      <c r="B3" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="R3" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="S3" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="U3" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="V3" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="W3" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="X3" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y3" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z3" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA3" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB3" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC3" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD3" s="21"/>
-      <c r="AG3" s="21"/>
-      <c r="AH3" s="21"/>
-      <c r="AI3" s="21"/>
-    </row>
-    <row r="4" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="29">
-        <v>0</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="K4" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="L4" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="M4" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="N4" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="O4" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="P4" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q4" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="R4" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="S4" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="T4" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="U4" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="V4" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="W4" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="X4" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="Y4" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="Z4" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="AA4" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="AB4" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="AC4" s="17" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B5" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="30">
-        <v>0</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="K5" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="L5" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="N5" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="O5" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="P5" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="Q5" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="R5" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="S5" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="T5" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="U5" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="V5" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="W5" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="X5" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="Y5" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="Z5" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="AA5" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="AB5" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="AC5" s="17" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B6" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="30">
-        <v>0</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="M6" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="N6" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="O6" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="P6" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="Q6" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="R6" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="S6" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="T6" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="U6" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="V6" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="W6" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="X6" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="Y6" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="Z6" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="AA6" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="AB6" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="AC6" s="17" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B7" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="30">
-        <v>0</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="N7" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="O7" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="P7" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="Q7" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="R7" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="S7" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="T7" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="U7" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="V7" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="W7" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="X7" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="Y7" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="Z7" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="AA7" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="AB7" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="AC7" s="17" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="31">
-        <v>0</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>360</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>360</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>361</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>361</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="L8" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="M8" s="18" t="s">
-        <v>360</v>
-      </c>
-      <c r="N8" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="O8" s="18" t="s">
-        <v>363</v>
-      </c>
-      <c r="P8" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q8" s="18" t="s">
-        <v>363</v>
-      </c>
-      <c r="R8" s="18" t="s">
-        <v>363</v>
-      </c>
-      <c r="S8" s="18" t="s">
-        <v>363</v>
-      </c>
-      <c r="T8" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="U8" s="18" t="s">
-        <v>364</v>
-      </c>
-      <c r="V8" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="W8" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="X8" s="18" t="s">
-        <v>363</v>
-      </c>
-      <c r="Y8" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="Z8" s="18" t="s">
-        <v>363</v>
-      </c>
-      <c r="AA8" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="AB8" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="AC8" s="19" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" s="23" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="34"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="22"/>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="22"/>
-      <c r="AC9" s="22"/>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B11" s="33" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="L13" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="M13" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="N13" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="O13" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="P13" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q13" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="R13" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="S13" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="T13" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="U13" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="V13" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="W13" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="X13" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y13" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z13" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA13" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB13" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC13" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD13" s="21"/>
-    </row>
-    <row r="14" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="29">
-        <v>0</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="K14" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="L14" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="M14" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="N14" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="O14" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="P14" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="Q14" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="R14" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="S14" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="T14" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="U14" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="V14" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="W14" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="X14" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="Y14" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z14" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="AA14" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB14" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="AC14" s="17" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B15" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="30">
-        <v>1.5E-3</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="J15" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="K15" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="L15" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="M15" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="N15" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="O15" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="P15" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="Q15" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="R15" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="S15" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="T15" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="U15" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="V15" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="W15" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="X15" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="Y15" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="Z15" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="AA15" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="AB15" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="AC15" s="17" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B16" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="30">
-        <v>0</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="J16" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="K16" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="L16" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="M16" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="N16" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="O16" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="P16" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="Q16" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="R16" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="S16" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="T16" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="U16" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="V16" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="W16" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="X16" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="Y16" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="Z16" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="AA16" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="AB16" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="AC16" s="17" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="17" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B17" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="30">
-        <v>0</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="I17" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="J17" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="K17" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="L17" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="M17" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="N17" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="O17" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="P17" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="Q17" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="R17" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="S17" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="T17" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="U17" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="V17" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="W17" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="X17" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="Y17" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="Z17" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="AA17" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="AB17" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="AC17" s="17" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="18" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="31">
-        <v>0</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>363</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>364</v>
-      </c>
-      <c r="I18" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="J18" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="K18" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="L18" s="18" t="s">
-        <v>360</v>
-      </c>
-      <c r="M18" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="N18" s="18" t="s">
-        <v>360</v>
-      </c>
-      <c r="O18" s="18" t="s">
-        <v>363</v>
-      </c>
-      <c r="P18" s="18" t="s">
-        <v>363</v>
-      </c>
-      <c r="Q18" s="18" t="s">
-        <v>363</v>
-      </c>
-      <c r="R18" s="18" t="s">
-        <v>363</v>
-      </c>
-      <c r="S18" s="18" t="s">
-        <v>363</v>
-      </c>
-      <c r="T18" s="18" t="s">
-        <v>363</v>
-      </c>
-      <c r="U18" s="18" t="s">
-        <v>363</v>
-      </c>
-      <c r="V18" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="W18" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="X18" s="18" t="s">
-        <v>363</v>
-      </c>
-      <c r="Y18" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z18" s="18" t="s">
-        <v>363</v>
-      </c>
-      <c r="AA18" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB18" s="18" t="s">
-        <v>363</v>
-      </c>
-      <c r="AC18" s="19" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="19" spans="2:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="34"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
-      <c r="U19" s="22"/>
-      <c r="V19" s="22"/>
-      <c r="W19" s="22"/>
-      <c r="X19" s="22"/>
-      <c r="Y19" s="22"/>
-      <c r="Z19" s="22"/>
-      <c r="AA19" s="22"/>
-      <c r="AB19" s="22"/>
-      <c r="AC19" s="22"/>
-    </row>
-    <row r="20" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B20" s="33" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="21" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="H22" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I22" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="J22" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="K22" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="L22" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="M22" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="N22" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="O22" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="P22" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q22" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="R22" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="S22" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="T22" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="U22" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="V22" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="W22" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="X22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y22" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z22" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA22" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB22" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC22" s="26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="2:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="29">
-        <v>0</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="I23" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="J23" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="K23" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="L23" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="M23" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="N23" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="O23" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="P23" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q23" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="R23" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="S23" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="T23" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="U23" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="V23" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="W23" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="X23" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="Y23" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="Z23" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="AA23" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="AB23" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="AC23" s="17" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="24" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B24" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="30">
-        <v>0</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="I24" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="J24" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="K24" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="L24" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="M24" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="N24" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="O24" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="P24" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="Q24" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="R24" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="S24" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="T24" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="U24" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="V24" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="W24" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="X24" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="Y24" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="Z24" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="AA24" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="AB24" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="AC24" s="17" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="25" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B25" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="30">
-        <v>0</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="H25" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="I25" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="J25" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="K25" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="L25" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="M25" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="N25" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="O25" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="P25" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="Q25" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="R25" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="S25" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="T25" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="U25" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="V25" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="W25" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="X25" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="Y25" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="Z25" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="AA25" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="AB25" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="AC25" s="17" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="26" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B26" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="30">
-        <v>0</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="H26" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="I26" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="J26" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="K26" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="L26" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="M26" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="N26" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="O26" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="P26" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="Q26" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="R26" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="S26" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="T26" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="U26" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="V26" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="W26" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="X26" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="Y26" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="Z26" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="AA26" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="AB26" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="AC26" s="17" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="27" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="31">
-        <v>0</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>360</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="G27" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="H27" s="18" t="s">
-        <v>360</v>
-      </c>
-      <c r="I27" s="18" t="s">
-        <v>361</v>
-      </c>
-      <c r="J27" s="18" t="s">
-        <v>361</v>
-      </c>
-      <c r="K27" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="L27" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="M27" s="18" t="s">
-        <v>360</v>
-      </c>
-      <c r="N27" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="O27" s="18" t="s">
-        <v>363</v>
-      </c>
-      <c r="P27" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q27" s="18" t="s">
-        <v>363</v>
-      </c>
-      <c r="R27" s="18" t="s">
-        <v>363</v>
-      </c>
-      <c r="S27" s="18" t="s">
-        <v>363</v>
-      </c>
-      <c r="T27" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="U27" s="18" t="s">
-        <v>364</v>
-      </c>
-      <c r="V27" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="W27" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="X27" s="18" t="s">
-        <v>363</v>
-      </c>
-      <c r="Y27" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="Z27" s="18" t="s">
-        <v>363</v>
-      </c>
-      <c r="AA27" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="AB27" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="AC27" s="19" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="28" spans="2:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="34"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="22"/>
-      <c r="T28" s="22"/>
-      <c r="U28" s="22"/>
-      <c r="V28" s="22"/>
-      <c r="W28" s="22"/>
-      <c r="X28" s="22"/>
-      <c r="Y28" s="22"/>
-      <c r="Z28" s="22"/>
-      <c r="AA28" s="22"/>
-      <c r="AB28" s="22"/>
-      <c r="AC28" s="22"/>
-    </row>
-    <row r="30" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B30" s="33" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="31" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="G32" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="H32" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I32" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="J32" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="K32" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="L32" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="M32" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="N32" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="O32" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="P32" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q32" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="R32" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="S32" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="T32" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="U32" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="V32" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="W32" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="X32" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y32" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z32" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA32" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB32" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC32" s="26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="2:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="29">
-        <v>0</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="F33" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="G33" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="H33" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="I33" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="J33" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="K33" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="L33" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="M33" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="N33" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="O33" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="P33" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="Q33" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="R33" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="S33" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="T33" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="U33" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="V33" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="W33" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="X33" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y33" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z33" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="AA33" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB33" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC33" s="17" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B34" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="30">
-        <v>0</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="G34" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="H34" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="I34" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="J34" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="K34" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="L34" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="M34" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="N34" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="O34" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="P34" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="Q34" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="R34" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="S34" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="T34" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="U34" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="V34" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="W34" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="X34" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y34" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z34" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA34" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB34" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC34" s="17" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B35" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="30">
-        <v>0</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="G35" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="H35" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="I35" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="J35" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="K35" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="L35" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="M35" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="N35" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="O35" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="P35" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="Q35" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="R35" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="S35" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="T35" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="U35" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="V35" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="W35" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="X35" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y35" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="Z35" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA35" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB35" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC35" s="17" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="36" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B36" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="30">
-        <v>0</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="F36" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="G36" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="H36" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="I36" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="J36" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="K36" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="L36" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="M36" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="N36" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="O36" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="P36" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="Q36" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="R36" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="S36" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="T36" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="U36" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="V36" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="W36" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="X36" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y36" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z36" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA36" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB36" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC36" s="17" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="37" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="31">
-        <v>0</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="E37" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="F37" s="18" t="s">
-        <v>363</v>
-      </c>
-      <c r="G37" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="H37" s="18" t="s">
-        <v>363</v>
-      </c>
-      <c r="I37" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="J37" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="K37" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="L37" s="18" t="s">
-        <v>360</v>
-      </c>
-      <c r="M37" s="18" t="s">
-        <v>360</v>
-      </c>
-      <c r="N37" s="18" t="s">
-        <v>360</v>
-      </c>
-      <c r="O37" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="P37" s="18" t="s">
-        <v>363</v>
-      </c>
-      <c r="Q37" s="18" t="s">
-        <v>363</v>
-      </c>
-      <c r="R37" s="18" t="s">
-        <v>363</v>
-      </c>
-      <c r="S37" s="18" t="s">
-        <v>363</v>
-      </c>
-      <c r="T37" s="18" t="s">
-        <v>363</v>
-      </c>
-      <c r="U37" s="18" t="s">
-        <v>363</v>
-      </c>
-      <c r="V37" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="W37" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="X37" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y37" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z37" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA37" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB37" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC37" s="19" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="38" spans="2:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="34"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
-      <c r="R38" s="22"/>
-      <c r="S38" s="22"/>
-      <c r="T38" s="22"/>
-      <c r="U38" s="22"/>
-      <c r="V38" s="22"/>
-      <c r="W38" s="22"/>
-      <c r="X38" s="22"/>
-      <c r="Y38" s="22"/>
-      <c r="Z38" s="22"/>
-      <c r="AA38" s="22"/>
-      <c r="AB38" s="22"/>
-      <c r="AC38" s="22"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="37" stopIfTrue="1" operator="containsText" id="{5246D39B-3674-442B-A0B2-5B2C105B4832}">
-            <xm:f>NOT(ISERROR(SEARCH("++",A3)))</xm:f>
-            <xm:f>"++"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9" tint="-0.499984740745262"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="38" stopIfTrue="1" operator="containsText" id="{49BC0916-4902-4164-9F1E-E0D19804A18D}">
-            <xm:f>NOT(ISERROR(SEARCH("+",A3)))</xm:f>
-            <xm:f>"+"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="39" stopIfTrue="1" operator="containsText" id="{6F80F022-9350-4B93-878B-5E90592F274E}">
-            <xm:f>NOT(ISERROR(SEARCH("^",A3)))</xm:f>
-            <xm:f>"^"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9" tint="0.79998168889431442"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="40" stopIfTrue="1" operator="containsText" id="{67808645-64B8-4852-AE16-5847A12F495C}">
-            <xm:f>NOT(ISERROR(SEARCH("--",A3)))</xm:f>
-            <xm:f>"--"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFC00000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="41" stopIfTrue="1" operator="containsText" id="{7A0B4A0E-CB7F-4AF2-9CA2-90494E28A72E}">
-            <xm:f>NOT(ISERROR(SEARCH("-",A3)))</xm:f>
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="42" stopIfTrue="1" operator="containsText" id="{D21E81F6-9F90-4695-87F4-912BF8BE1D78}">
-            <xm:f>NOT(ISERROR(SEARCH("v",A3)))</xm:f>
-            <xm:f>"v"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.79998168889431442"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>A3:AD8 AG3:XFD8</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="13" stopIfTrue="1" operator="containsText" id="{4A8FE886-6918-440E-81B8-442AAB2E77AC}">
-            <xm:f>NOT(ISERROR(SEARCH("++",B13)))</xm:f>
-            <xm:f>"++"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9" tint="-0.499984740745262"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="14" stopIfTrue="1" operator="containsText" id="{8CFE469A-B0C1-4FF1-A1A5-9ADF9EC37004}">
-            <xm:f>NOT(ISERROR(SEARCH("+",B13)))</xm:f>
-            <xm:f>"+"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="15" stopIfTrue="1" operator="containsText" id="{6579E2CA-F117-46A3-9341-C8B474F53E8B}">
-            <xm:f>NOT(ISERROR(SEARCH("^",B13)))</xm:f>
-            <xm:f>"^"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9" tint="0.79998168889431442"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="16" stopIfTrue="1" operator="containsText" id="{E974AAB0-0317-4C68-9657-1057B8F5ECA6}">
-            <xm:f>NOT(ISERROR(SEARCH("--",B13)))</xm:f>
-            <xm:f>"--"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFC00000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="17" stopIfTrue="1" operator="containsText" id="{D2812EE7-C705-41D1-808D-0880013662BC}">
-            <xm:f>NOT(ISERROR(SEARCH("-",B13)))</xm:f>
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="18" stopIfTrue="1" operator="containsText" id="{964C003D-5E8A-4D67-ABCF-648EA68E5F83}">
-            <xm:f>NOT(ISERROR(SEARCH("v",B13)))</xm:f>
-            <xm:f>"v"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.79998168889431442"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>B13:AD18</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="7" stopIfTrue="1" operator="containsText" id="{88E01DEB-20C9-4C60-9948-DB5AC94B9C52}">
-            <xm:f>NOT(ISERROR(SEARCH("++",B22)))</xm:f>
-            <xm:f>"++"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9" tint="-0.499984740745262"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="8" stopIfTrue="1" operator="containsText" id="{02203D4B-4A64-4024-8D9C-15F016DD85EF}">
-            <xm:f>NOT(ISERROR(SEARCH("+",B22)))</xm:f>
-            <xm:f>"+"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="9" stopIfTrue="1" operator="containsText" id="{E9080681-65C4-4651-A65D-7A6E61EC4D76}">
-            <xm:f>NOT(ISERROR(SEARCH("^",B22)))</xm:f>
-            <xm:f>"^"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9" tint="0.79998168889431442"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="10" stopIfTrue="1" operator="containsText" id="{FDC2D42A-4471-40EC-8221-4933ABD07FB7}">
-            <xm:f>NOT(ISERROR(SEARCH("--",B22)))</xm:f>
-            <xm:f>"--"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFC00000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="11" stopIfTrue="1" operator="containsText" id="{C7EB87B2-E154-48F2-B38E-E1F6813427B8}">
-            <xm:f>NOT(ISERROR(SEARCH("-",B22)))</xm:f>
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="12" stopIfTrue="1" operator="containsText" id="{AF68DCAF-938A-40F8-93FD-207499583064}">
-            <xm:f>NOT(ISERROR(SEARCH("v",B22)))</xm:f>
-            <xm:f>"v"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.79998168889431442"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>B22:AC27</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="1" stopIfTrue="1" operator="containsText" id="{07198B97-AE27-4A85-BE95-2D335D19C43B}">
-            <xm:f>NOT(ISERROR(SEARCH("++",B32)))</xm:f>
-            <xm:f>"++"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9" tint="-0.499984740745262"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="2" stopIfTrue="1" operator="containsText" id="{C3112018-6BAA-4D9D-8183-B04AFF23FB47}">
-            <xm:f>NOT(ISERROR(SEARCH("+",B32)))</xm:f>
-            <xm:f>"+"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="3" stopIfTrue="1" operator="containsText" id="{BA6C5844-3A3B-4EE2-9571-17C6D755781B}">
-            <xm:f>NOT(ISERROR(SEARCH("^",B32)))</xm:f>
-            <xm:f>"^"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9" tint="0.79998168889431442"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="4" stopIfTrue="1" operator="containsText" id="{F76D2C6B-258B-49D1-963C-52C483AE06B0}">
-            <xm:f>NOT(ISERROR(SEARCH("--",B32)))</xm:f>
-            <xm:f>"--"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFC00000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="5" stopIfTrue="1" operator="containsText" id="{4FCF95D2-D346-4D0C-BC0F-A562C99447D2}">
-            <xm:f>NOT(ISERROR(SEARCH("-",B32)))</xm:f>
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="6" stopIfTrue="1" operator="containsText" id="{66F59452-D57D-44E9-A2EB-EFF2E658F73C}">
-            <xm:f>NOT(ISERROR(SEARCH("v",B32)))</xm:f>
-            <xm:f>"v"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.79998168889431442"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>B32:AC37</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/resources/analysis/char distribution/Character Distribution.xlsx
+++ b/resources/analysis/char distribution/Character Distribution.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\mzatt\Projects\Git - v4j\resources\analysis\char distribution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2E1EDC-0B97-4BA4-9D24-9EF0218CD65E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F53AB6A-0B5A-4228-B405-C4D466074E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10575" yWindow="15" windowWidth="15630" windowHeight="15585" tabRatio="806" activeTab="2" xr2:uid="{ECC3CD32-09AE-4AED-9EE9-BD1FB4BEAB7F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="806" xr2:uid="{ECC3CD32-09AE-4AED-9EE9-BD1FB4BEAB7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Compact" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="624">
   <si>
     <t>Transcription     : AUGMENTED</t>
   </si>
@@ -2002,6 +2002,12 @@
   </si>
   <si>
     <t>? (0 / 1019) (0.00% / 0.08%)</t>
+  </si>
+  <si>
+    <t>Completed.</t>
+  </si>
+  <si>
+    <t>[ Last letter in a line  ]</t>
   </si>
 </sst>
 </file>
@@ -3058,8 +3064,8 @@
   </sheetPr>
   <dimension ref="A1:AI58"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M53" sqref="M53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6926,10 +6932,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5676BBC-4181-4DB2-9C99-4C4C3BE5CBF3}">
-  <dimension ref="A1:AG49"/>
+  <dimension ref="A1:AG51"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="U36" sqref="U36"/>
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AK24" sqref="AK24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9221,7 +9227,7 @@
     </row>
     <row r="43" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>40</v>
+        <v>623</v>
       </c>
       <c r="B43" s="11"/>
       <c r="C43" s="10"/>
@@ -9767,6 +9773,11 @@
       </c>
       <c r="AB49" t="s">
         <v>359</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>622</v>
       </c>
     </row>
   </sheetData>
@@ -10064,7 +10075,7 @@
   </sheetPr>
   <dimension ref="A1:AJ23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>

--- a/resources/analysis/char distribution/Character Distribution.xlsx
+++ b/resources/analysis/char distribution/Character Distribution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\mzatt\Projects\Git - v4j\resources\analysis\char distribution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F53AB6A-0B5A-4228-B405-C4D466074E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02ED048F-07E5-472D-8976-3577B1CF407E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="806" xr2:uid="{ECC3CD32-09AE-4AED-9EE9-BD1FB4BEAB7F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="806" activeTab="1" xr2:uid="{ECC3CD32-09AE-4AED-9EE9-BD1FB4BEAB7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Compact" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="623">
   <si>
     <t>Transcription     : AUGMENTED</t>
   </si>
@@ -256,15 +256,9 @@
     <t>v (37 / 1211) (2.96% / 3.66%)</t>
   </si>
   <si>
-    <t>v (4 / 1244) (0.32% / 0.81%)</t>
-  </si>
-  <si>
     <t>v (78 / 1170) (6.25% / 6.27%)</t>
   </si>
   <si>
-    <t>v (12 / 1236) (0.96% / 1.63%)</t>
-  </si>
-  <si>
     <t>v (147 / 1101) (11.78% / 12.63%)</t>
   </si>
   <si>
@@ -298,9 +292,6 @@
     <t>v (64 / 716) (8.21% / 8.43%)</t>
   </si>
   <si>
-    <t>^ (33 / 747) (4.23% / 3.06%)</t>
-  </si>
-  <si>
     <t>^ (46 / 734) (5.90% / 5.07%)</t>
   </si>
   <si>
@@ -313,9 +304,6 @@
     <t>^ (26 / 754) (3.33% / 2.93%)</t>
   </si>
   <si>
-    <t>v (1 / 779) (0.13% / 0.69%)</t>
-  </si>
-  <si>
     <t>^ (72 / 708) (9.23% / 8.05%)</t>
   </si>
   <si>
@@ -325,12 +313,6 @@
     <t>^ (117 / 663) (15.00% / 13.63%)</t>
   </si>
   <si>
-    <t>v (41 / 739) (5.26% / 6.81%)</t>
-  </si>
-  <si>
-    <t>- (3 / 777) (0.38% / 1.48%)</t>
-  </si>
-  <si>
     <t>-- (8 / 772) (1.03% / 3.48%)</t>
   </si>
   <si>
@@ -382,9 +364,6 @@
     <t>++ (15 / 1029) (1.44% / 0.67%)</t>
   </si>
   <si>
-    <t>v (19 / 1025) (1.82% / 2.81%)</t>
-  </si>
-  <si>
     <t>-- (31 / 1013) (2.97% / 4.70%)</t>
   </si>
   <si>
@@ -400,9 +379,6 @@
     <t>^ (36 / 1813) (1.95% / 1.87%)</t>
   </si>
   <si>
-    <t>v (115 / 1734) (6.22% / 7.30%)</t>
-  </si>
-  <si>
     <t>^ (156 / 1693) (8.44% / 8.19%)</t>
   </si>
   <si>
@@ -427,9 +403,6 @@
     <t>v (21 / 1828) (1.14% / 1.23%)</t>
   </si>
   <si>
-    <t>^ (17 / 1832) (0.92% / 0.58%)</t>
-  </si>
-  <si>
     <t>^ (135 / 1714) (7.30% / 7.19%)</t>
   </si>
   <si>
@@ -472,9 +445,6 @@
     <t>v (123 / 2436) (4.81% / 5.05%)</t>
   </si>
   <si>
-    <t>^ (189 / 2370) (7.39% / 6.52%)</t>
-  </si>
-  <si>
     <t>++ (110 / 2449) (4.30% / 2.14%)</t>
   </si>
   <si>
@@ -490,15 +460,9 @@
     <t>v (84 / 2475) (3.28% / 3.67%)</t>
   </si>
   <si>
-    <t>- (10 / 2549) (0.39% / 0.85%)</t>
-  </si>
-  <si>
     <t>- (4 / 2555) (0.16% / 0.43%)</t>
   </si>
   <si>
-    <t>+ (185 / 2374) (7.23% / 6.02%)</t>
-  </si>
-  <si>
     <t>- (29 / 2530) (1.13% / 1.67%)</t>
   </si>
   <si>
@@ -523,9 +487,6 @@
     <t>^ (350 / 2209) (13.68% / 13.50%)</t>
   </si>
   <si>
-    <t>- (178 / 3216) (5.24% / 6.22%)</t>
-  </si>
-  <si>
     <t>-- (20 / 3374) (0.59% / 1.17%)</t>
   </si>
   <si>
@@ -544,30 +505,18 @@
     <t>++ (157 / 3237) (4.63% / 3.70%)</t>
   </si>
   <si>
-    <t>v (211 / 3183) (6.22% / 7.07%)</t>
-  </si>
-  <si>
     <t>++ (120 / 3274) (3.54% / 0.20%)</t>
   </si>
   <si>
-    <t>^ (116 / 3278) (3.42% / 2.87%)</t>
-  </si>
-  <si>
     <t>-- (7 / 3387) (0.21% / 0.74%)</t>
   </si>
   <si>
-    <t>v (7 / 3387) (0.21% / 0.42%)</t>
-  </si>
-  <si>
     <t>^ (277 / 3117) (8.16% / 8.07%)</t>
   </si>
   <si>
     <t>-- (62 / 3332) (1.83% / 2.96%)</t>
   </si>
   <si>
-    <t>+ (506 / 2888) (14.91% / 13.49%)</t>
-  </si>
-  <si>
     <t>v (212 / 3182) (6.25% / 6.84%)</t>
   </si>
   <si>
@@ -589,15 +538,9 @@
     <t>^ (586 / 13082) (4.29% / 4.07%)</t>
   </si>
   <si>
-    <t>- (106 / 13562) (0.78% / 1.00%)</t>
-  </si>
-  <si>
     <t>++ (1167 / 12501) (8.54% / 7.62%)</t>
   </si>
   <si>
-    <t>v (843 / 12825) (6.17% / 6.52%)</t>
-  </si>
-  <si>
     <t>++ (701 / 12967) (5.13% / 4.31%)</t>
   </si>
   <si>
@@ -625,21 +568,9 @@
     <t>++ (24 / 13644) (0.18% / 0.03%)</t>
   </si>
   <si>
-    <t>- (22 / 13646) (0.16% / 0.29%)</t>
-  </si>
-  <si>
-    <t>^ (925 / 12743) (6.77% / 6.36%)</t>
-  </si>
-  <si>
     <t>-- (389 / 13279) (2.85% / 4.13%)</t>
   </si>
   <si>
-    <t>- (28 / 13640) (0.20% / 0.34%)</t>
-  </si>
-  <si>
-    <t>+ (1987 / 11681) (14.54% / 13.68%)</t>
-  </si>
-  <si>
     <t>-- (1273 / 12395) (9.31% / 10.70%)</t>
   </si>
   <si>
@@ -655,12 +586,6 @@
     <t>v (92 / 13576) (0.67% / 0.71%)</t>
   </si>
   <si>
-    <t>v (1371 / 12297) (10.03% / 10.57%)</t>
-  </si>
-  <si>
-    <t>- (30 / 1293) (2.27% / 3.68%)</t>
-  </si>
-  <si>
     <t>v (25 / 1298) (1.89% / 1.89%)</t>
   </si>
   <si>
@@ -682,15 +607,9 @@
     <t>v (84 / 1239) (6.35% / 6.47%)</t>
   </si>
   <si>
-    <t>- (1 / 1322) (0.08% / 0.63%)</t>
-  </si>
-  <si>
     <t>- (13 / 1310) (0.98% / 1.76%)</t>
   </si>
   <si>
-    <t>^ (22 / 1301) (1.66% / 1.12%)</t>
-  </si>
-  <si>
     <t>v (7 / 1316) (0.53% / 0.68%)</t>
   </si>
   <si>
@@ -718,9 +637,6 @@
     <t>^ (133 / 1190) (10.05% / 9.31%)</t>
   </si>
   <si>
-    <t>v (30 / 1516) (1.94% / 2.64%)</t>
-  </si>
-  <si>
     <t>+ (27 / 1519) (1.75% / 1.07%)</t>
   </si>
   <si>
@@ -775,9 +691,6 @@
     <t>+ (58 / 1488) (3.75% / 2.81%)</t>
   </si>
   <si>
-    <t>^ (73 / 1473) (4.72% / 3.82%)</t>
-  </si>
-  <si>
     <t>- (6 / 1540) (0.39% / 0.89%)</t>
   </si>
   <si>
@@ -799,15 +712,9 @@
     <t>+ (86 / 2119) (3.90% / 3.02%)</t>
   </si>
   <si>
-    <t>^ (131 / 2074) (5.94% / 5.02%)</t>
-  </si>
-  <si>
     <t>^ (95 / 2110) (4.31% / 3.77%)</t>
   </si>
   <si>
-    <t>v (134 / 2071) (6.08% / 7.04%)</t>
-  </si>
-  <si>
     <t>v (11 / 2194) (0.50% / 0.63%)</t>
   </si>
   <si>
@@ -820,9 +727,6 @@
     <t>^ (12 / 2193) (0.54% / 0.38%)</t>
   </si>
   <si>
-    <t>+ (208 / 1997) (9.43% / 7.96%)</t>
-  </si>
-  <si>
     <t>v (51 / 2154) (2.31% / 2.86%)</t>
   </si>
   <si>
@@ -853,9 +757,6 @@
     <t>v (604 / 7428) (7.52% / 7.98%)</t>
   </si>
   <si>
-    <t>^ (548 / 7484) (6.82% / 6.32%)</t>
-  </si>
-  <si>
     <t>v (355 / 7677) (4.42% / 4.59%)</t>
   </si>
   <si>
@@ -868,18 +769,12 @@
     <t>-- (1 / 8031) (0.01% / 0.19%)</t>
   </si>
   <si>
-    <t>v (520 / 7512) (6.47% / 7.08%)</t>
-  </si>
-  <si>
     <t>-- (7 / 8025) (0.09% / 1.36%)</t>
   </si>
   <si>
     <t>-- (219 / 7813) (2.73% / 3.87%)</t>
   </si>
   <si>
-    <t>^ (45 / 7987) (0.56% / 0.41%)</t>
-  </si>
-  <si>
     <t>v (5 / 8027) (0.06% / 0.08%)</t>
   </si>
   <si>
@@ -898,9 +793,6 @@
     <t>v (1105 / 6927) (13.76% / 13.98%)</t>
   </si>
   <si>
-    <t>^ (864 / 7168) (10.76% / 10.17%)</t>
-  </si>
-  <si>
     <t>v (49 / 7983) (0.61% / 0.71%)</t>
   </si>
   <si>
@@ -910,12 +802,6 @@
     <t>++ (447 / 7585) (5.57% / 4.47%)</t>
   </si>
   <si>
-    <t>- (39 / 7993) (0.49% / 0.74%)</t>
-  </si>
-  <si>
-    <t>^ (881 / 7151) (10.97% / 10.29%)</t>
-  </si>
-  <si>
     <t>v (23 / 168) (12.04% / 13.56%)</t>
   </si>
   <si>
@@ -937,9 +823,6 @@
     <t>++ (34 / 157) (17.80% / 2.88%)</t>
   </si>
   <si>
-    <t>- (21 / 304) (6.46% / 10.49%)</t>
-  </si>
-  <si>
     <t>++ (51 / 274) (15.69% / 9.73%)</t>
   </si>
   <si>
@@ -952,9 +835,6 @@
     <t>-- (13 / 312) (4.00% / 8.00%)</t>
   </si>
   <si>
-    <t>- (7 / 318) (2.15% / 4.97%)</t>
-  </si>
-  <si>
     <t>++ (75 / 250) (23.08% / 2.02%)</t>
   </si>
   <si>
@@ -1045,12 +925,6 @@
     <t>-- (25 / 156) (13.81% / 26.34%)</t>
   </si>
   <si>
-    <t>- (17 / 164) (9.39% / 16.53%)</t>
-  </si>
-  <si>
-    <t>- (2 / 179) (1.10% / 4.93%)</t>
-  </si>
-  <si>
     <t>^ (29 / 152) (16.02% / 13.78%)</t>
   </si>
   <si>
@@ -1072,9 +946,6 @@
     <t>^ (52 / 262) (16.56% / 15.19%)</t>
   </si>
   <si>
-    <t>v (127 / 187) (40.45% / 46.25%)</t>
-  </si>
-  <si>
     <t>v (8 / 705) (1.12% / 1.86%)</t>
   </si>
   <si>
@@ -1084,16 +955,10 @@
     <t>v (129 / 584) (18.09% / 20.09%)</t>
   </si>
   <si>
-    <t>v (56 / 657) (7.85% / 10.05%)</t>
-  </si>
-  <si>
     <t>^ (9 / 704) (1.26% / 0.83%)</t>
   </si>
   <si>
     <t>-- (60 / 653) (8.42% / 13.91%)</t>
-  </si>
-  <si>
-    <t>^ (390 / 323) (54.70% / 51.44%)</t>
   </si>
   <si>
     <t>v (19 / 1000) (1.86% / 1.87%)</t>
@@ -1323,21 +1188,6 @@
     <t>v (17 / 2871) (0.59% / 0.73%)</t>
   </si>
   <si>
-    <t>v (86 / 2802) (2.98% / 3.69%)</t>
-  </si>
-  <si>
-    <t>v (112 / 2776) (3.88% / 4.64%)</t>
-  </si>
-  <si>
-    <t>v (14 / 2874) (0.48% / 0.79%)</t>
-  </si>
-  <si>
-    <t>^ (331 / 2557) (11.46% / 10.50%)</t>
-  </si>
-  <si>
-    <t>v (110 / 5039) (2.14% / 2.58%)</t>
-  </si>
-  <si>
     <t>v (93 / 5056) (1.81% / 1.98%)</t>
   </si>
   <si>
@@ -1383,33 +1233,18 @@
     <t>-- (34 / 5115) (0.66% / 1.08%)</t>
   </si>
   <si>
-    <t>- (2 / 5147) (0.04% / 0.19%)</t>
-  </si>
-  <si>
     <t>^ (1017 / 4132) (19.75% / 19.15%)</t>
   </si>
   <si>
-    <t>v (344 / 4805) (6.68% / 7.41%)</t>
-  </si>
-  <si>
     <t>v (30 / 5119) (0.58% / 0.74%)</t>
   </si>
   <si>
-    <t>- (160 / 4989) (3.11% / 3.73%)</t>
-  </si>
-  <si>
-    <t>- (201 / 4948) (3.90% / 4.71%)</t>
-  </si>
-  <si>
     <t>v (36 / 5113) (0.70% / 0.77%)</t>
   </si>
   <si>
     <t>^ (552 / 4597) (10.72% / 10.57%)</t>
   </si>
   <si>
-    <t>v (58 / 2868) (1.98% / 2.56%)</t>
-  </si>
-  <si>
     <t>v (51 / 2875) (1.74% / 1.97%)</t>
   </si>
   <si>
@@ -1437,15 +1272,9 @@
     <t>-- (1 / 2925) (0.03% / 0.81%)</t>
   </si>
   <si>
-    <t>v (107 / 2819) (3.66% / 4.32%)</t>
-  </si>
-  <si>
     <t>v (19 / 2907) (0.65% / 0.68%)</t>
   </si>
   <si>
-    <t>- (2 / 2924) (0.07% / 0.31%)</t>
-  </si>
-  <si>
     <t>v (45 / 2881) (1.54% / 1.63%)</t>
   </si>
   <si>
@@ -1467,9 +1296,6 @@
     <t>^ (118 / 2808) (4.03% / 3.57%)</t>
   </si>
   <si>
-    <t>^ (153 / 2773) (5.23% / 4.48%)</t>
-  </si>
-  <si>
     <t>+ (31 / 2895) (1.06% / 0.72%)</t>
   </si>
   <si>
@@ -1479,9 +1305,6 @@
     <t>++ (172 / 944) (15.41% / 8.18%)</t>
   </si>
   <si>
-    <t>+ (63 / 1053) (5.65% / 4.10%)</t>
-  </si>
-  <si>
     <t>-- (155 / 961) (13.89% / 17.55%)</t>
   </si>
   <si>
@@ -1542,472 +1365,646 @@
     <t>++ (110 / 973) (10.16% / 1.56%)</t>
   </si>
   <si>
-    <t>+ (389 / 694) (35.92% / 32.12%)</t>
-  </si>
-  <si>
     <t>Too few samples</t>
   </si>
   <si>
-    <t>? (7 / 2881) (0.24% / 0.03%)</t>
-  </si>
-  <si>
-    <t>? (1 / 2887) (0.03% / 0.18%)</t>
-  </si>
-  <si>
-    <t>? (3 / 2885) (0.10% / 0.06%)</t>
-  </si>
-  <si>
-    <t>? (5 / 624) (0.79% / 0.16%)</t>
-  </si>
-  <si>
-    <t>? (16 / 613) (2.54% / 0.37%)</t>
-  </si>
-  <si>
-    <t>? (4 / 625) (0.64% / 0.03%)</t>
-  </si>
-  <si>
-    <t>? (5 / 624) (0.79% / 0.13%)</t>
-  </si>
-  <si>
-    <t>? (7 / 622) (1.11% / 0.62%)</t>
-  </si>
-  <si>
-    <t>? (1 / 628) (0.16% / 0.12%)</t>
-  </si>
-  <si>
-    <t>? (3 / 626) (0.48% / 0.33%)</t>
-  </si>
-  <si>
-    <t>? (3 / 626) (0.48% / 0.44%)</t>
-  </si>
-  <si>
-    <t>? (1 / 1247) (0.08% / 0.05%)</t>
-  </si>
-  <si>
-    <t>? (5 / 1243) (0.40% / 0.04%)</t>
-  </si>
-  <si>
-    <t>? (2 / 1246) (0.16% / 0.40%)</t>
-  </si>
-  <si>
-    <t>? (1 / 1247) (0.08% / 0.10%)</t>
-  </si>
-  <si>
-    <t>? (1 / 1247) (0.08% / 0.06%)</t>
-  </si>
-  <si>
-    <t>? (6 / 774) (0.77% / 0.05%)</t>
-  </si>
-  <si>
-    <t>? (36 / 744) (4.62% / 0.50%)</t>
-  </si>
-  <si>
-    <t>? (0 / 780) (0.00% / 0.01%)</t>
-  </si>
-  <si>
-    <t>? (1 / 779) (0.13% / 0.06%)</t>
-  </si>
-  <si>
-    <t>? (1 / 779) (0.13% / 0.40%)</t>
-  </si>
-  <si>
-    <t>? (0 / 780) (0.00% / 0.07%)</t>
-  </si>
-  <si>
-    <t>? (3 / 777) (0.38% / 0.56%)</t>
-  </si>
-  <si>
-    <t>? (0 / 780) (0.00% / 0.03%)</t>
-  </si>
-  <si>
-    <t>? (2 / 778) (0.26% / 0.20%)</t>
-  </si>
-  <si>
-    <t>? (8 / 1036) (0.77% / 0.15%)</t>
-  </si>
-  <si>
-    <t>? (0 / 1044) (0.00% / 0.01%)</t>
-  </si>
-  <si>
-    <t>? (1 / 1043) (0.10% / 0.44%)</t>
-  </si>
-  <si>
-    <t>? (3 / 1041) (0.29% / 0.07%)</t>
-  </si>
-  <si>
-    <t>? (0 / 1044) (0.00% / 0.26%)</t>
-  </si>
-  <si>
-    <t>? (4 / 1040) (0.38% / 0.30%)</t>
-  </si>
-  <si>
-    <t>? (0 / 1044) (0.00% / 0.00%)</t>
-  </si>
-  <si>
-    <t>? (11 / 5138) (0.21% / 0.01%)</t>
-  </si>
-  <si>
-    <t>? (5 / 5144) (0.10% / 0.05%)</t>
-  </si>
-  <si>
-    <t>? (17 / 1832) (0.92% / 0.00%)</t>
-  </si>
-  <si>
-    <t>? (6 / 1843) (0.32% / 0.00%)</t>
-  </si>
-  <si>
-    <t>? (14 / 1835) (0.76% / 0.02%)</t>
-  </si>
-  <si>
-    <t>? (2 / 1847) (0.11% / 0.13%)</t>
-  </si>
-  <si>
-    <t>? (4 / 2555) (0.16% / 0.02%)</t>
-  </si>
-  <si>
-    <t>? (8 / 2551) (0.31% / 0.01%)</t>
-  </si>
-  <si>
-    <t>? (2 / 2557) (0.08% / 0.10%)</t>
-  </si>
-  <si>
-    <t>? (2 / 2557) (0.08% / 0.06%)</t>
-  </si>
-  <si>
-    <t>? (14 / 3380) (0.41% / 0.02%)</t>
-  </si>
-  <si>
-    <t>? (3 / 3391) (0.09% / 0.00%)</t>
-  </si>
-  <si>
-    <t>? (11 / 3383) (0.32% / 0.02%)</t>
-  </si>
-  <si>
-    <t>? (2 / 3392) (0.06% / 0.07%)</t>
-  </si>
-  <si>
-    <t>? (1 / 3393) (0.03% / 0.03%)</t>
-  </si>
-  <si>
-    <t>? (6 / 13662) (0.04% / 0.00%)</t>
-  </si>
-  <si>
-    <t>? (0 / 13668) (0.00% / 0.00%)</t>
-  </si>
-  <si>
-    <t>? (0 / 2926) (0.00% / 0.06%)</t>
-  </si>
-  <si>
-    <t>? (2 / 2924) (0.07% / 0.17%)</t>
-  </si>
-  <si>
-    <t>? (2 / 2924) (0.07% / 0.06%)</t>
-  </si>
-  <si>
-    <t>? (0 / 1323) (0.00% / 0.25%)</t>
-  </si>
-  <si>
-    <t>? (0 / 1323) (0.00% / 0.09%)</t>
-  </si>
-  <si>
-    <t>? (0 / 1323) (0.00% / 0.22%)</t>
-  </si>
-  <si>
-    <t>? (2 / 1321) (0.15% / 0.12%)</t>
-  </si>
-  <si>
-    <t>? (6 / 1317) (0.45% / 0.32%)</t>
-  </si>
-  <si>
-    <t>? (1 / 1545) (0.06% / 0.05%)</t>
-  </si>
-  <si>
-    <t>? (0 / 1546) (0.00% / 0.08%)</t>
-  </si>
-  <si>
-    <t>? (2 / 1544) (0.13% / 0.09%)</t>
-  </si>
-  <si>
-    <t>? (0 / 1546) (0.00% / 0.07%)</t>
-  </si>
-  <si>
-    <t>? (0 / 2205) (0.00% / 0.08%)</t>
-  </si>
-  <si>
-    <t>? (0 / 2205) (0.00% / 0.01%)</t>
-  </si>
-  <si>
-    <t>? (1 / 2204) (0.05% / 0.06%)</t>
-  </si>
-  <si>
-    <t>? (0 / 2205) (0.00% / 0.03%)</t>
-  </si>
-  <si>
-    <t>? (1 / 2204) (0.05% / 0.21%)</t>
-  </si>
-  <si>
-    <t>? (0 / 8032) (0.00% / 0.02%)</t>
-  </si>
-  <si>
-    <t>? (0 / 8032) (0.00% / 0.00%)</t>
-  </si>
-  <si>
-    <t>? (13 / 1103) (1.16% / 0.23%)</t>
-  </si>
-  <si>
-    <t>? (0 / 1116) (0.00% / 0.11%)</t>
-  </si>
-  <si>
     <t>-- (0 / 1116) (0.00% / 0.94%)</t>
   </si>
   <si>
-    <t>? (0 / 1116) (0.00% / 0.09%)</t>
-  </si>
-  <si>
-    <t>? (0 / 1116) (0.00% / 0.02%)</t>
-  </si>
-  <si>
-    <t>? (0 / 1116) (0.00% / 0.05%)</t>
-  </si>
-  <si>
-    <t>+ (14 / 177) (7.33% / 3.56%)</t>
-  </si>
-  <si>
-    <t>? (1 / 190) (0.52% / 0.84%)</t>
-  </si>
-  <si>
     <t>-- (4 / 187) (2.09% / 8.22%)</t>
   </si>
   <si>
-    <t>? (2 / 189) (1.05% / 0.26%)</t>
-  </si>
-  <si>
-    <t>? (10 / 181) (5.24% / 0.47%)</t>
-  </si>
-  <si>
-    <t>? (23 / 168) (12.04% / 0.58%)</t>
-  </si>
-  <si>
-    <t>? (0 / 191) (0.00% / 0.26%)</t>
-  </si>
-  <si>
-    <t>? (0 / 191) (0.00% / 2.09%)</t>
-  </si>
-  <si>
-    <t>? (1 / 190) (0.52% / 0.52%)</t>
-  </si>
-  <si>
-    <t>? (1 / 190) (0.52% / 2.04%)</t>
-  </si>
-  <si>
-    <t>? (0 / 191) (0.00% / 0.10%)</t>
-  </si>
-  <si>
-    <t>? (0 / 191) (0.00% / 0.16%)</t>
-  </si>
-  <si>
     <t>++ (19 / 306) (5.85% / 1.69%)</t>
   </si>
   <si>
-    <t>? (1 / 324) (0.31% / 0.47%)</t>
-  </si>
-  <si>
-    <t>? (0 / 325) (0.00% / 0.79%)</t>
-  </si>
-  <si>
     <t>++ (34 / 291) (10.46% / 0.58%)</t>
   </si>
   <si>
-    <t>? (0 / 325) (0.00% / 0.11%)</t>
-  </si>
-  <si>
-    <t>? (0 / 325) (0.00% / 0.43%)</t>
-  </si>
-  <si>
-    <t>? (0 / 325) (0.00% / 0.22%)</t>
-  </si>
-  <si>
-    <t>? (0 / 325) (0.00% / 0.58%)</t>
-  </si>
-  <si>
-    <t>? (0 / 325) (0.00% / 0.14%)</t>
-  </si>
-  <si>
-    <t>? (0 / 705) (0.00% / 0.05%)</t>
-  </si>
-  <si>
     <t>++ (69 / 636) (9.79% / 0.30%)</t>
   </si>
   <si>
-    <t>? (0 / 705) (0.00% / 0.03%)</t>
-  </si>
-  <si>
-    <t>? (0 / 705) (0.00% / 0.10%)</t>
-  </si>
-  <si>
-    <t>? (1 / 704) (0.14% / 0.10%)</t>
-  </si>
-  <si>
-    <t>? (2 / 703) (0.28% / 0.20%)</t>
-  </si>
-  <si>
-    <t>? (1 / 704) (0.14% / 0.05%)</t>
-  </si>
-  <si>
-    <t>? (0 / 705) (0.00% / 0.07%)</t>
-  </si>
-  <si>
-    <t>? (0 / 705) (0.00% / 0.02%)</t>
-  </si>
-  <si>
-    <t>? (13 / 1017) (1.26% / 0.21%)</t>
-  </si>
-  <si>
-    <t>? (0 / 1030) (0.00% / 0.01%)</t>
-  </si>
-  <si>
-    <t>? (0 / 1030) (0.00% / 0.13%)</t>
-  </si>
-  <si>
-    <t>? (0 / 1030) (0.00% / 0.15%)</t>
-  </si>
-  <si>
-    <t>? (4 / 1026) (0.39% / 0.17%)</t>
-  </si>
-  <si>
-    <t>? (0 / 1030) (0.00% / 0.04%)</t>
-  </si>
-  <si>
-    <t>? (1 / 1029) (0.10% / 0.06%)</t>
-  </si>
-  <si>
-    <t>? (0 / 1030) (0.00% / 0.05%)</t>
-  </si>
-  <si>
-    <t>? (1 / 1082) (0.09% / 0.08%)</t>
-  </si>
-  <si>
-    <t>? (0 / 1083) (0.00% / 0.19%)</t>
-  </si>
-  <si>
-    <t>? (0 / 1083) (0.00% / 0.03%)</t>
-  </si>
-  <si>
-    <t>? (0 / 1083) (0.00% / 0.22%)</t>
-  </si>
-  <si>
-    <t>? (0 / 1083) (0.00% / 0.11%)</t>
-  </si>
-  <si>
-    <t>? (2 / 1081) (0.18% / 0.37%)</t>
-  </si>
-  <si>
-    <t>? (0 / 1083) (0.00% / 0.02%)</t>
-  </si>
-  <si>
-    <t>? (1 / 1082) (0.09% / 0.09%)</t>
-  </si>
-  <si>
-    <t>? (0 / 1083) (0.00% / 0.25%)</t>
-  </si>
-  <si>
-    <t>? (0 / 1083) (0.00% / 0.05%)</t>
-  </si>
-  <si>
-    <t>? (3 / 1080) (0.28% / 0.09%)</t>
-  </si>
-  <si>
     <t>v (6 / 175) (3.31% / 4.13%)</t>
   </si>
   <si>
-    <t>? (4 / 177) (2.21% / 0.90%)</t>
-  </si>
-  <si>
-    <t>? (0 / 181) (0.00% / 0.11%)</t>
-  </si>
-  <si>
-    <t>? (1 / 180) (0.55% / 0.11%)</t>
-  </si>
-  <si>
-    <t>? (0 / 181) (0.00% / 0.21%)</t>
-  </si>
-  <si>
-    <t>? (0 / 181) (0.00% / 0.05%)</t>
-  </si>
-  <si>
-    <t>? (19 / 162) (10.50% / 0.74%)</t>
-  </si>
-  <si>
     <t>v (9 / 305) (2.87% / 3.01%)</t>
   </si>
   <si>
-    <t>? (0 / 314) (0.00% / 0.04%)</t>
-  </si>
-  <si>
-    <t>? (0 / 314) (0.00% / 0.14%)</t>
-  </si>
-  <si>
-    <t>? (3 / 311) (0.96% / 0.04%)</t>
-  </si>
-  <si>
-    <t>? (0 / 314) (0.00% / 0.64%)</t>
-  </si>
-  <si>
-    <t>? (0 / 314) (0.00% / 0.07%)</t>
-  </si>
-  <si>
-    <t>? (0 / 314) (0.00% / 0.18%)</t>
-  </si>
-  <si>
-    <t>? (0 / 314) (0.00% / 0.25%)</t>
-  </si>
-  <si>
     <t>++ (71 / 243) (22.61% / 1.10%)</t>
   </si>
   <si>
-    <t>? (0 / 713) (0.00% / 0.02%)</t>
-  </si>
-  <si>
-    <t>? (0 / 713) (0.00% / 0.05%)</t>
-  </si>
-  <si>
-    <t>? (0 / 713) (0.00% / 0.20%)</t>
-  </si>
-  <si>
-    <t>? (0 / 713) (0.00% / 0.07%)</t>
-  </si>
-  <si>
     <t>++ (52 / 661) (7.29% / 0.02%)</t>
   </si>
   <si>
-    <t>? (0 / 1019) (0.00% / 0.04%)</t>
-  </si>
-  <si>
-    <t>? (0 / 1019) (0.00% / 0.01%)</t>
-  </si>
-  <si>
-    <t>? (0 / 1019) (0.00% / 0.19%)</t>
-  </si>
-  <si>
-    <t>? (1 / 1018) (0.10% / 0.08%)</t>
-  </si>
-  <si>
-    <t>? (1 / 1018) (0.10% / 0.14%)</t>
-  </si>
-  <si>
-    <t>? (0 / 1019) (0.00% / 0.10%)</t>
-  </si>
-  <si>
-    <t>? (0 / 1019) (0.00% / 0.07%)</t>
-  </si>
-  <si>
-    <t>? (0 / 1019) (0.00% / 0.08%)</t>
-  </si>
-  <si>
     <t>Completed.</t>
   </si>
   <si>
-    <t>[ Last letter in a line  ]</t>
+    <t>++ (7 / 2881) (0.24% / 0.03%)</t>
+  </si>
+  <si>
+    <t>- (1 / 2887) (0.03% / 0.18%)</t>
+  </si>
+  <si>
+    <t>- (86 / 2802) (2.98% / 3.69%)</t>
+  </si>
+  <si>
+    <t>^ (3 / 2885) (0.10% / 0.06%)</t>
+  </si>
+  <si>
+    <t>- (112 / 2776) (3.88% / 4.64%)</t>
+  </si>
+  <si>
+    <t>- (14 / 2874) (0.48% / 0.79%)</t>
+  </si>
+  <si>
+    <t>+ (331 / 2557) (11.46% / 10.50%)</t>
+  </si>
+  <si>
+    <t>++ (5 / 624) (0.79% / 0.16%)</t>
+  </si>
+  <si>
+    <t>++ (16 / 613) (2.54% / 0.37%)</t>
+  </si>
+  <si>
+    <t>++ (4 / 625) (0.64% / 0.03%)</t>
+  </si>
+  <si>
+    <t>++ (5 / 624) (0.79% / 0.13%)</t>
+  </si>
+  <si>
+    <t>^ (7 / 622) (1.11% / 0.62%)</t>
+  </si>
+  <si>
+    <t>^ (1 / 628) (0.16% / 0.12%)</t>
+  </si>
+  <si>
+    <t>^ (3 / 626) (0.48% / 0.33%)</t>
+  </si>
+  <si>
+    <t>^ (3 / 626) (0.48% / 0.44%)</t>
+  </si>
+  <si>
+    <t>^ (1 / 1247) (0.08% / 0.05%)</t>
+  </si>
+  <si>
+    <t>- (4 / 1244) (0.32% / 0.81%)</t>
+  </si>
+  <si>
+    <t>++ (5 / 1243) (0.40% / 0.04%)</t>
+  </si>
+  <si>
+    <t>v (2 / 1246) (0.16% / 0.40%)</t>
+  </si>
+  <si>
+    <t>- (12 / 1236) (0.96% / 1.63%)</t>
+  </si>
+  <si>
+    <t>v (1 / 1247) (0.08% / 0.10%)</t>
+  </si>
+  <si>
+    <t>^ (1 / 1247) (0.08% / 0.06%)</t>
+  </si>
+  <si>
+    <t>+ (33 / 747) (4.23% / 3.06%)</t>
+  </si>
+  <si>
+    <t>++ (6 / 774) (0.77% / 0.05%)</t>
+  </si>
+  <si>
+    <t>++ (36 / 744) (4.62% / 0.50%)</t>
+  </si>
+  <si>
+    <t>v (0 / 780) (0.00% / 0.01%)</t>
+  </si>
+  <si>
+    <t>- (1 / 779) (0.13% / 0.69%)</t>
+  </si>
+  <si>
+    <t>^ (1 / 779) (0.13% / 0.06%)</t>
+  </si>
+  <si>
+    <t>v (1 / 779) (0.13% / 0.40%)</t>
+  </si>
+  <si>
+    <t>v (0 / 780) (0.00% / 0.07%)</t>
+  </si>
+  <si>
+    <t>- (41 / 739) (5.26% / 6.81%)</t>
+  </si>
+  <si>
+    <t>v (3 / 777) (0.38% / 0.56%)</t>
+  </si>
+  <si>
+    <t>-- (3 / 777) (0.38% / 1.48%)</t>
+  </si>
+  <si>
+    <t>v (0 / 780) (0.00% / 0.03%)</t>
+  </si>
+  <si>
+    <t>^ (2 / 778) (0.26% / 0.20%)</t>
+  </si>
+  <si>
+    <t>++ (8 / 1036) (0.77% / 0.15%)</t>
+  </si>
+  <si>
+    <t>v (0 / 1044) (0.00% / 0.01%)</t>
+  </si>
+  <si>
+    <t>v (1 / 1043) (0.10% / 0.44%)</t>
+  </si>
+  <si>
+    <t>+ (3 / 1041) (0.29% / 0.07%)</t>
+  </si>
+  <si>
+    <t>v (0 / 1044) (0.00% / 0.26%)</t>
+  </si>
+  <si>
+    <t>^ (4 / 1040) (0.38% / 0.30%)</t>
+  </si>
+  <si>
+    <t>- (19 / 1025) (1.82% / 2.81%)</t>
+  </si>
+  <si>
+    <t>v (0 / 1044) (0.00% / 0.00%)</t>
+  </si>
+  <si>
+    <t>- (110 / 5039) (2.14% / 2.58%)</t>
+  </si>
+  <si>
+    <t>++ (11 / 5138) (0.21% / 0.01%)</t>
+  </si>
+  <si>
+    <t>-- (2 / 5147) (0.04% / 0.19%)</t>
+  </si>
+  <si>
+    <t>- (344 / 4805) (6.68% / 7.41%)</t>
+  </si>
+  <si>
+    <t>-- (160 / 4989) (3.11% / 3.73%)</t>
+  </si>
+  <si>
+    <t>^ (5 / 5144) (0.10% / 0.05%)</t>
+  </si>
+  <si>
+    <t>-- (201 / 4948) (3.90% / 4.71%)</t>
+  </si>
+  <si>
+    <t>- (115 / 1734) (6.22% / 7.30%)</t>
+  </si>
+  <si>
+    <t>++ (17 / 1832) (0.92% / 0.00%)</t>
+  </si>
+  <si>
+    <t>++ (6 / 1843) (0.32% / 0.00%)</t>
+  </si>
+  <si>
+    <t>++ (14 / 1835) (0.76% / 0.02%)</t>
+  </si>
+  <si>
+    <t>+ (17 / 1832) (0.92% / 0.58%)</t>
+  </si>
+  <si>
+    <t>v (2 / 1847) (0.11% / 0.13%)</t>
+  </si>
+  <si>
+    <t>+ (189 / 2370) (7.39% / 6.52%)</t>
+  </si>
+  <si>
+    <t>++ (4 / 2555) (0.16% / 0.02%)</t>
+  </si>
+  <si>
+    <t>-- (10 / 2549) (0.39% / 0.85%)</t>
+  </si>
+  <si>
+    <t>++ (8 / 2551) (0.31% / 0.01%)</t>
+  </si>
+  <si>
+    <t>++ (185 / 2374) (7.23% / 6.02%)</t>
+  </si>
+  <si>
+    <t>v (2 / 2557) (0.08% / 0.10%)</t>
+  </si>
+  <si>
+    <t>^ (2 / 2557) (0.08% / 0.06%)</t>
+  </si>
+  <si>
+    <t>-- (178 / 3216) (5.24% / 6.22%)</t>
+  </si>
+  <si>
+    <t>++ (14 / 3380) (0.41% / 0.02%)</t>
+  </si>
+  <si>
+    <t>- (211 / 3183) (6.22% / 7.07%)</t>
+  </si>
+  <si>
+    <t>+ (116 / 3278) (3.42% / 2.87%)</t>
+  </si>
+  <si>
+    <t>++ (3 / 3391) (0.09% / 0.00%)</t>
+  </si>
+  <si>
+    <t>++ (11 / 3383) (0.32% / 0.02%)</t>
+  </si>
+  <si>
+    <t>- (7 / 3387) (0.21% / 0.42%)</t>
+  </si>
+  <si>
+    <t>v (2 / 3392) (0.06% / 0.07%)</t>
+  </si>
+  <si>
+    <t>++ (506 / 2888) (14.91% / 13.49%)</t>
+  </si>
+  <si>
+    <t>v (1 / 3393) (0.03% / 0.03%)</t>
+  </si>
+  <si>
+    <t>-- (106 / 13562) (0.78% / 1.00%)</t>
+  </si>
+  <si>
+    <t>- (843 / 12825) (6.17% / 6.52%)</t>
+  </si>
+  <si>
+    <t>++ (6 / 13662) (0.04% / 0.00%)</t>
+  </si>
+  <si>
+    <t>-- (22 / 13646) (0.16% / 0.29%)</t>
+  </si>
+  <si>
+    <t>+ (925 / 12743) (6.77% / 6.36%)</t>
+  </si>
+  <si>
+    <t>-- (28 / 13640) (0.20% / 0.34%)</t>
+  </si>
+  <si>
+    <t>++ (1987 / 11681) (14.54% / 13.68%)</t>
+  </si>
+  <si>
+    <t>v (0 / 13668) (0.00% / 0.00%)</t>
+  </si>
+  <si>
+    <t>- (1371 / 12297) (10.03% / 10.57%)</t>
+  </si>
+  <si>
+    <t>- (58 / 2868) (1.98% / 2.56%)</t>
+  </si>
+  <si>
+    <t>- (107 / 2819) (3.66% / 4.32%)</t>
+  </si>
+  <si>
+    <t>v (0 / 2926) (0.00% / 0.06%)</t>
+  </si>
+  <si>
+    <t>-- (2 / 2924) (0.07% / 0.31%)</t>
+  </si>
+  <si>
+    <t>v (2 / 2924) (0.07% / 0.17%)</t>
+  </si>
+  <si>
+    <t>^ (2 / 2924) (0.07% / 0.06%)</t>
+  </si>
+  <si>
+    <t>+ (153 / 2773) (5.23% / 4.48%)</t>
+  </si>
+  <si>
+    <t>-- (30 / 1293) (2.27% / 3.68%)</t>
+  </si>
+  <si>
+    <t>- (0 / 1323) (0.00% / 0.25%)</t>
+  </si>
+  <si>
+    <t>-- (1 / 1322) (0.08% / 0.63%)</t>
+  </si>
+  <si>
+    <t>v (0 / 1323) (0.00% / 0.09%)</t>
+  </si>
+  <si>
+    <t>+ (22 / 1301) (1.66% / 1.12%)</t>
+  </si>
+  <si>
+    <t>v (0 / 1323) (0.00% / 0.22%)</t>
+  </si>
+  <si>
+    <t>^ (2 / 1321) (0.15% / 0.12%)</t>
+  </si>
+  <si>
+    <t>^ (6 / 1317) (0.45% / 0.32%)</t>
+  </si>
+  <si>
+    <t>- (30 / 1516) (1.94% / 2.64%)</t>
+  </si>
+  <si>
+    <t>^ (1 / 1545) (0.06% / 0.05%)</t>
+  </si>
+  <si>
+    <t>v (0 / 1546) (0.00% / 0.08%)</t>
+  </si>
+  <si>
+    <t>^ (2 / 1544) (0.13% / 0.09%)</t>
+  </si>
+  <si>
+    <t>v (0 / 1546) (0.00% / 0.07%)</t>
+  </si>
+  <si>
+    <t>+ (73 / 1473) (4.72% / 3.82%)</t>
+  </si>
+  <si>
+    <t>+ (131 / 2074) (5.94% / 5.02%)</t>
+  </si>
+  <si>
+    <t>v (0 / 2205) (0.00% / 0.08%)</t>
+  </si>
+  <si>
+    <t>- (134 / 2071) (6.08% / 7.04%)</t>
+  </si>
+  <si>
+    <t>v (0 / 2205) (0.00% / 0.01%)</t>
+  </si>
+  <si>
+    <t>v (1 / 2204) (0.05% / 0.06%)</t>
+  </si>
+  <si>
+    <t>++ (208 / 1997) (9.43% / 7.96%)</t>
+  </si>
+  <si>
+    <t>v (0 / 2205) (0.00% / 0.03%)</t>
+  </si>
+  <si>
+    <t>v (1 / 2204) (0.05% / 0.21%)</t>
+  </si>
+  <si>
+    <t>+ (548 / 7484) (6.82% / 6.32%)</t>
+  </si>
+  <si>
+    <t>- (520 / 7512) (6.47% / 7.08%)</t>
+  </si>
+  <si>
+    <t>v (0 / 8032) (0.00% / 0.02%)</t>
+  </si>
+  <si>
+    <t>+ (45 / 7987) (0.56% / 0.41%)</t>
+  </si>
+  <si>
+    <t>+ (864 / 7168) (10.76% / 10.17%)</t>
+  </si>
+  <si>
+    <t>v (0 / 8032) (0.00% / 0.00%)</t>
+  </si>
+  <si>
+    <t>-- (39 / 7993) (0.49% / 0.74%)</t>
+  </si>
+  <si>
+    <t>+ (881 / 7151) (10.97% / 10.29%)</t>
+  </si>
+  <si>
+    <t>++ (63 / 1053) (5.65% / 4.10%)</t>
+  </si>
+  <si>
+    <t>++ (13 / 1103) (1.16% / 0.23%)</t>
+  </si>
+  <si>
+    <t>v (0 / 1116) (0.00% / 0.11%)</t>
+  </si>
+  <si>
+    <t>v (0 / 1116) (0.00% / 0.09%)</t>
+  </si>
+  <si>
+    <t>v (0 / 1116) (0.00% / 0.02%)</t>
+  </si>
+  <si>
+    <t>v (0 / 1116) (0.00% / 0.05%)</t>
+  </si>
+  <si>
+    <t>++ (14 / 177) (7.33% / 3.56%)</t>
+  </si>
+  <si>
+    <t>v (1 / 190) (0.52% / 0.84%)</t>
+  </si>
+  <si>
+    <t>^ (2 / 189) (1.05% / 0.26%)</t>
+  </si>
+  <si>
+    <t>++ (10 / 181) (5.24% / 0.47%)</t>
+  </si>
+  <si>
+    <t>++ (23 / 168) (12.04% / 0.58%)</t>
+  </si>
+  <si>
+    <t>v (0 / 191) (0.00% / 0.26%)</t>
+  </si>
+  <si>
+    <t>- (0 / 191) (0.00% / 2.09%)</t>
+  </si>
+  <si>
+    <t>v (1 / 190) (0.52% / 0.52%)</t>
+  </si>
+  <si>
+    <t>v (1 / 190) (0.52% / 2.04%)</t>
+  </si>
+  <si>
+    <t>v (0 / 191) (0.00% / 0.10%)</t>
+  </si>
+  <si>
+    <t>v (0 / 191) (0.00% / 0.16%)</t>
+  </si>
+  <si>
+    <t>-- (21 / 304) (6.46% / 10.49%)</t>
+  </si>
+  <si>
+    <t>v (1 / 324) (0.31% / 0.47%)</t>
+  </si>
+  <si>
+    <t>v (0 / 325) (0.00% / 0.79%)</t>
+  </si>
+  <si>
+    <t>-- (7 / 318) (2.15% / 4.97%)</t>
+  </si>
+  <si>
+    <t>v (0 / 325) (0.00% / 0.11%)</t>
+  </si>
+  <si>
+    <t>v (0 / 325) (0.00% / 0.43%)</t>
+  </si>
+  <si>
+    <t>v (0 / 325) (0.00% / 0.22%)</t>
+  </si>
+  <si>
+    <t>v (0 / 325) (0.00% / 0.58%)</t>
+  </si>
+  <si>
+    <t>v (0 / 325) (0.00% / 0.14%)</t>
+  </si>
+  <si>
+    <t>v (0 / 705) (0.00% / 0.05%)</t>
+  </si>
+  <si>
+    <t>v (0 / 705) (0.00% / 0.03%)</t>
+  </si>
+  <si>
+    <t>v (0 / 705) (0.00% / 0.10%)</t>
+  </si>
+  <si>
+    <t>^ (1 / 704) (0.14% / 0.10%)</t>
+  </si>
+  <si>
+    <t>^ (2 / 703) (0.28% / 0.20%)</t>
+  </si>
+  <si>
+    <t>^ (1 / 704) (0.14% / 0.05%)</t>
+  </si>
+  <si>
+    <t>v (0 / 705) (0.00% / 0.07%)</t>
+  </si>
+  <si>
+    <t>v (0 / 705) (0.00% / 0.02%)</t>
+  </si>
+  <si>
+    <t>++ (13 / 1017) (1.26% / 0.21%)</t>
+  </si>
+  <si>
+    <t>v (0 / 1030) (0.00% / 0.01%)</t>
+  </si>
+  <si>
+    <t>v (0 / 1030) (0.00% / 0.13%)</t>
+  </si>
+  <si>
+    <t>v (0 / 1030) (0.00% / 0.15%)</t>
+  </si>
+  <si>
+    <t>^ (4 / 1026) (0.39% / 0.17%)</t>
+  </si>
+  <si>
+    <t>v (0 / 1030) (0.00% / 0.04%)</t>
+  </si>
+  <si>
+    <t>^ (1 / 1029) (0.10% / 0.06%)</t>
+  </si>
+  <si>
+    <t>v (0 / 1030) (0.00% / 0.05%)</t>
+  </si>
+  <si>
+    <t>^ (1 / 1082) (0.09% / 0.08%)</t>
+  </si>
+  <si>
+    <t>v (0 / 1083) (0.00% / 0.19%)</t>
+  </si>
+  <si>
+    <t>v (0 / 1083) (0.00% / 0.03%)</t>
+  </si>
+  <si>
+    <t>v (0 / 1083) (0.00% / 0.22%)</t>
+  </si>
+  <si>
+    <t>v (0 / 1083) (0.00% / 0.11%)</t>
+  </si>
+  <si>
+    <t>v (2 / 1081) (0.18% / 0.37%)</t>
+  </si>
+  <si>
+    <t>v (0 / 1083) (0.00% / 0.02%)</t>
+  </si>
+  <si>
+    <t>v (1 / 1082) (0.09% / 0.09%)</t>
+  </si>
+  <si>
+    <t>v (0 / 1083) (0.00% / 0.25%)</t>
+  </si>
+  <si>
+    <t>v (0 / 1083) (0.00% / 0.05%)</t>
+  </si>
+  <si>
+    <t>^ (3 / 1080) (0.28% / 0.09%)</t>
+  </si>
+  <si>
+    <t>++ (389 / 694) (35.92% / 32.12%)</t>
+  </si>
+  <si>
+    <t>^ (4 / 177) (2.21% / 0.90%)</t>
+  </si>
+  <si>
+    <t>-- (17 / 164) (9.39% / 16.53%)</t>
+  </si>
+  <si>
+    <t>v (0 / 181) (0.00% / 0.11%)</t>
+  </si>
+  <si>
+    <t>^ (1 / 180) (0.55% / 0.11%)</t>
+  </si>
+  <si>
+    <t>v (0 / 181) (0.00% / 0.21%)</t>
+  </si>
+  <si>
+    <t>v (0 / 181) (0.00% / 0.05%)</t>
+  </si>
+  <si>
+    <t>-- (2 / 179) (1.10% / 4.93%)</t>
+  </si>
+  <si>
+    <t>++ (19 / 162) (10.50% / 0.74%)</t>
+  </si>
+  <si>
+    <t>v (0 / 314) (0.00% / 0.04%)</t>
+  </si>
+  <si>
+    <t>v (0 / 314) (0.00% / 0.14%)</t>
+  </si>
+  <si>
+    <t>++ (3 / 311) (0.96% / 0.04%)</t>
+  </si>
+  <si>
+    <t>v (0 / 314) (0.00% / 0.64%)</t>
+  </si>
+  <si>
+    <t>v (0 / 314) (0.00% / 0.07%)</t>
+  </si>
+  <si>
+    <t>v (0 / 314) (0.00% / 0.18%)</t>
+  </si>
+  <si>
+    <t>v (0 / 314) (0.00% / 0.25%)</t>
+  </si>
+  <si>
+    <t>- (127 / 187) (40.45% / 46.25%)</t>
+  </si>
+  <si>
+    <t>v (0 / 713) (0.00% / 0.02%)</t>
+  </si>
+  <si>
+    <t>- (56 / 657) (7.85% / 10.05%)</t>
+  </si>
+  <si>
+    <t>v (0 / 713) (0.00% / 0.05%)</t>
+  </si>
+  <si>
+    <t>v (0 / 713) (0.00% / 0.20%)</t>
+  </si>
+  <si>
+    <t>v (0 / 713) (0.00% / 0.07%)</t>
+  </si>
+  <si>
+    <t>+ (390 / 323) (54.70% / 51.44%)</t>
+  </si>
+  <si>
+    <t>v (0 / 1019) (0.00% / 0.04%)</t>
+  </si>
+  <si>
+    <t>v (0 / 1019) (0.00% / 0.01%)</t>
+  </si>
+  <si>
+    <t>v (0 / 1019) (0.00% / 0.19%)</t>
+  </si>
+  <si>
+    <t>^ (1 / 1018) (0.10% / 0.08%)</t>
+  </si>
+  <si>
+    <t>v (1 / 1018) (0.10% / 0.14%)</t>
+  </si>
+  <si>
+    <t>v (0 / 1019) (0.00% / 0.10%)</t>
+  </si>
+  <si>
+    <t>v (0 / 1019) (0.00% / 0.07%)</t>
+  </si>
+  <si>
+    <t>v (0 / 1019) (0.00% / 0.08%)</t>
   </si>
 </sst>
 </file>
@@ -3064,8 +3061,8 @@
   </sheetPr>
   <dimension ref="A1:AI58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M53" sqref="M53"/>
+    <sheetView topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3420,82 +3417,82 @@
         <v>0</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="N9" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="O9" s="16" t="s">
-        <v>43</v>
+        <v>315</v>
       </c>
       <c r="P9" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="Q9" s="16" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="R9" s="16" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="S9" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="T9" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="U9" s="16" t="s">
-        <v>43</v>
+        <v>319</v>
       </c>
       <c r="V9" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="W9" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="X9" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="Y9" s="16" t="s">
-        <v>363</v>
+        <v>319</v>
       </c>
       <c r="Z9" s="16" t="s">
-        <v>43</v>
+        <v>317</v>
       </c>
       <c r="AA9" s="16" t="s">
-        <v>363</v>
+        <v>319</v>
       </c>
       <c r="AB9" s="16" t="s">
-        <v>363</v>
+        <v>319</v>
       </c>
       <c r="AC9" s="17" t="s">
-        <v>362</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
@@ -3506,82 +3503,82 @@
         <v>0</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>361</v>
+        <v>316</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>43</v>
+        <v>315</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="M10" s="16" t="s">
-        <v>43</v>
+        <v>315</v>
       </c>
       <c r="N10" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="O10" s="16" t="s">
-        <v>43</v>
+        <v>315</v>
       </c>
       <c r="P10" s="16" t="s">
-        <v>361</v>
+        <v>316</v>
       </c>
       <c r="Q10" s="16" t="s">
-        <v>43</v>
+        <v>315</v>
       </c>
       <c r="R10" s="16" t="s">
-        <v>43</v>
+        <v>317</v>
       </c>
       <c r="S10" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="T10" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="U10" s="16" t="s">
-        <v>43</v>
+        <v>317</v>
       </c>
       <c r="V10" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="W10" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="X10" s="16" t="s">
-        <v>43</v>
+        <v>317</v>
       </c>
       <c r="Y10" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="Z10" s="16" t="s">
         <v>43</v>
       </c>
       <c r="AA10" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="AB10" s="16" t="s">
-        <v>43</v>
+        <v>317</v>
       </c>
       <c r="AC10" s="17" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
@@ -3592,82 +3589,82 @@
         <v>0</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>361</v>
+        <v>316</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="M11" s="16" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="N11" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="O11" s="16" t="s">
-        <v>43</v>
+        <v>317</v>
       </c>
       <c r="P11" s="16" t="s">
-        <v>363</v>
+        <v>319</v>
       </c>
       <c r="Q11" s="16" t="s">
-        <v>43</v>
+        <v>315</v>
       </c>
       <c r="R11" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="S11" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="T11" s="16" t="s">
-        <v>363</v>
+        <v>319</v>
       </c>
       <c r="U11" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="V11" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="W11" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="X11" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="Y11" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="Z11" s="16" t="s">
-        <v>43</v>
+        <v>317</v>
       </c>
       <c r="AA11" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="AB11" s="16" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="AC11" s="17" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
@@ -3678,82 +3675,82 @@
         <v>0</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>362</v>
+        <v>316</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>43</v>
+        <v>315</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="M12" s="16" t="s">
-        <v>43</v>
+        <v>315</v>
       </c>
       <c r="N12" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="O12" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="P12" s="16" t="s">
-        <v>363</v>
+        <v>319</v>
       </c>
       <c r="Q12" s="16" t="s">
-        <v>43</v>
+        <v>317</v>
       </c>
       <c r="R12" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="S12" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="T12" s="16" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="U12" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="V12" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="W12" s="16" t="s">
-        <v>363</v>
+        <v>319</v>
       </c>
       <c r="X12" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="Y12" s="16" t="s">
-        <v>364</v>
+        <v>320</v>
       </c>
       <c r="Z12" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="AA12" s="16" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="AB12" s="16" t="s">
-        <v>43</v>
+        <v>317</v>
       </c>
       <c r="AC12" s="17" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3764,82 +3761,82 @@
         <v>0</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>364</v>
+        <v>319</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>43</v>
+        <v>315</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="M13" s="18" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="N13" s="18" t="s">
-        <v>361</v>
+        <v>316</v>
       </c>
       <c r="O13" s="18" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="P13" s="18" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="Q13" s="18" t="s">
-        <v>43</v>
+        <v>316</v>
       </c>
       <c r="R13" s="18" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="S13" s="18" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="T13" s="18" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="U13" s="18" t="s">
-        <v>43</v>
+        <v>317</v>
       </c>
       <c r="V13" s="18" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="W13" s="18" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="X13" s="18" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="Y13" s="18" t="s">
-        <v>363</v>
+        <v>319</v>
       </c>
       <c r="Z13" s="18" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="AA13" s="18" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="AB13" s="18" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="AC13" s="19" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:35" s="23" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -4042,82 +4039,82 @@
         <v>0</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>363</v>
+        <v>319</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>364</v>
+        <v>319</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="J18" s="16" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="M18" s="16" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="N18" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="O18" s="16" t="s">
-        <v>43</v>
+        <v>315</v>
       </c>
       <c r="P18" s="16" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="Q18" s="16" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="R18" s="16" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="S18" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="T18" s="16" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="U18" s="16" t="s">
-        <v>364</v>
+        <v>320</v>
       </c>
       <c r="V18" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="W18" s="16" t="s">
-        <v>363</v>
+        <v>319</v>
       </c>
       <c r="X18" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="Y18" s="16" t="s">
-        <v>364</v>
+        <v>320</v>
       </c>
       <c r="Z18" s="16" t="s">
-        <v>43</v>
+        <v>317</v>
       </c>
       <c r="AA18" s="16" t="s">
-        <v>364</v>
+        <v>320</v>
       </c>
       <c r="AB18" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="AC18" s="17" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.25">
@@ -4128,82 +4125,82 @@
         <v>0</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>363</v>
+        <v>319</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>43</v>
+        <v>315</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="M19" s="16" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="N19" s="16" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="O19" s="16" t="s">
-        <v>43</v>
+        <v>315</v>
       </c>
       <c r="P19" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="Q19" s="16" t="s">
-        <v>43</v>
+        <v>315</v>
       </c>
       <c r="R19" s="16" t="s">
-        <v>362</v>
+        <v>316</v>
       </c>
       <c r="S19" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="T19" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="U19" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="V19" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="W19" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="X19" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="Y19" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="Z19" s="16" t="s">
         <v>43</v>
       </c>
       <c r="AA19" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="AB19" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="AC19" s="17" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.25">
@@ -4214,82 +4211,82 @@
         <v>0</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>364</v>
+        <v>319</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>362</v>
+        <v>316</v>
       </c>
       <c r="J20" s="16" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="K20" s="16" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="M20" s="16" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="N20" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="O20" s="16" t="s">
-        <v>43</v>
+        <v>315</v>
       </c>
       <c r="P20" s="16" t="s">
-        <v>364</v>
+        <v>320</v>
       </c>
       <c r="Q20" s="16" t="s">
-        <v>43</v>
+        <v>315</v>
       </c>
       <c r="R20" s="16" t="s">
-        <v>364</v>
+        <v>319</v>
       </c>
       <c r="S20" s="16" t="s">
-        <v>361</v>
+        <v>315</v>
       </c>
       <c r="T20" s="16" t="s">
-        <v>364</v>
+        <v>319</v>
       </c>
       <c r="U20" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="V20" s="16" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="W20" s="16" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="X20" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="Y20" s="16" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="Z20" s="16" t="s">
-        <v>43</v>
+        <v>317</v>
       </c>
       <c r="AA20" s="16" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="AB20" s="16" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="AC20" s="17" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.25">
@@ -4300,82 +4297,82 @@
         <v>0</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>364</v>
+        <v>320</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="J21" s="16" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="K21" s="16" t="s">
-        <v>43</v>
+        <v>315</v>
       </c>
       <c r="L21" s="16" t="s">
-        <v>363</v>
+        <v>319</v>
       </c>
       <c r="M21" s="16" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="N21" s="16" t="s">
-        <v>362</v>
+        <v>316</v>
       </c>
       <c r="O21" s="16" t="s">
-        <v>43</v>
+        <v>315</v>
       </c>
       <c r="P21" s="16" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="Q21" s="16" t="s">
-        <v>43</v>
+        <v>315</v>
       </c>
       <c r="R21" s="16" t="s">
-        <v>363</v>
+        <v>319</v>
       </c>
       <c r="S21" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="T21" s="16" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="U21" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="V21" s="16" t="s">
-        <v>361</v>
+        <v>315</v>
       </c>
       <c r="W21" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="X21" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="Y21" s="16" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="Z21" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="AA21" s="16" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="AB21" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="AC21" s="17" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
     </row>
     <row r="22" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4386,82 +4383,82 @@
         <v>0</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>364</v>
+        <v>320</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>363</v>
+        <v>319</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="J22" s="18" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="L22" s="18" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="M22" s="18" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="N22" s="18" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="O22" s="18" t="s">
-        <v>43</v>
+        <v>315</v>
       </c>
       <c r="P22" s="18" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="Q22" s="18" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="R22" s="18" t="s">
-        <v>364</v>
+        <v>320</v>
       </c>
       <c r="S22" s="18" t="s">
-        <v>362</v>
+        <v>316</v>
       </c>
       <c r="T22" s="18" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="U22" s="18" t="s">
-        <v>364</v>
+        <v>320</v>
       </c>
       <c r="V22" s="18" t="s">
-        <v>361</v>
+        <v>315</v>
       </c>
       <c r="W22" s="18" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="X22" s="18" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="Y22" s="18" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="Z22" s="18" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="AA22" s="18" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="AB22" s="18" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="AC22" s="19" t="s">
-        <v>363</v>
+        <v>319</v>
       </c>
     </row>
     <row r="23" spans="1:35" s="23" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -4664,82 +4661,82 @@
         <v>0</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>363</v>
+        <v>319</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="I27" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="J27" s="16" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="K27" s="16" t="s">
-        <v>364</v>
+        <v>319</v>
       </c>
       <c r="L27" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="M27" s="16" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="N27" s="16" t="s">
-        <v>363</v>
+        <v>319</v>
       </c>
       <c r="O27" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="P27" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="Q27" s="16" t="s">
-        <v>364</v>
+        <v>320</v>
       </c>
       <c r="R27" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="S27" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="T27" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="U27" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="V27" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="W27" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="X27" s="16" t="s">
-        <v>361</v>
+        <v>316</v>
       </c>
       <c r="Y27" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="Z27" s="16" t="s">
-        <v>43</v>
+        <v>317</v>
       </c>
       <c r="AA27" s="16" t="s">
-        <v>362</v>
+        <v>316</v>
       </c>
       <c r="AB27" s="16" t="s">
-        <v>361</v>
+        <v>316</v>
       </c>
       <c r="AC27" s="17" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.25">
@@ -4750,82 +4747,82 @@
         <v>3.8999999999999998E-3</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>364</v>
+        <v>320</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="I28" s="16" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="J28" s="16" t="s">
-        <v>364</v>
+        <v>319</v>
       </c>
       <c r="K28" s="16" t="s">
-        <v>43</v>
+        <v>319</v>
       </c>
       <c r="L28" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="M28" s="16" t="s">
-        <v>364</v>
+        <v>320</v>
       </c>
       <c r="N28" s="16" t="s">
-        <v>364</v>
+        <v>319</v>
       </c>
       <c r="O28" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="P28" s="16" t="s">
-        <v>362</v>
+        <v>316</v>
       </c>
       <c r="Q28" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="R28" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="S28" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="T28" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="U28" s="16" t="s">
-        <v>43</v>
+        <v>317</v>
       </c>
       <c r="V28" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="W28" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="X28" s="16" t="s">
-        <v>43</v>
+        <v>317</v>
       </c>
       <c r="Y28" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="Z28" s="16" t="s">
         <v>43</v>
       </c>
       <c r="AA28" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="AB28" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="AC28" s="17" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.25">
@@ -4836,82 +4833,82 @@
         <v>6.8999999999999999E-3</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>363</v>
+        <v>319</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>361</v>
+        <v>316</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="I29" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="K29" s="16" t="s">
-        <v>364</v>
+        <v>319</v>
       </c>
       <c r="L29" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="M29" s="16" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="N29" s="16" t="s">
-        <v>364</v>
+        <v>319</v>
       </c>
       <c r="O29" s="16" t="s">
-        <v>43</v>
+        <v>317</v>
       </c>
       <c r="P29" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="Q29" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="R29" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="S29" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="T29" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="U29" s="16" t="s">
-        <v>43</v>
+        <v>317</v>
       </c>
       <c r="V29" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="W29" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="X29" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="Y29" s="16" t="s">
-        <v>361</v>
+        <v>316</v>
       </c>
       <c r="Z29" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="AA29" s="16" t="s">
-        <v>362</v>
+        <v>316</v>
       </c>
       <c r="AB29" s="16" t="s">
-        <v>364</v>
+        <v>319</v>
       </c>
       <c r="AC29" s="17" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.25">
@@ -4922,82 +4919,82 @@
         <v>0</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>361</v>
+        <v>316</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>361</v>
+        <v>316</v>
       </c>
       <c r="I30" s="16" t="s">
-        <v>362</v>
+        <v>316</v>
       </c>
       <c r="J30" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="K30" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="L30" s="16" t="s">
-        <v>363</v>
+        <v>319</v>
       </c>
       <c r="M30" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="N30" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="O30" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="P30" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="Q30" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="R30" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="S30" s="16" t="s">
-        <v>361</v>
+        <v>315</v>
       </c>
       <c r="T30" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="U30" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="V30" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="W30" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="X30" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="Y30" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="Z30" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="AA30" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="AB30" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="AC30" s="17" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
     </row>
     <row r="31" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5008,82 +5005,82 @@
         <v>0</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>362</v>
+        <v>316</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="J31" s="18" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="K31" s="18" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="L31" s="18" t="s">
-        <v>363</v>
+        <v>319</v>
       </c>
       <c r="M31" s="18" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="N31" s="18" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="O31" s="18" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="P31" s="18" t="s">
-        <v>362</v>
+        <v>316</v>
       </c>
       <c r="Q31" s="18" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="R31" s="18" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="S31" s="18" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="T31" s="18" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="U31" s="18" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="V31" s="18" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="W31" s="18" t="s">
-        <v>362</v>
+        <v>316</v>
       </c>
       <c r="X31" s="18" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="Y31" s="18" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="Z31" s="18" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="AA31" s="18" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="AB31" s="18" t="s">
-        <v>364</v>
+        <v>320</v>
       </c>
       <c r="AC31" s="19" t="s">
-        <v>362</v>
+        <v>316</v>
       </c>
     </row>
     <row r="32" spans="1:35" s="23" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -5286,64 +5283,64 @@
         <v>0</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>361</v>
+        <v>315</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="I36" s="16" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="J36" s="16" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="K36" s="16" t="s">
-        <v>43</v>
+        <v>315</v>
       </c>
       <c r="L36" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="M36" s="16" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="N36" s="16" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="O36" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="P36" s="16" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="Q36" s="16" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="R36" s="16" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="S36" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="T36" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="U36" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="V36" s="16" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="W36" s="16" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="X36" s="16" t="s">
         <v>43</v>
@@ -5352,16 +5349,16 @@
         <v>43</v>
       </c>
       <c r="Z36" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="AA36" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="AB36" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="AC36" s="17" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.25">
@@ -5372,64 +5369,64 @@
         <v>0</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>361</v>
+        <v>315</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="I37" s="16" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="J37" s="16" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="K37" s="16" t="s">
-        <v>43</v>
+        <v>317</v>
       </c>
       <c r="L37" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="M37" s="16" t="s">
-        <v>43</v>
+        <v>315</v>
       </c>
       <c r="N37" s="16" t="s">
-        <v>43</v>
+        <v>315</v>
       </c>
       <c r="O37" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="P37" s="16" t="s">
-        <v>43</v>
+        <v>319</v>
       </c>
       <c r="Q37" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="R37" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="S37" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="T37" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="U37" s="16" t="s">
         <v>43</v>
       </c>
       <c r="V37" s="16" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="W37" s="16" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="X37" s="16" t="s">
         <v>43</v>
@@ -5447,7 +5444,7 @@
         <v>43</v>
       </c>
       <c r="AC37" s="17" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.25">
@@ -5458,64 +5455,64 @@
         <v>0</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>364</v>
+        <v>320</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="H38" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="I38" s="16" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="J38" s="16" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="K38" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="L38" s="16" t="s">
-        <v>364</v>
+        <v>320</v>
       </c>
       <c r="M38" s="16" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="N38" s="16" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="O38" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="P38" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="Q38" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="R38" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="S38" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="T38" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="U38" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="V38" s="16" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="W38" s="16" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="X38" s="16" t="s">
         <v>43</v>
@@ -5530,10 +5527,10 @@
         <v>43</v>
       </c>
       <c r="AB38" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="AC38" s="17" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.25">
@@ -5544,64 +5541,64 @@
         <v>0</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>361</v>
+        <v>316</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="I39" s="16" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="J39" s="16" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="K39" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="L39" s="16" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="M39" s="16" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="N39" s="16" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="O39" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="P39" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="Q39" s="16" t="s">
-        <v>43</v>
+        <v>317</v>
       </c>
       <c r="R39" s="16" t="s">
-        <v>43</v>
+        <v>317</v>
       </c>
       <c r="S39" s="16" t="s">
-        <v>43</v>
+        <v>317</v>
       </c>
       <c r="T39" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="U39" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="V39" s="16" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="W39" s="16" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="X39" s="16" t="s">
         <v>43</v>
@@ -5616,10 +5613,10 @@
         <v>43</v>
       </c>
       <c r="AB39" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="AC39" s="17" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
     </row>
     <row r="40" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5630,70 +5627,70 @@
         <v>0</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="G40" s="18" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="H40" s="18" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="I40" s="18" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="J40" s="18" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="K40" s="18" t="s">
-        <v>43</v>
+        <v>315</v>
       </c>
       <c r="L40" s="18" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="M40" s="18" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="N40" s="18" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="O40" s="18" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="P40" s="18" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="Q40" s="18" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="R40" s="18" t="s">
-        <v>43</v>
+        <v>317</v>
       </c>
       <c r="S40" s="18" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="T40" s="18" t="s">
-        <v>43</v>
+        <v>317</v>
       </c>
       <c r="U40" s="18" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="V40" s="18" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="W40" s="18" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="X40" s="18" t="s">
         <v>43</v>
       </c>
       <c r="Y40" s="18" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="Z40" s="18" t="s">
         <v>43</v>
@@ -5702,10 +5699,10 @@
         <v>43</v>
       </c>
       <c r="AB40" s="18" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="AC40" s="19" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
     </row>
     <row r="41" spans="1:35" s="23" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -5911,64 +5908,64 @@
         <v>43</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="I45" s="16" t="s">
-        <v>43</v>
+        <v>317</v>
       </c>
       <c r="J45" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="K45" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="L45" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="M45" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="N45" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="O45" s="16" t="s">
         <v>43</v>
       </c>
       <c r="P45" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="Q45" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="R45" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="S45" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="T45" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="U45" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="V45" s="16" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="W45" s="16" t="s">
-        <v>43</v>
+        <v>317</v>
       </c>
       <c r="X45" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="Y45" s="16" t="s">
         <v>43</v>
@@ -5977,13 +5974,13 @@
         <v>43</v>
       </c>
       <c r="AA45" s="16" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="AB45" s="16" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="AC45" s="17" t="s">
-        <v>361</v>
+        <v>315</v>
       </c>
     </row>
     <row r="46" spans="1:35" x14ac:dyDescent="0.25">
@@ -5997,31 +5994,31 @@
         <v>43</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>43</v>
+        <v>317</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>364</v>
+        <v>320</v>
       </c>
       <c r="I46" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="J46" s="16" t="s">
-        <v>43</v>
+        <v>317</v>
       </c>
       <c r="K46" s="16" t="s">
         <v>43</v>
       </c>
       <c r="L46" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="M46" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="N46" s="16" t="s">
         <v>43</v>
@@ -6039,22 +6036,22 @@
         <v>43</v>
       </c>
       <c r="S46" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="T46" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="U46" s="16" t="s">
         <v>43</v>
       </c>
       <c r="V46" s="16" t="s">
-        <v>364</v>
+        <v>320</v>
       </c>
       <c r="W46" s="16" t="s">
-        <v>43</v>
+        <v>317</v>
       </c>
       <c r="X46" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="Y46" s="16" t="s">
         <v>43</v>
@@ -6063,13 +6060,13 @@
         <v>43</v>
       </c>
       <c r="AA46" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="AB46" s="16" t="s">
-        <v>43</v>
+        <v>315</v>
       </c>
       <c r="AC46" s="17" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.25">
@@ -6083,40 +6080,40 @@
         <v>43</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="I47" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="J47" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="K47" s="16" t="s">
-        <v>43</v>
+        <v>315</v>
       </c>
       <c r="L47" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="M47" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="N47" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="O47" s="16" t="s">
         <v>43</v>
       </c>
       <c r="P47" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="Q47" s="16" t="s">
         <v>43</v>
@@ -6125,19 +6122,19 @@
         <v>43</v>
       </c>
       <c r="S47" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="T47" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="U47" s="16" t="s">
         <v>43</v>
       </c>
       <c r="V47" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="W47" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="X47" s="16" t="s">
         <v>43</v>
@@ -6149,13 +6146,13 @@
         <v>43</v>
       </c>
       <c r="AA47" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="AB47" s="16" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="AC47" s="17" t="s">
-        <v>363</v>
+        <v>319</v>
       </c>
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.25">
@@ -6166,43 +6163,43 @@
         <v>0</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>363</v>
+        <v>319</v>
       </c>
       <c r="I48" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="J48" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="K48" s="16" t="s">
         <v>43</v>
       </c>
       <c r="L48" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="M48" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="N48" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="O48" s="16" t="s">
         <v>43</v>
       </c>
       <c r="P48" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="Q48" s="16" t="s">
         <v>43</v>
@@ -6211,19 +6208,19 @@
         <v>43</v>
       </c>
       <c r="S48" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="T48" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="U48" s="16" t="s">
         <v>43</v>
       </c>
       <c r="V48" s="16" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="W48" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="X48" s="16" t="s">
         <v>43</v>
@@ -6235,13 +6232,13 @@
         <v>43</v>
       </c>
       <c r="AA48" s="16" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="AB48" s="16" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="AC48" s="17" t="s">
-        <v>362</v>
+        <v>316</v>
       </c>
     </row>
     <row r="49" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6255,34 +6252,34 @@
         <v>43</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="G49" s="18" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="H49" s="18" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="I49" s="18" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="J49" s="18" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="K49" s="18" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="L49" s="18" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="M49" s="18" t="s">
-        <v>43</v>
+        <v>317</v>
       </c>
       <c r="N49" s="18" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="O49" s="18" t="s">
         <v>43</v>
@@ -6297,19 +6294,19 @@
         <v>43</v>
       </c>
       <c r="S49" s="18" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="T49" s="18" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="U49" s="18" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="V49" s="18" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="W49" s="18" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="X49" s="18" t="s">
         <v>43</v>
@@ -6321,13 +6318,13 @@
         <v>43</v>
       </c>
       <c r="AA49" s="18" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="AB49" s="18" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="AC49" s="19" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
     </row>
     <row r="50" spans="2:31" s="23" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -6363,12 +6360,7 @@
     <row r="51" spans="2:31" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="34"/>
       <c r="C51" s="22"/>
-      <c r="D51" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="E51" s="23" t="s">
-        <v>370</v>
-      </c>
+      <c r="D51" s="12"/>
       <c r="F51" s="22"/>
       <c r="G51" s="22"/>
       <c r="H51" s="22"/>
@@ -6400,10 +6392,10 @@
       <c r="B52" s="34"/>
       <c r="C52" s="22"/>
       <c r="D52" s="12" t="s">
-        <v>361</v>
+        <v>316</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>371</v>
+        <v>326</v>
       </c>
       <c r="F52" s="22"/>
       <c r="G52" s="22"/>
@@ -6436,10 +6428,10 @@
       <c r="B53" s="34"/>
       <c r="C53" s="22"/>
       <c r="D53" s="12" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>372</v>
+        <v>327</v>
       </c>
       <c r="F53" s="22"/>
       <c r="G53" s="22"/>
@@ -6472,10 +6464,10 @@
       <c r="B54" s="34"/>
       <c r="C54" s="32"/>
       <c r="D54" s="12" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>373</v>
+        <v>328</v>
       </c>
       <c r="F54" s="22"/>
       <c r="G54" s="22"/>
@@ -6508,10 +6500,10 @@
       <c r="B55" s="34"/>
       <c r="C55" s="32"/>
       <c r="D55" s="12" t="s">
-        <v>364</v>
+        <v>319</v>
       </c>
       <c r="E55" s="23" t="s">
-        <v>374</v>
+        <v>329</v>
       </c>
       <c r="F55" s="22"/>
       <c r="G55" s="22"/>
@@ -6544,10 +6536,10 @@
       <c r="B56" s="34"/>
       <c r="C56" s="32"/>
       <c r="D56" s="12" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="E56" s="23" t="s">
-        <v>375</v>
+        <v>330</v>
       </c>
       <c r="F56" s="22"/>
       <c r="G56" s="22"/>
@@ -6583,7 +6575,7 @@
         <v>43</v>
       </c>
       <c r="E57" s="23" t="s">
-        <v>469</v>
+        <v>409</v>
       </c>
       <c r="F57" s="22"/>
       <c r="G57" s="22"/>
@@ -6934,8 +6926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5676BBC-4181-4DB2-9C99-4C4C3BE5CBF3}">
   <dimension ref="A1:AG51"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AK24" sqref="AK24"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AB36" sqref="AB36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7093,10 +7085,10 @@
         <v>31</v>
       </c>
       <c r="AF8" s="12" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="AG8" t="s">
-        <v>370</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
@@ -7107,88 +7099,88 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>376</v>
+        <v>331</v>
       </c>
       <c r="D9" t="s">
-        <v>377</v>
+        <v>332</v>
       </c>
       <c r="E9" t="s">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="F9" t="s">
-        <v>379</v>
+        <v>334</v>
       </c>
       <c r="G9" t="s">
-        <v>380</v>
+        <v>335</v>
       </c>
       <c r="H9" t="s">
-        <v>381</v>
+        <v>336</v>
       </c>
       <c r="I9" t="s">
-        <v>382</v>
+        <v>337</v>
       </c>
       <c r="J9" t="s">
-        <v>383</v>
+        <v>338</v>
       </c>
       <c r="K9" t="s">
-        <v>384</v>
+        <v>339</v>
       </c>
       <c r="L9" t="s">
-        <v>385</v>
+        <v>340</v>
       </c>
       <c r="M9" t="s">
-        <v>386</v>
+        <v>341</v>
       </c>
       <c r="N9" t="s">
-        <v>470</v>
+        <v>420</v>
       </c>
       <c r="O9" t="s">
-        <v>387</v>
+        <v>342</v>
       </c>
       <c r="P9" t="s">
-        <v>388</v>
+        <v>343</v>
       </c>
       <c r="Q9" t="s">
-        <v>389</v>
+        <v>344</v>
       </c>
       <c r="R9" t="s">
-        <v>390</v>
+        <v>345</v>
       </c>
       <c r="S9" t="s">
-        <v>391</v>
+        <v>346</v>
       </c>
       <c r="T9" t="s">
-        <v>471</v>
+        <v>421</v>
       </c>
       <c r="U9" t="s">
-        <v>392</v>
+        <v>347</v>
       </c>
       <c r="V9" t="s">
-        <v>393</v>
+        <v>348</v>
       </c>
       <c r="W9" t="s">
-        <v>394</v>
+        <v>349</v>
       </c>
       <c r="X9" t="s">
-        <v>395</v>
+        <v>422</v>
       </c>
       <c r="Y9" t="s">
-        <v>472</v>
+        <v>423</v>
       </c>
       <c r="Z9" t="s">
-        <v>396</v>
+        <v>424</v>
       </c>
       <c r="AA9" t="s">
-        <v>397</v>
+        <v>425</v>
       </c>
       <c r="AB9" t="s">
-        <v>398</v>
+        <v>426</v>
       </c>
       <c r="AF9" s="12" t="s">
-        <v>361</v>
+        <v>316</v>
       </c>
       <c r="AG9" t="s">
-        <v>371</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
@@ -7220,28 +7212,28 @@
         <v>50</v>
       </c>
       <c r="J10" t="s">
-        <v>473</v>
+        <v>427</v>
       </c>
       <c r="K10" t="s">
         <v>51</v>
       </c>
       <c r="L10" t="s">
-        <v>474</v>
+        <v>428</v>
       </c>
       <c r="M10" t="s">
         <v>52</v>
       </c>
       <c r="N10" t="s">
-        <v>475</v>
+        <v>429</v>
       </c>
       <c r="O10" t="s">
         <v>53</v>
       </c>
       <c r="P10" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="Q10" t="s">
-        <v>477</v>
+        <v>431</v>
       </c>
       <c r="R10" t="s">
         <v>54</v>
@@ -7250,7 +7242,7 @@
         <v>55</v>
       </c>
       <c r="T10" t="s">
-        <v>478</v>
+        <v>432</v>
       </c>
       <c r="U10" t="s">
         <v>56</v>
@@ -7259,7 +7251,7 @@
         <v>57</v>
       </c>
       <c r="W10" t="s">
-        <v>479</v>
+        <v>433</v>
       </c>
       <c r="X10" t="s">
         <v>58</v>
@@ -7271,16 +7263,16 @@
         <v>59</v>
       </c>
       <c r="AA10" t="s">
-        <v>480</v>
+        <v>434</v>
       </c>
       <c r="AB10" t="s">
         <v>60</v>
       </c>
       <c r="AF10" s="12" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="AG10" t="s">
-        <v>372</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
@@ -7324,55 +7316,55 @@
         <v>71</v>
       </c>
       <c r="N11" t="s">
-        <v>481</v>
+        <v>435</v>
       </c>
       <c r="O11" t="s">
+        <v>436</v>
+      </c>
+      <c r="P11" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>438</v>
+      </c>
+      <c r="R11" t="s">
         <v>72</v>
       </c>
-      <c r="P11" t="s">
-        <v>482</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>483</v>
-      </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
+        <v>439</v>
+      </c>
+      <c r="T11" t="s">
+        <v>440</v>
+      </c>
+      <c r="U11" t="s">
         <v>73</v>
       </c>
-      <c r="S11" t="s">
+      <c r="V11" t="s">
         <v>74</v>
       </c>
-      <c r="T11" t="s">
-        <v>484</v>
-      </c>
-      <c r="U11" t="s">
+      <c r="W11" t="s">
         <v>75</v>
       </c>
-      <c r="V11" t="s">
+      <c r="X11" t="s">
         <v>76</v>
       </c>
-      <c r="W11" t="s">
+      <c r="Y11" t="s">
+        <v>441</v>
+      </c>
+      <c r="Z11" t="s">
         <v>77</v>
       </c>
-      <c r="X11" t="s">
+      <c r="AA11" t="s">
         <v>78</v>
       </c>
-      <c r="Y11" t="s">
-        <v>485</v>
-      </c>
-      <c r="Z11" t="s">
+      <c r="AB11" t="s">
         <v>79</v>
       </c>
-      <c r="AA11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>81</v>
-      </c>
       <c r="AF11" s="12" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="AG11" t="s">
-        <v>373</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
@@ -7383,88 +7375,88 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" t="s">
         <v>82</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>83</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
+        <v>442</v>
+      </c>
+      <c r="H12" t="s">
         <v>84</v>
       </c>
-      <c r="F12" t="s">
+      <c r="I12" t="s">
         <v>85</v>
       </c>
-      <c r="G12" t="s">
+      <c r="J12" t="s">
+        <v>443</v>
+      </c>
+      <c r="K12" t="s">
         <v>86</v>
       </c>
-      <c r="H12" t="s">
+      <c r="L12" t="s">
+        <v>444</v>
+      </c>
+      <c r="M12" t="s">
         <v>87</v>
       </c>
-      <c r="I12" t="s">
+      <c r="N12" t="s">
+        <v>445</v>
+      </c>
+      <c r="O12" t="s">
+        <v>446</v>
+      </c>
+      <c r="P12" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>448</v>
+      </c>
+      <c r="R12" t="s">
         <v>88</v>
       </c>
-      <c r="J12" t="s">
-        <v>486</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="S12" t="s">
         <v>89</v>
       </c>
-      <c r="L12" t="s">
-        <v>487</v>
-      </c>
-      <c r="M12" t="s">
+      <c r="T12" t="s">
+        <v>449</v>
+      </c>
+      <c r="U12" t="s">
         <v>90</v>
       </c>
-      <c r="N12" t="s">
-        <v>488</v>
-      </c>
-      <c r="O12" t="s">
+      <c r="V12" t="s">
+        <v>450</v>
+      </c>
+      <c r="W12" t="s">
+        <v>451</v>
+      </c>
+      <c r="X12" t="s">
+        <v>452</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>453</v>
+      </c>
+      <c r="Z12" t="s">
         <v>91</v>
       </c>
-      <c r="P12" t="s">
-        <v>489</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>490</v>
-      </c>
-      <c r="R12" t="s">
+      <c r="AA12" t="s">
+        <v>454</v>
+      </c>
+      <c r="AB12" t="s">
         <v>92</v>
       </c>
-      <c r="S12" t="s">
-        <v>93</v>
-      </c>
-      <c r="T12" t="s">
-        <v>491</v>
-      </c>
-      <c r="U12" t="s">
-        <v>94</v>
-      </c>
-      <c r="V12" t="s">
-        <v>95</v>
-      </c>
-      <c r="W12" t="s">
-        <v>492</v>
-      </c>
-      <c r="X12" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>493</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>494</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>98</v>
-      </c>
       <c r="AF12" s="12" t="s">
-        <v>364</v>
+        <v>319</v>
       </c>
       <c r="AG12" t="s">
-        <v>374</v>
+        <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
@@ -7475,88 +7467,88 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13" t="s">
         <v>99</v>
       </c>
-      <c r="D13" t="s">
+      <c r="J13" t="s">
+        <v>455</v>
+      </c>
+      <c r="K13" t="s">
         <v>100</v>
       </c>
-      <c r="E13" t="s">
+      <c r="L13" t="s">
         <v>101</v>
       </c>
-      <c r="F13" t="s">
+      <c r="M13" t="s">
         <v>102</v>
       </c>
-      <c r="G13" t="s">
+      <c r="N13" t="s">
+        <v>456</v>
+      </c>
+      <c r="O13" t="s">
+        <v>457</v>
+      </c>
+      <c r="P13" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>459</v>
+      </c>
+      <c r="R13" t="s">
         <v>103</v>
       </c>
-      <c r="H13" t="s">
+      <c r="S13" t="s">
         <v>104</v>
       </c>
-      <c r="I13" t="s">
+      <c r="T13" t="s">
+        <v>460</v>
+      </c>
+      <c r="U13" t="s">
         <v>105</v>
       </c>
-      <c r="J13" t="s">
-        <v>495</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="V13" t="s">
         <v>106</v>
       </c>
-      <c r="L13" t="s">
+      <c r="W13" t="s">
         <v>107</v>
       </c>
-      <c r="M13" t="s">
+      <c r="X13" t="s">
+        <v>461</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>462</v>
+      </c>
+      <c r="Z13" t="s">
         <v>108</v>
       </c>
-      <c r="N13" t="s">
-        <v>496</v>
-      </c>
-      <c r="O13" t="s">
-        <v>497</v>
-      </c>
-      <c r="P13" t="s">
-        <v>498</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>499</v>
-      </c>
-      <c r="R13" t="s">
+      <c r="AA13" t="s">
         <v>109</v>
       </c>
-      <c r="S13" t="s">
+      <c r="AB13" t="s">
         <v>110</v>
       </c>
-      <c r="T13" t="s">
-        <v>500</v>
-      </c>
-      <c r="U13" t="s">
-        <v>111</v>
-      </c>
-      <c r="V13" t="s">
-        <v>112</v>
-      </c>
-      <c r="W13" t="s">
-        <v>113</v>
-      </c>
-      <c r="X13" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>501</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>117</v>
-      </c>
       <c r="AF13" s="12" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="AG13" t="s">
-        <v>375</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
@@ -7564,7 +7556,7 @@
         <v>43</v>
       </c>
       <c r="AG14" s="23" t="s">
-        <v>368</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
@@ -7602,7 +7594,7 @@
       <c r="AA16" s="10"/>
       <c r="AB16" s="10"/>
       <c r="AF16" t="s">
-        <v>367</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17" spans="1:32" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -7691,7 +7683,7 @@
         <v>31</v>
       </c>
       <c r="AF17" s="20" t="s">
-        <v>366</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
@@ -7702,82 +7694,82 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>399</v>
+        <v>463</v>
       </c>
       <c r="D18" t="s">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="E18" t="s">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="F18" t="s">
-        <v>402</v>
+        <v>352</v>
       </c>
       <c r="G18" t="s">
-        <v>403</v>
+        <v>353</v>
       </c>
       <c r="H18" t="s">
-        <v>404</v>
+        <v>354</v>
       </c>
       <c r="I18" t="s">
-        <v>405</v>
+        <v>355</v>
       </c>
       <c r="J18" t="s">
-        <v>406</v>
+        <v>356</v>
       </c>
       <c r="K18" t="s">
-        <v>407</v>
+        <v>357</v>
       </c>
       <c r="L18" t="s">
-        <v>408</v>
+        <v>358</v>
       </c>
       <c r="M18" t="s">
-        <v>409</v>
+        <v>359</v>
       </c>
       <c r="N18" t="s">
-        <v>502</v>
+        <v>464</v>
       </c>
       <c r="O18" t="s">
-        <v>410</v>
+        <v>360</v>
       </c>
       <c r="P18" t="s">
-        <v>411</v>
+        <v>361</v>
       </c>
       <c r="Q18" t="s">
-        <v>412</v>
+        <v>362</v>
       </c>
       <c r="R18" t="s">
-        <v>413</v>
+        <v>363</v>
       </c>
       <c r="S18" t="s">
-        <v>414</v>
+        <v>364</v>
       </c>
       <c r="T18" t="s">
-        <v>415</v>
+        <v>465</v>
       </c>
       <c r="U18" t="s">
-        <v>416</v>
+        <v>365</v>
       </c>
       <c r="V18" t="s">
-        <v>417</v>
+        <v>466</v>
       </c>
       <c r="W18" t="s">
-        <v>418</v>
+        <v>366</v>
       </c>
       <c r="X18" t="s">
-        <v>419</v>
+        <v>467</v>
       </c>
       <c r="Y18" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
       <c r="Z18" t="s">
-        <v>420</v>
+        <v>469</v>
       </c>
       <c r="AA18" t="s">
-        <v>421</v>
+        <v>367</v>
       </c>
       <c r="AB18" t="s">
-        <v>422</v>
+        <v>368</v>
       </c>
       <c r="AF18" s="1"/>
     </row>
@@ -7789,82 +7781,82 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" t="s">
+        <v>470</v>
+      </c>
+      <c r="F19" t="s">
+        <v>113</v>
+      </c>
+      <c r="G19" t="s">
+        <v>114</v>
+      </c>
+      <c r="H19" t="s">
+        <v>115</v>
+      </c>
+      <c r="I19" t="s">
+        <v>116</v>
+      </c>
+      <c r="J19" t="s">
+        <v>471</v>
+      </c>
+      <c r="K19" t="s">
+        <v>117</v>
+      </c>
+      <c r="L19" t="s">
         <v>118</v>
       </c>
-      <c r="D19" t="s">
+      <c r="M19" t="s">
         <v>119</v>
       </c>
-      <c r="E19" t="s">
+      <c r="N19" t="s">
+        <v>472</v>
+      </c>
+      <c r="O19" t="s">
         <v>120</v>
       </c>
-      <c r="F19" t="s">
+      <c r="P19" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>474</v>
+      </c>
+      <c r="R19" t="s">
         <v>121</v>
       </c>
-      <c r="G19" t="s">
+      <c r="S19" t="s">
         <v>122</v>
       </c>
-      <c r="H19" t="s">
+      <c r="T19" t="s">
+        <v>475</v>
+      </c>
+      <c r="U19" t="s">
         <v>123</v>
       </c>
-      <c r="I19" t="s">
+      <c r="V19" t="s">
         <v>124</v>
       </c>
-      <c r="J19" t="s">
-        <v>504</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="W19" t="s">
         <v>125</v>
       </c>
-      <c r="L19" t="s">
+      <c r="X19" t="s">
         <v>126</v>
       </c>
-      <c r="M19" t="s">
+      <c r="Y19" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z19" t="s">
         <v>127</v>
       </c>
-      <c r="N19" t="s">
-        <v>505</v>
-      </c>
-      <c r="O19" t="s">
+      <c r="AA19" t="s">
         <v>128</v>
       </c>
-      <c r="P19" t="s">
-        <v>506</v>
-      </c>
-      <c r="Q19" t="s">
+      <c r="AB19" t="s">
         <v>129</v>
-      </c>
-      <c r="R19" t="s">
-        <v>130</v>
-      </c>
-      <c r="S19" t="s">
-        <v>131</v>
-      </c>
-      <c r="T19" t="s">
-        <v>507</v>
-      </c>
-      <c r="U19" t="s">
-        <v>132</v>
-      </c>
-      <c r="V19" t="s">
-        <v>133</v>
-      </c>
-      <c r="W19" t="s">
-        <v>134</v>
-      </c>
-      <c r="X19" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
@@ -7875,82 +7867,82 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" t="s">
+        <v>134</v>
+      </c>
+      <c r="H20" t="s">
+        <v>476</v>
+      </c>
+      <c r="I20" t="s">
+        <v>135</v>
+      </c>
+      <c r="J20" t="s">
+        <v>136</v>
+      </c>
+      <c r="K20" t="s">
+        <v>137</v>
+      </c>
+      <c r="L20" t="s">
+        <v>138</v>
+      </c>
+      <c r="M20" t="s">
         <v>139</v>
       </c>
-      <c r="D20" t="s">
+      <c r="N20" t="s">
+        <v>477</v>
+      </c>
+      <c r="O20" t="s">
+        <v>478</v>
+      </c>
+      <c r="P20" t="s">
+        <v>479</v>
+      </c>
+      <c r="Q20" t="s">
         <v>140</v>
       </c>
-      <c r="E20" t="s">
+      <c r="R20" t="s">
+        <v>480</v>
+      </c>
+      <c r="S20" t="s">
         <v>141</v>
       </c>
-      <c r="F20" t="s">
+      <c r="T20" t="s">
+        <v>481</v>
+      </c>
+      <c r="U20" t="s">
         <v>142</v>
       </c>
-      <c r="G20" t="s">
+      <c r="V20" t="s">
         <v>143</v>
       </c>
-      <c r="H20" t="s">
+      <c r="W20" t="s">
         <v>144</v>
       </c>
-      <c r="I20" t="s">
+      <c r="X20" t="s">
         <v>145</v>
       </c>
-      <c r="J20" t="s">
+      <c r="Y20" t="s">
+        <v>482</v>
+      </c>
+      <c r="Z20" t="s">
         <v>146</v>
       </c>
-      <c r="K20" t="s">
+      <c r="AA20" t="s">
         <v>147</v>
       </c>
-      <c r="L20" t="s">
+      <c r="AB20" t="s">
         <v>148</v>
-      </c>
-      <c r="M20" t="s">
-        <v>149</v>
-      </c>
-      <c r="N20" t="s">
-        <v>508</v>
-      </c>
-      <c r="O20" t="s">
-        <v>150</v>
-      </c>
-      <c r="P20" t="s">
-        <v>509</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>151</v>
-      </c>
-      <c r="R20" t="s">
-        <v>152</v>
-      </c>
-      <c r="S20" t="s">
-        <v>153</v>
-      </c>
-      <c r="T20" t="s">
-        <v>510</v>
-      </c>
-      <c r="U20" t="s">
-        <v>154</v>
-      </c>
-      <c r="V20" t="s">
-        <v>155</v>
-      </c>
-      <c r="W20" t="s">
-        <v>156</v>
-      </c>
-      <c r="X20" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>511</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>158</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>159</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
@@ -7961,82 +7953,82 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
+        <v>483</v>
+      </c>
+      <c r="D21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E21" t="s">
+        <v>150</v>
+      </c>
+      <c r="F21" t="s">
+        <v>151</v>
+      </c>
+      <c r="G21" t="s">
+        <v>152</v>
+      </c>
+      <c r="H21" t="s">
+        <v>153</v>
+      </c>
+      <c r="I21" t="s">
+        <v>154</v>
+      </c>
+      <c r="J21" t="s">
+        <v>484</v>
+      </c>
+      <c r="K21" t="s">
+        <v>485</v>
+      </c>
+      <c r="L21" t="s">
+        <v>155</v>
+      </c>
+      <c r="M21" t="s">
+        <v>486</v>
+      </c>
+      <c r="N21" t="s">
+        <v>487</v>
+      </c>
+      <c r="O21" t="s">
+        <v>156</v>
+      </c>
+      <c r="P21" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>489</v>
+      </c>
+      <c r="R21" t="s">
+        <v>157</v>
+      </c>
+      <c r="S21" t="s">
+        <v>158</v>
+      </c>
+      <c r="T21" t="s">
+        <v>490</v>
+      </c>
+      <c r="U21" t="s">
+        <v>491</v>
+      </c>
+      <c r="V21" t="s">
+        <v>159</v>
+      </c>
+      <c r="W21" t="s">
+        <v>160</v>
+      </c>
+      <c r="X21" t="s">
         <v>161</v>
       </c>
-      <c r="D21" t="s">
+      <c r="Y21" t="s">
+        <v>492</v>
+      </c>
+      <c r="Z21" t="s">
         <v>162</v>
       </c>
-      <c r="E21" t="s">
+      <c r="AA21" t="s">
         <v>163</v>
       </c>
-      <c r="F21" t="s">
+      <c r="AB21" t="s">
         <v>164</v>
-      </c>
-      <c r="G21" t="s">
-        <v>165</v>
-      </c>
-      <c r="H21" t="s">
-        <v>166</v>
-      </c>
-      <c r="I21" t="s">
-        <v>167</v>
-      </c>
-      <c r="J21" t="s">
-        <v>512</v>
-      </c>
-      <c r="K21" t="s">
-        <v>168</v>
-      </c>
-      <c r="L21" t="s">
-        <v>169</v>
-      </c>
-      <c r="M21" t="s">
-        <v>170</v>
-      </c>
-      <c r="N21" t="s">
-        <v>513</v>
-      </c>
-      <c r="O21" t="s">
-        <v>171</v>
-      </c>
-      <c r="P21" t="s">
-        <v>514</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>172</v>
-      </c>
-      <c r="R21" t="s">
-        <v>173</v>
-      </c>
-      <c r="S21" t="s">
-        <v>174</v>
-      </c>
-      <c r="T21" t="s">
-        <v>515</v>
-      </c>
-      <c r="U21" t="s">
-        <v>175</v>
-      </c>
-      <c r="V21" t="s">
-        <v>176</v>
-      </c>
-      <c r="W21" t="s">
-        <v>177</v>
-      </c>
-      <c r="X21" t="s">
-        <v>178</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>516</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>180</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
@@ -8047,82 +8039,82 @@
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="D22" t="s">
-        <v>183</v>
+        <v>493</v>
       </c>
       <c r="E22" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="F22" t="s">
-        <v>185</v>
+        <v>494</v>
       </c>
       <c r="G22" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="H22" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="I22" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="J22" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="K22" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="L22" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="M22" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="N22" t="s">
-        <v>517</v>
+        <v>495</v>
       </c>
       <c r="O22" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="P22" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="Q22" t="s">
-        <v>195</v>
+        <v>496</v>
       </c>
       <c r="R22" t="s">
-        <v>196</v>
+        <v>497</v>
       </c>
       <c r="S22" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="T22" t="s">
-        <v>198</v>
+        <v>498</v>
       </c>
       <c r="U22" t="s">
-        <v>199</v>
+        <v>499</v>
       </c>
       <c r="V22" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="W22" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="X22" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="Y22" t="s">
-        <v>518</v>
+        <v>500</v>
       </c>
       <c r="Z22" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="AA22" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="AB22" t="s">
-        <v>205</v>
+        <v>501</v>
       </c>
     </row>
     <row r="25" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8252,82 +8244,82 @@
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>423</v>
+        <v>502</v>
       </c>
       <c r="D27" t="s">
-        <v>424</v>
+        <v>369</v>
       </c>
       <c r="E27" t="s">
-        <v>425</v>
+        <v>370</v>
       </c>
       <c r="F27" t="s">
-        <v>426</v>
+        <v>371</v>
       </c>
       <c r="G27" t="s">
-        <v>427</v>
+        <v>372</v>
       </c>
       <c r="H27" t="s">
-        <v>428</v>
+        <v>373</v>
       </c>
       <c r="I27" t="s">
-        <v>429</v>
+        <v>374</v>
       </c>
       <c r="J27" t="s">
-        <v>430</v>
+        <v>375</v>
       </c>
       <c r="K27" t="s">
-        <v>431</v>
+        <v>376</v>
       </c>
       <c r="L27" t="s">
-        <v>432</v>
+        <v>377</v>
       </c>
       <c r="M27" t="s">
-        <v>433</v>
+        <v>503</v>
       </c>
       <c r="N27" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="O27" t="s">
-        <v>434</v>
+        <v>378</v>
       </c>
       <c r="P27" t="s">
-        <v>435</v>
+        <v>505</v>
       </c>
       <c r="Q27" t="s">
-        <v>436</v>
+        <v>379</v>
       </c>
       <c r="R27" t="s">
-        <v>437</v>
+        <v>380</v>
       </c>
       <c r="S27" t="s">
-        <v>438</v>
+        <v>381</v>
       </c>
       <c r="T27" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="U27" t="s">
-        <v>439</v>
+        <v>382</v>
       </c>
       <c r="V27" t="s">
-        <v>440</v>
+        <v>383</v>
       </c>
       <c r="W27" t="s">
-        <v>441</v>
+        <v>384</v>
       </c>
       <c r="X27" t="s">
-        <v>442</v>
+        <v>385</v>
       </c>
       <c r="Y27" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="Z27" t="s">
-        <v>443</v>
+        <v>508</v>
       </c>
       <c r="AA27" t="s">
-        <v>444</v>
+        <v>386</v>
       </c>
       <c r="AB27" t="s">
-        <v>445</v>
+        <v>387</v>
       </c>
       <c r="AF27" s="1"/>
     </row>
@@ -8339,82 +8331,82 @@
         <v>3.8999999999999998E-3</v>
       </c>
       <c r="C28" t="s">
-        <v>206</v>
+        <v>509</v>
       </c>
       <c r="D28" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="E28" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F28" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="G28" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="H28" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="I28" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="J28" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="K28" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="L28" t="s">
-        <v>214</v>
+        <v>511</v>
       </c>
       <c r="M28" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="N28" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="O28" t="s">
-        <v>216</v>
+        <v>513</v>
       </c>
       <c r="P28" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="Q28" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="R28" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="S28" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="T28" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="U28" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="V28" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="W28" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="X28" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="Y28" t="s">
         <v>43</v>
       </c>
       <c r="Z28" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="AA28" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="AB28" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.25">
@@ -8425,82 +8417,82 @@
         <v>6.8999999999999999E-3</v>
       </c>
       <c r="C29" t="s">
-        <v>226</v>
+        <v>517</v>
       </c>
       <c r="D29" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="E29" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="F29" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="G29" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="H29" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="I29" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="J29" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="K29" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="L29" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="M29" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="N29" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="O29" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="P29" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="Q29" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="R29" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="S29" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="T29" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="U29" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="V29" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="W29" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="X29" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="Y29" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="Z29" t="s">
-        <v>245</v>
+        <v>522</v>
       </c>
       <c r="AA29" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="AB29" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
@@ -8511,82 +8503,82 @@
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="D30" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="E30" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="F30" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="G30" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="H30" t="s">
-        <v>253</v>
+        <v>523</v>
       </c>
       <c r="I30" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="J30" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="K30" t="s">
-        <v>255</v>
+        <v>525</v>
       </c>
       <c r="L30" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="M30" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="N30" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="O30" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="P30" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="Q30" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="R30" t="s">
-        <v>260</v>
+        <v>528</v>
       </c>
       <c r="S30" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="T30" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="U30" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="V30" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="W30" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="X30" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="Y30" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="Z30" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="AA30" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="AB30" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
@@ -8597,82 +8589,82 @@
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="D31" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="E31" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="F31" t="s">
-        <v>271</v>
+        <v>531</v>
       </c>
       <c r="G31" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="H31" t="s">
-        <v>273</v>
+        <v>240</v>
       </c>
       <c r="I31" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
       <c r="J31" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="K31" t="s">
-        <v>276</v>
+        <v>532</v>
       </c>
       <c r="L31" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="M31" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="N31" t="s">
+        <v>533</v>
+      </c>
+      <c r="O31" t="s">
+        <v>534</v>
+      </c>
+      <c r="P31" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>246</v>
+      </c>
+      <c r="R31" t="s">
+        <v>247</v>
+      </c>
+      <c r="S31" t="s">
+        <v>248</v>
+      </c>
+      <c r="T31" t="s">
+        <v>249</v>
+      </c>
+      <c r="U31" t="s">
+        <v>250</v>
+      </c>
+      <c r="V31" t="s">
+        <v>535</v>
+      </c>
+      <c r="W31" t="s">
+        <v>251</v>
+      </c>
+      <c r="X31" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y31" t="s">
         <v>536</v>
       </c>
-      <c r="O31" t="s">
-        <v>279</v>
-      </c>
-      <c r="P31" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>281</v>
-      </c>
-      <c r="R31" t="s">
-        <v>282</v>
-      </c>
-      <c r="S31" t="s">
-        <v>283</v>
-      </c>
-      <c r="T31" t="s">
-        <v>284</v>
-      </c>
-      <c r="U31" t="s">
-        <v>285</v>
-      </c>
-      <c r="V31" t="s">
-        <v>286</v>
-      </c>
-      <c r="W31" t="s">
-        <v>287</v>
-      </c>
-      <c r="X31" t="s">
-        <v>288</v>
-      </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
+        <v>253</v>
+      </c>
+      <c r="AA31" t="s">
         <v>537</v>
       </c>
-      <c r="Z31" t="s">
-        <v>289</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>290</v>
-      </c>
       <c r="AB31" t="s">
-        <v>291</v>
+        <v>538</v>
       </c>
     </row>
     <row r="34" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8802,82 +8794,82 @@
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>446</v>
+        <v>388</v>
       </c>
       <c r="D36" t="s">
-        <v>447</v>
+        <v>539</v>
       </c>
       <c r="E36" t="s">
-        <v>448</v>
+        <v>389</v>
       </c>
       <c r="F36" t="s">
-        <v>449</v>
+        <v>390</v>
       </c>
       <c r="G36" t="s">
-        <v>450</v>
+        <v>391</v>
       </c>
       <c r="H36" t="s">
-        <v>451</v>
+        <v>392</v>
       </c>
       <c r="I36" t="s">
-        <v>452</v>
+        <v>393</v>
       </c>
       <c r="J36" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="K36" t="s">
-        <v>453</v>
+        <v>394</v>
       </c>
       <c r="L36" t="s">
-        <v>454</v>
+        <v>395</v>
       </c>
       <c r="M36" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
       <c r="N36" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="O36" t="s">
-        <v>456</v>
+        <v>397</v>
       </c>
       <c r="P36" t="s">
-        <v>540</v>
+        <v>410</v>
       </c>
       <c r="Q36" t="s">
-        <v>457</v>
+        <v>398</v>
       </c>
       <c r="R36" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="S36" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="T36" t="s">
+        <v>544</v>
+      </c>
+      <c r="U36" t="s">
+        <v>399</v>
+      </c>
+      <c r="V36" t="s">
+        <v>400</v>
+      </c>
+      <c r="W36" t="s">
+        <v>43</v>
+      </c>
+      <c r="X36" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y36" t="s">
         <v>543</v>
       </c>
-      <c r="U36" t="s">
-        <v>458</v>
-      </c>
-      <c r="V36" t="s">
-        <v>459</v>
-      </c>
-      <c r="W36" t="s">
-        <v>43</v>
-      </c>
-      <c r="X36" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>542</v>
-      </c>
       <c r="Z36" t="s">
+        <v>544</v>
+      </c>
+      <c r="AA36" t="s">
         <v>543</v>
       </c>
-      <c r="AA36" t="s">
-        <v>542</v>
-      </c>
       <c r="AB36" t="s">
-        <v>460</v>
+        <v>401</v>
       </c>
       <c r="AF36" s="1"/>
     </row>
@@ -8889,31 +8881,31 @@
         <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>292</v>
+        <v>254</v>
       </c>
       <c r="D37" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E37" t="s">
-        <v>293</v>
+        <v>255</v>
       </c>
       <c r="F37" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="G37" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H37" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="I37" t="s">
-        <v>546</v>
+        <v>411</v>
       </c>
       <c r="J37" t="s">
         <v>547</v>
       </c>
       <c r="K37" t="s">
-        <v>295</v>
+        <v>257</v>
       </c>
       <c r="L37" t="s">
         <v>548</v>
@@ -8943,10 +8935,10 @@
         <v>43</v>
       </c>
       <c r="U37" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="V37" t="s">
-        <v>297</v>
+        <v>259</v>
       </c>
       <c r="W37" t="s">
         <v>43</v>
@@ -8964,7 +8956,7 @@
         <v>43</v>
       </c>
       <c r="AB37" t="s">
-        <v>298</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.25">
@@ -8975,37 +8967,37 @@
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>299</v>
+        <v>556</v>
       </c>
       <c r="D38" t="s">
-        <v>556</v>
+        <v>412</v>
       </c>
       <c r="E38" t="s">
-        <v>300</v>
+        <v>261</v>
       </c>
       <c r="F38" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
       <c r="G38" t="s">
         <v>557</v>
       </c>
       <c r="H38" t="s">
-        <v>302</v>
+        <v>263</v>
       </c>
       <c r="I38" t="s">
-        <v>303</v>
+        <v>264</v>
       </c>
       <c r="J38" t="s">
         <v>558</v>
       </c>
       <c r="K38" t="s">
-        <v>304</v>
+        <v>559</v>
       </c>
       <c r="L38" t="s">
-        <v>559</v>
+        <v>413</v>
       </c>
       <c r="M38" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="N38" t="s">
         <v>560</v>
@@ -9029,10 +9021,10 @@
         <v>560</v>
       </c>
       <c r="U38" t="s">
-        <v>306</v>
+        <v>266</v>
       </c>
       <c r="V38" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
       <c r="W38" t="s">
         <v>43</v>
@@ -9050,7 +9042,7 @@
         <v>560</v>
       </c>
       <c r="AB38" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.25">
@@ -9061,64 +9053,64 @@
         <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>309</v>
+        <v>269</v>
       </c>
       <c r="D39" t="s">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="E39" t="s">
-        <v>311</v>
+        <v>271</v>
       </c>
       <c r="F39" t="s">
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="G39" t="s">
-        <v>313</v>
+        <v>273</v>
       </c>
       <c r="H39" t="s">
-        <v>314</v>
+        <v>274</v>
       </c>
       <c r="I39" t="s">
-        <v>315</v>
+        <v>275</v>
       </c>
       <c r="J39" t="s">
         <v>565</v>
       </c>
       <c r="K39" t="s">
-        <v>316</v>
+        <v>276</v>
       </c>
       <c r="L39" t="s">
+        <v>414</v>
+      </c>
+      <c r="M39" t="s">
+        <v>277</v>
+      </c>
+      <c r="N39" t="s">
         <v>566</v>
       </c>
-      <c r="M39" t="s">
-        <v>317</v>
-      </c>
-      <c r="N39" t="s">
+      <c r="O39" t="s">
         <v>567</v>
       </c>
-      <c r="O39" t="s">
+      <c r="P39" t="s">
         <v>568</v>
       </c>
-      <c r="P39" t="s">
+      <c r="Q39" t="s">
         <v>569</v>
       </c>
-      <c r="Q39" t="s">
+      <c r="R39" t="s">
         <v>570</v>
       </c>
-      <c r="R39" t="s">
+      <c r="S39" t="s">
         <v>571</v>
       </c>
-      <c r="S39" t="s">
+      <c r="T39" t="s">
         <v>572</v>
       </c>
-      <c r="T39" t="s">
-        <v>573</v>
-      </c>
       <c r="U39" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
       <c r="V39" t="s">
-        <v>319</v>
+        <v>279</v>
       </c>
       <c r="W39" t="s">
         <v>43</v>
@@ -9133,10 +9125,10 @@
         <v>43</v>
       </c>
       <c r="AA39" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AB39" t="s">
-        <v>320</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.25">
@@ -9147,70 +9139,70 @@
         <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>321</v>
+        <v>281</v>
       </c>
       <c r="D40" t="s">
-        <v>322</v>
+        <v>282</v>
       </c>
       <c r="E40" t="s">
-        <v>323</v>
+        <v>283</v>
       </c>
       <c r="F40" t="s">
-        <v>324</v>
+        <v>284</v>
       </c>
       <c r="G40" t="s">
-        <v>325</v>
+        <v>285</v>
       </c>
       <c r="H40" t="s">
-        <v>326</v>
+        <v>286</v>
       </c>
       <c r="I40" t="s">
-        <v>327</v>
+        <v>287</v>
       </c>
       <c r="J40" t="s">
+        <v>573</v>
+      </c>
+      <c r="K40" t="s">
+        <v>288</v>
+      </c>
+      <c r="L40" t="s">
+        <v>289</v>
+      </c>
+      <c r="M40" t="s">
+        <v>290</v>
+      </c>
+      <c r="N40" t="s">
         <v>574</v>
       </c>
-      <c r="K40" t="s">
-        <v>328</v>
-      </c>
-      <c r="L40" t="s">
-        <v>329</v>
-      </c>
-      <c r="M40" t="s">
-        <v>330</v>
-      </c>
-      <c r="N40" t="s">
+      <c r="O40" t="s">
         <v>575</v>
       </c>
-      <c r="O40" t="s">
+      <c r="P40" t="s">
         <v>576</v>
       </c>
-      <c r="P40" t="s">
+      <c r="Q40" t="s">
         <v>577</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="R40" t="s">
         <v>578</v>
       </c>
-      <c r="R40" t="s">
+      <c r="S40" t="s">
         <v>579</v>
       </c>
-      <c r="S40" t="s">
+      <c r="T40" t="s">
         <v>580</v>
       </c>
-      <c r="T40" t="s">
-        <v>581</v>
-      </c>
       <c r="U40" t="s">
-        <v>331</v>
+        <v>291</v>
       </c>
       <c r="V40" t="s">
-        <v>332</v>
+        <v>292</v>
       </c>
       <c r="W40" t="s">
         <v>43</v>
       </c>
       <c r="X40" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="Y40" t="s">
         <v>43</v>
@@ -9219,15 +9211,15 @@
         <v>43</v>
       </c>
       <c r="AA40" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AB40" t="s">
-        <v>333</v>
+        <v>293</v>
       </c>
     </row>
     <row r="43" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>623</v>
+        <v>40</v>
       </c>
       <c r="B43" s="11"/>
       <c r="C43" s="10"/>
@@ -9355,79 +9347,79 @@
         <v>43</v>
       </c>
       <c r="D45" t="s">
-        <v>461</v>
+        <v>402</v>
       </c>
       <c r="E45" t="s">
-        <v>462</v>
+        <v>403</v>
       </c>
       <c r="F45" t="s">
-        <v>463</v>
+        <v>404</v>
       </c>
       <c r="G45" t="s">
-        <v>464</v>
+        <v>405</v>
       </c>
       <c r="H45" t="s">
+        <v>581</v>
+      </c>
+      <c r="I45" t="s">
         <v>582</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>583</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>584</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
         <v>585</v>
       </c>
-      <c r="L45" t="s">
+      <c r="M45" t="s">
         <v>586</v>
       </c>
-      <c r="M45" t="s">
+      <c r="N45" t="s">
+        <v>43</v>
+      </c>
+      <c r="O45" t="s">
+        <v>583</v>
+      </c>
+      <c r="P45" t="s">
         <v>587</v>
       </c>
-      <c r="N45" t="s">
-        <v>43</v>
-      </c>
-      <c r="O45" t="s">
-        <v>584</v>
-      </c>
-      <c r="P45" t="s">
+      <c r="Q45" t="s">
         <v>588</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="R45" t="s">
         <v>589</v>
       </c>
-      <c r="R45" t="s">
+      <c r="S45" t="s">
         <v>590</v>
       </c>
-      <c r="S45" t="s">
+      <c r="T45" t="s">
+        <v>587</v>
+      </c>
+      <c r="U45" t="s">
+        <v>406</v>
+      </c>
+      <c r="V45" t="s">
         <v>591</v>
       </c>
-      <c r="T45" t="s">
-        <v>588</v>
-      </c>
-      <c r="U45" t="s">
-        <v>465</v>
-      </c>
-      <c r="V45" t="s">
+      <c r="W45" t="s">
+        <v>587</v>
+      </c>
+      <c r="X45" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>407</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>408</v>
+      </c>
+      <c r="AB45" t="s">
         <v>592</v>
-      </c>
-      <c r="W45" t="s">
-        <v>588</v>
-      </c>
-      <c r="X45" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z45" t="s">
-        <v>466</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>467</v>
-      </c>
-      <c r="AB45" t="s">
-        <v>468</v>
       </c>
       <c r="AF45" s="1"/>
     </row>
@@ -9442,16 +9434,16 @@
         <v>43</v>
       </c>
       <c r="D46" t="s">
+        <v>415</v>
+      </c>
+      <c r="E46" t="s">
         <v>593</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
+        <v>294</v>
+      </c>
+      <c r="G46" t="s">
         <v>594</v>
-      </c>
-      <c r="F46" t="s">
-        <v>334</v>
-      </c>
-      <c r="G46" t="s">
-        <v>335</v>
       </c>
       <c r="H46" t="s">
         <v>595</v>
@@ -9493,7 +9485,7 @@
         <v>43</v>
       </c>
       <c r="U46" t="s">
-        <v>336</v>
+        <v>599</v>
       </c>
       <c r="V46" t="s">
         <v>596</v>
@@ -9508,13 +9500,13 @@
         <v>43</v>
       </c>
       <c r="Z46" t="s">
-        <v>337</v>
+        <v>295</v>
       </c>
       <c r="AA46" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AB46" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.25">
@@ -9528,16 +9520,16 @@
         <v>43</v>
       </c>
       <c r="D47" t="s">
-        <v>600</v>
+        <v>416</v>
       </c>
       <c r="E47" t="s">
-        <v>339</v>
+        <v>297</v>
       </c>
       <c r="F47" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
       <c r="G47" t="s">
-        <v>341</v>
+        <v>299</v>
       </c>
       <c r="H47" t="s">
         <v>601</v>
@@ -9579,7 +9571,7 @@
         <v>43</v>
       </c>
       <c r="U47" t="s">
-        <v>342</v>
+        <v>300</v>
       </c>
       <c r="V47" t="s">
         <v>602</v>
@@ -9594,13 +9586,13 @@
         <v>43</v>
       </c>
       <c r="Z47" t="s">
-        <v>343</v>
+        <v>301</v>
       </c>
       <c r="AA47" t="s">
+        <v>417</v>
+      </c>
+      <c r="AB47" t="s">
         <v>608</v>
-      </c>
-      <c r="AB47" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.25">
@@ -9614,34 +9606,34 @@
         <v>609</v>
       </c>
       <c r="D48" t="s">
-        <v>345</v>
+        <v>302</v>
       </c>
       <c r="E48" t="s">
-        <v>346</v>
+        <v>303</v>
       </c>
       <c r="F48" t="s">
-        <v>347</v>
+        <v>304</v>
       </c>
       <c r="G48" t="s">
-        <v>348</v>
+        <v>610</v>
       </c>
       <c r="H48" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="I48" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="J48" t="s">
         <v>43</v>
       </c>
       <c r="K48" t="s">
+        <v>612</v>
+      </c>
+      <c r="L48" t="s">
         <v>611</v>
       </c>
-      <c r="L48" t="s">
-        <v>610</v>
-      </c>
       <c r="M48" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="N48" t="s">
         <v>43</v>
@@ -9656,19 +9648,19 @@
         <v>43</v>
       </c>
       <c r="R48" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="S48" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="T48" t="s">
         <v>43</v>
       </c>
       <c r="U48" t="s">
-        <v>349</v>
+        <v>305</v>
       </c>
       <c r="V48" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="W48" t="s">
         <v>43</v>
@@ -9680,13 +9672,13 @@
         <v>43</v>
       </c>
       <c r="Z48" t="s">
-        <v>350</v>
+        <v>306</v>
       </c>
       <c r="AA48" t="s">
-        <v>613</v>
+        <v>418</v>
       </c>
       <c r="AB48" t="s">
-        <v>351</v>
+        <v>614</v>
       </c>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.25">
@@ -9700,61 +9692,61 @@
         <v>43</v>
       </c>
       <c r="D49" t="s">
-        <v>352</v>
+        <v>307</v>
       </c>
       <c r="E49" t="s">
-        <v>353</v>
+        <v>308</v>
       </c>
       <c r="F49" t="s">
-        <v>354</v>
+        <v>309</v>
       </c>
       <c r="G49" t="s">
-        <v>355</v>
+        <v>310</v>
       </c>
       <c r="H49" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="I49" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="J49" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="K49" t="s">
+        <v>617</v>
+      </c>
+      <c r="L49" t="s">
+        <v>618</v>
+      </c>
+      <c r="M49" t="s">
+        <v>619</v>
+      </c>
+      <c r="N49" t="s">
+        <v>43</v>
+      </c>
+      <c r="O49" t="s">
+        <v>43</v>
+      </c>
+      <c r="P49" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>43</v>
+      </c>
+      <c r="R49" t="s">
+        <v>620</v>
+      </c>
+      <c r="S49" t="s">
+        <v>621</v>
+      </c>
+      <c r="T49" t="s">
         <v>616</v>
       </c>
-      <c r="L49" t="s">
-        <v>617</v>
-      </c>
-      <c r="M49" t="s">
-        <v>618</v>
-      </c>
-      <c r="N49" t="s">
-        <v>43</v>
-      </c>
-      <c r="O49" t="s">
-        <v>43</v>
-      </c>
-      <c r="P49" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>43</v>
-      </c>
-      <c r="R49" t="s">
-        <v>619</v>
-      </c>
-      <c r="S49" t="s">
-        <v>620</v>
-      </c>
-      <c r="T49" t="s">
-        <v>615</v>
-      </c>
       <c r="U49" t="s">
-        <v>356</v>
+        <v>311</v>
       </c>
       <c r="V49" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="W49" t="s">
         <v>43</v>
@@ -9766,18 +9758,18 @@
         <v>43</v>
       </c>
       <c r="Z49" t="s">
-        <v>357</v>
+        <v>312</v>
       </c>
       <c r="AA49" t="s">
-        <v>358</v>
+        <v>313</v>
       </c>
       <c r="AB49" t="s">
-        <v>359</v>
+        <v>314</v>
       </c>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>622</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -10106,7 +10098,7 @@
     </row>
     <row r="5" spans="1:36" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="21" t="s">
-        <v>369</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:36" s="21" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/resources/analysis/char distribution/Character Distribution.xlsx
+++ b/resources/analysis/char distribution/Character Distribution.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\mzatt\Projects\Git - v4j\resources\analysis\char distribution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02ED048F-07E5-472D-8976-3577B1CF407E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2761D3A7-9195-477D-BB85-B22FCABE7928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="806" activeTab="1" xr2:uid="{ECC3CD32-09AE-4AED-9EE9-BD1FB4BEAB7F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="806" xr2:uid="{ECC3CD32-09AE-4AED-9EE9-BD1FB4BEAB7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Compact" sheetId="2" r:id="rId1"/>
     <sheet name="TwoSamplesCharDistributionTest" sheetId="4" r:id="rId2"/>
-    <sheet name="CountCharactersByCluster" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
+    <sheet name="CountCharactersByCluster" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2538" uniqueCount="631">
   <si>
     <t>Transcription     : AUGMENTED</t>
   </si>
@@ -2006,12 +2007,36 @@
   <si>
     <t>v (0 / 1019) (0.00% / 0.08%)</t>
   </si>
+  <si>
+    <t>Transcription : AUGMENTED</t>
+  </si>
+  <si>
+    <t>Alphabet : Alphabet [Slot]</t>
+  </si>
+  <si>
+    <t>Alpha : 0.01</t>
+  </si>
+  <si>
+    <t>Alpha 2 : 0.05</t>
+  </si>
+  <si>
+    <t>[ First line in page ]</t>
+  </si>
+  <si>
+    <t>[ Last line in paragraph ]</t>
+  </si>
+  <si>
+    <t>[ First letter in a line ]</t>
+  </si>
+  <si>
+    <t>[ Last letter in a line ]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2050,8 +2075,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2112,8 +2143,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -2166,39 +2209,6 @@
       <left style="thick">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -2303,7 +2313,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2339,13 +2349,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2354,30 +2364,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2404,222 +2402,21 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="48">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <fill>
         <patternFill>
@@ -2760,9 +2557,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2800,7 +2597,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2906,7 +2703,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3048,7 +2845,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3059,200 +2856,194 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:AI58"/>
+  <dimension ref="A1:AH59"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="23"/>
-    <col min="2" max="2" width="9" style="33" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" style="14" hidden="1" customWidth="1"/>
-    <col min="4" max="11" width="3.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="3.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="3.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="2.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="27" max="29" width="3.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.140625" style="23"/>
-    <col min="31" max="31" width="3.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="55.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="9.140625" style="23"/>
+    <col min="2" max="2" width="9" style="29" customWidth="1"/>
+    <col min="3" max="10" width="3.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="3.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="3.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="2.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="3.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.140625" style="23"/>
+    <col min="30" max="30" width="3.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="55.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="32" max="34" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41"/>
-    </row>
-    <row r="2" spans="1:35" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="34" t="s">
+    <row r="1" spans="1:34" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="30" t="s">
+        <v>623</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+    </row>
+    <row r="2" spans="1:34" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-    </row>
-    <row r="3" spans="1:35" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="41"/>
-    </row>
-    <row r="4" spans="1:35" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="41"/>
-    </row>
-    <row r="5" spans="1:35" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="41"/>
-      <c r="V5" s="41"/>
-      <c r="W5" s="41"/>
-      <c r="X5" s="41"/>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="41"/>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="41"/>
-      <c r="AC5" s="41"/>
-    </row>
-    <row r="6" spans="1:35" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="34"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+    </row>
+    <row r="3" spans="1:34" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="30" t="s">
+        <v>624</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="37"/>
+    </row>
+    <row r="4" spans="1:34" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="30" t="s">
+        <v>625</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="37"/>
+      <c r="AB4" s="37"/>
+    </row>
+    <row r="5" spans="1:34" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="30" t="s">
+        <v>626</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="37"/>
+      <c r="Z5" s="37"/>
+      <c r="AA5" s="37"/>
+      <c r="AB5" s="37"/>
+    </row>
+    <row r="6" spans="1:34" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="30"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
@@ -3279,12 +3070,11 @@
       <c r="Z6" s="22"/>
       <c r="AA6" s="22"/>
       <c r="AB6" s="22"/>
-      <c r="AC6" s="22"/>
-    </row>
-    <row r="7" spans="1:35" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:34" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21"/>
-      <c r="B7" s="35" t="s">
-        <v>3</v>
+      <c r="B7" s="31" t="s">
+        <v>627</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -3312,109 +3102,105 @@
       <c r="Z7" s="15"/>
       <c r="AA7" s="15"/>
       <c r="AB7" s="15"/>
-      <c r="AC7" s="15"/>
-      <c r="AD7" s="21"/>
+      <c r="AC7" s="21"/>
+      <c r="AF7" s="21"/>
       <c r="AG7" s="21"/>
       <c r="AH7" s="21"/>
-      <c r="AI7" s="21"/>
-    </row>
-    <row r="8" spans="1:35" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:34" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21"/>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="24" t="s">
+      <c r="C8" s="24" t="s">
         <v>6</v>
       </c>
+      <c r="D8" s="25" t="s">
+        <v>7</v>
+      </c>
       <c r="E8" s="25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J8" s="25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K8" s="25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L8" s="25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M8" s="25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N8" s="25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O8" s="25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P8" s="25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R8" s="25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S8" s="25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T8" s="25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U8" s="25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="V8" s="25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="W8" s="25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="X8" s="25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y8" s="25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z8" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AA8" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB8" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="AC8" s="26" t="s">
+      <c r="AB8" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="AD8" s="21"/>
+      <c r="AC8" s="21"/>
+      <c r="AF8" s="21"/>
       <c r="AG8" s="21"/>
       <c r="AH8" s="21"/>
-      <c r="AI8" s="21"/>
-    </row>
-    <row r="9" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="36" t="s">
+    </row>
+    <row r="9" spans="1:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="29">
-        <v>0</v>
+      <c r="C9" s="16" t="s">
+        <v>318</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>318</v>
@@ -3426,421 +3212,406 @@
         <v>318</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="J9" s="16" t="s">
         <v>315</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="N9" s="16" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="O9" s="16" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="P9" s="16" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="Q9" s="16" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="R9" s="16" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="S9" s="16" t="s">
         <v>318</v>
       </c>
       <c r="T9" s="16" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="U9" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="V9" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="W9" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="X9" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="V9" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="W9" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="X9" s="16" t="s">
-        <v>318</v>
-      </c>
       <c r="Y9" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="Z9" s="16" t="s">
         <v>319</v>
-      </c>
-      <c r="Z9" s="16" t="s">
-        <v>317</v>
       </c>
       <c r="AA9" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="AB9" s="16" t="s">
+      <c r="AB9" s="17" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B10" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="O10" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q10" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="R10" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="S10" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="T10" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="U10" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="V10" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="W10" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="X10" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y10" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z10" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA10" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="AB10" s="17" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B11" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="O11" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="AC9" s="17" t="s">
+      <c r="P11" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q11" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="R11" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="S11" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="T11" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="U11" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="V11" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="W11" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="X11" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y11" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="Z11" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="AA11" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="AB11" s="17" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B12" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="G12" s="16" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B10" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="30">
-        <v>0</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="J10" s="16" t="s">
+      <c r="H12" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="P12" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q12" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="R12" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="S12" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="T12" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="U12" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="V12" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="W12" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="X12" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y12" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="Z12" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="AA12" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="AB12" s="17" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="L13" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="M13" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="K10" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="L10" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="M10" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="N10" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="O10" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="P10" s="16" t="s">
+      <c r="N13" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="O13" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="P13" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="Q10" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="R10" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="S10" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="T10" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="U10" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="V10" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="W10" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="X10" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="Y10" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="Z10" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA10" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="AB10" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="AC10" s="17" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B11" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="30">
-        <v>0</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="L11" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="M11" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="N11" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="O11" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="P11" s="16" t="s">
+      <c r="Q13" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="R13" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="S13" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="T13" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="U13" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="V13" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="W13" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="X13" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="Q11" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="R11" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="S11" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="T11" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="U11" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="V11" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="W11" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="X11" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="Y11" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="Z11" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="AA11" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="AB11" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="AC11" s="17" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B12" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="30">
-        <v>0</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="K12" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="L12" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="M12" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="N12" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="O12" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="P12" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q12" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="R12" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="S12" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="T12" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="U12" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="V12" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="W12" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="X12" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="Y12" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="Z12" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="AA12" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="AB12" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="AC12" s="17" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="31">
-        <v>0</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="J13" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="K13" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="L13" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="M13" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="N13" s="18" t="s">
-        <v>316</v>
-      </c>
-      <c r="O13" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="P13" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q13" s="18" t="s">
-        <v>316</v>
-      </c>
-      <c r="R13" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="S13" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="T13" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="U13" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="V13" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="W13" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="X13" s="18" t="s">
-        <v>315</v>
-      </c>
       <c r="Y13" s="18" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Z13" s="18" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AA13" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="AB13" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="AC13" s="19" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35" s="23" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="34"/>
+        <v>317</v>
+      </c>
+      <c r="AB13" s="19" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" s="23" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="30"/>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
@@ -3867,10 +3638,9 @@
       <c r="Z14" s="22"/>
       <c r="AA14" s="22"/>
       <c r="AB14" s="22"/>
-      <c r="AC14" s="22"/>
-    </row>
-    <row r="15" spans="1:35" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="34"/>
+    </row>
+    <row r="15" spans="1:34" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="30"/>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
@@ -3897,11 +3667,10 @@
       <c r="Z15" s="22"/>
       <c r="AA15" s="22"/>
       <c r="AB15" s="22"/>
-      <c r="AC15" s="22"/>
-    </row>
-    <row r="16" spans="1:35" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:34" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="21"/>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="31" t="s">
         <v>37</v>
       </c>
       <c r="C16" s="15"/>
@@ -3930,539 +3699,520 @@
       <c r="Z16" s="15"/>
       <c r="AA16" s="15"/>
       <c r="AB16" s="15"/>
-      <c r="AC16" s="15"/>
+      <c r="AC16" s="21"/>
       <c r="AD16" s="21"/>
       <c r="AE16" s="21"/>
       <c r="AF16" s="21"/>
       <c r="AG16" s="21"/>
       <c r="AH16" s="21"/>
-      <c r="AI16" s="21"/>
-    </row>
-    <row r="17" spans="1:35" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:34" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21"/>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="24" t="s">
+      <c r="C17" s="24" t="s">
         <v>6</v>
       </c>
+      <c r="D17" s="25" t="s">
+        <v>7</v>
+      </c>
       <c r="E17" s="25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I17" s="25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J17" s="25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K17" s="25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L17" s="25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M17" s="25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N17" s="25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O17" s="25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P17" s="25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q17" s="25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R17" s="25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S17" s="25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T17" s="25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U17" s="25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="V17" s="25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="W17" s="25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="X17" s="25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y17" s="25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z17" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AA17" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB17" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="AC17" s="26" t="s">
+      <c r="AB17" s="26" t="s">
         <v>31</v>
       </c>
+      <c r="AC17" s="21"/>
       <c r="AD17" s="21"/>
       <c r="AE17" s="21"/>
       <c r="AF17" s="21"/>
       <c r="AG17" s="21"/>
       <c r="AH17" s="21"/>
-      <c r="AI17" s="21"/>
-    </row>
-    <row r="18" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="36" t="s">
+    </row>
+    <row r="18" spans="1:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="29">
-        <v>0</v>
+      <c r="C18" s="16" t="s">
+        <v>319</v>
       </c>
       <c r="D18" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>318</v>
-      </c>
       <c r="F18" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="M18" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="N18" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="O18" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="P18" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q18" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="R18" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="S18" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="T18" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="U18" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="V18" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="G18" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="I18" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="J18" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="K18" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="L18" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="M18" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="N18" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="O18" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="P18" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q18" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="R18" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="S18" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="T18" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="U18" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="V18" s="16" t="s">
-        <v>317</v>
-      </c>
       <c r="W18" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="X18" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y18" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="Z18" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="AA18" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="AB18" s="17" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B19" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="X18" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="Y18" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="Z18" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="AA18" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="AB18" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="AC18" s="17" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B19" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="30">
-        <v>0</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>317</v>
-      </c>
       <c r="F19" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="K19" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="L19" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="M19" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="N19" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="O19" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="P19" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q19" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="R19" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="S19" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="T19" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="U19" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="V19" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="W19" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="X19" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y19" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z19" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="AA19" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="AB19" s="17" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B20" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="F20" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="G19" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="J19" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="K19" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="L19" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="M19" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="N19" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="O19" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="P19" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q19" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="R19" s="16" t="s">
+      <c r="G20" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="H20" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="S19" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="T19" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="U19" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="V19" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="W19" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="X19" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="Y19" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="Z19" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA19" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="AB19" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="AC19" s="17" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B20" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="30">
-        <v>0</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="G20" s="16" t="s">
+      <c r="I20" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="K20" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="L20" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="M20" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="N20" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="O20" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="P20" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q20" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="H20" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="I20" s="16" t="s">
+      <c r="R20" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="S20" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="T20" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="U20" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="V20" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="W20" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="X20" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y20" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="Z20" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="AA20" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="AB20" s="17" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B21" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="L21" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="M21" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="J20" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="K20" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="L20" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="M20" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="N20" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="O20" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="P20" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q20" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="R20" s="16" t="s">
+      <c r="N21" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="O21" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="P21" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q21" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="S20" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="T20" s="16" t="s">
+      <c r="R21" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="S21" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="T21" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="U21" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="V21" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="W21" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="X21" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y21" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="Z21" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="AA21" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="AB21" s="17" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="F22" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="U20" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="V20" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="W20" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="X20" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="Y20" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="Z20" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="AA20" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="AB20" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="AC20" s="17" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B21" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="30">
-        <v>0</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="I21" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="J21" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="K21" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="L21" s="16" t="s">
+      <c r="G22" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="J22" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="K22" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="L22" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="M22" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="N22" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="O22" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="P22" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q22" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="R22" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="S22" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="T22" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="U22" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="V22" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="W22" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="X22" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y22" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="Z22" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="AA22" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="AB22" s="19" t="s">
         <v>319</v>
       </c>
-      <c r="M21" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="N21" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="O21" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="P21" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q21" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="R21" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="S21" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="T21" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="U21" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="V21" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="W21" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="X21" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="Y21" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="Z21" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="AA21" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="AB21" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="AC21" s="17" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="22" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="31">
-        <v>0</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="H22" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="I22" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="J22" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="K22" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="L22" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="M22" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="N22" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="O22" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="P22" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q22" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="R22" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="S22" s="18" t="s">
-        <v>316</v>
-      </c>
-      <c r="T22" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="U22" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="V22" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="W22" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="X22" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="Y22" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="Z22" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="AA22" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="AB22" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="AC22" s="19" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="23" spans="1:35" s="23" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="34"/>
+    </row>
+    <row r="23" spans="1:34" s="23" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="30"/>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
@@ -4489,10 +4239,9 @@
       <c r="Z23" s="22"/>
       <c r="AA23" s="22"/>
       <c r="AB23" s="22"/>
-      <c r="AC23" s="22"/>
-    </row>
-    <row r="24" spans="1:35" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="34"/>
+    </row>
+    <row r="24" spans="1:34" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="30"/>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
@@ -4519,12 +4268,11 @@
       <c r="Z24" s="22"/>
       <c r="AA24" s="22"/>
       <c r="AB24" s="22"/>
-      <c r="AC24" s="22"/>
-    </row>
-    <row r="25" spans="1:35" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:34" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="21"/>
-      <c r="B25" s="35" t="s">
-        <v>38</v>
+      <c r="B25" s="31" t="s">
+        <v>628</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
@@ -4552,539 +4300,520 @@
       <c r="Z25" s="15"/>
       <c r="AA25" s="15"/>
       <c r="AB25" s="15"/>
-      <c r="AC25" s="15"/>
+      <c r="AC25" s="21"/>
       <c r="AD25" s="21"/>
       <c r="AE25" s="21"/>
       <c r="AF25" s="21"/>
       <c r="AG25" s="21"/>
       <c r="AH25" s="21"/>
-      <c r="AI25" s="21"/>
-    </row>
-    <row r="26" spans="1:35" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:34" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="21"/>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="24" t="s">
+      <c r="C26" s="24" t="s">
         <v>6</v>
       </c>
+      <c r="D26" s="25" t="s">
+        <v>7</v>
+      </c>
       <c r="E26" s="25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I26" s="25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J26" s="25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K26" s="25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L26" s="25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M26" s="25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N26" s="25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O26" s="25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P26" s="25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q26" s="25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R26" s="25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S26" s="25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T26" s="25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U26" s="25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="V26" s="25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="W26" s="25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="X26" s="25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y26" s="25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z26" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AA26" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB26" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="AC26" s="26" t="s">
+      <c r="AB26" s="26" t="s">
         <v>31</v>
       </c>
+      <c r="AC26" s="21"/>
       <c r="AD26" s="21"/>
       <c r="AE26" s="21"/>
       <c r="AF26" s="21"/>
       <c r="AG26" s="21"/>
       <c r="AH26" s="21"/>
-      <c r="AI26" s="21"/>
-    </row>
-    <row r="27" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="36" t="s">
+    </row>
+    <row r="27" spans="1:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="29">
-        <v>0</v>
+      <c r="C27" s="16" t="s">
+        <v>319</v>
       </c>
       <c r="D27" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="J27" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="E27" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="H27" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="I27" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="J27" s="16" t="s">
-        <v>320</v>
-      </c>
       <c r="K27" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="L27" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="M27" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="L27" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="M27" s="16" t="s">
-        <v>320</v>
-      </c>
       <c r="N27" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O27" s="16" t="s">
         <v>318</v>
       </c>
       <c r="P27" s="16" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q27" s="16" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="R27" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="S27" s="16" t="s">
         <v>317</v>
       </c>
       <c r="T27" s="16" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="U27" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="V27" s="16" t="s">
         <v>317</v>
       </c>
       <c r="W27" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="X27" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y27" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="Z27" s="16" t="s">
         <v>316</v>
-      </c>
-      <c r="Y27" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="Z27" s="16" t="s">
-        <v>317</v>
       </c>
       <c r="AA27" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="AB27" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="AC27" s="17" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B28" s="37" t="s">
+      <c r="AB27" s="17" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B28" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="30">
-        <v>3.8999999999999998E-3</v>
+      <c r="C28" s="16" t="s">
+        <v>320</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I28" s="16" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="J28" s="16" t="s">
         <v>319</v>
       </c>
       <c r="K28" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="L28" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="M28" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="L28" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="M28" s="16" t="s">
-        <v>320</v>
-      </c>
       <c r="N28" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="O28" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="P28" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q28" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="R28" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="S28" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="T28" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="U28" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="V28" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="W28" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="X28" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y28" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z28" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA28" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="AB28" s="17" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B29" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="O28" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="P28" s="16" t="s">
+      <c r="D29" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="Q28" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="R28" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="S28" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="T28" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="U28" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="V28" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="W28" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="X28" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="Y28" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="Z28" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA28" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="AB28" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="AC28" s="17" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B29" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="30">
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="D29" s="16" t="s">
+      <c r="E29" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="J29" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="K29" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="L29" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="M29" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="N29" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="O29" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="P29" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q29" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="R29" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="S29" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="T29" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="U29" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="V29" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="W29" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="X29" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="F29" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="G29" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="H29" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="I29" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="J29" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="K29" s="16" t="s">
+      <c r="Y29" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="Z29" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="AA29" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="L29" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="M29" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="N29" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="O29" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="P29" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q29" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="R29" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="S29" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="T29" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="U29" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="V29" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="W29" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="X29" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="Y29" s="16" t="s">
+      <c r="AB29" s="17" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B30" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="D30" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="Z29" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="AA29" s="16" t="s">
+      <c r="E30" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="G30" s="16" t="s">
         <v>316</v>
-      </c>
-      <c r="AB29" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="AC29" s="17" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B30" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="30">
-        <v>0</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>315</v>
       </c>
       <c r="H30" s="16" t="s">
         <v>316</v>
       </c>
       <c r="I30" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="K30" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="L30" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="M30" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="N30" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="O30" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="P30" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q30" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="R30" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="S30" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="T30" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="U30" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="V30" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="W30" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="X30" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y30" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="Z30" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA30" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="AB30" s="17" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="F31" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="J30" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="K30" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="L30" s="16" t="s">
+      <c r="G31" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="J31" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="K31" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="M30" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="N30" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="O30" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="P30" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q30" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="R30" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="S30" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="T30" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="U30" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="V30" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="W30" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="X30" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="Y30" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="Z30" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="AA30" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="AB30" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="AC30" s="17" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="31" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="31">
-        <v>0</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="F31" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="G31" s="18" t="s">
+      <c r="L31" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="M31" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="N31" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="O31" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="H31" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="I31" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="J31" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="K31" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="L31" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="M31" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="N31" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="O31" s="18" t="s">
-        <v>318</v>
-      </c>
       <c r="P31" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q31" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="R31" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="S31" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="T31" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="U31" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="V31" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="Q31" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="R31" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="S31" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="T31" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="U31" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="V31" s="18" t="s">
-        <v>318</v>
-      </c>
       <c r="W31" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="X31" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y31" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="Z31" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="AA31" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="AB31" s="19" t="s">
         <v>316</v>
       </c>
-      <c r="X31" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="Y31" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="Z31" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="AA31" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="AB31" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="AC31" s="19" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="32" spans="1:35" s="23" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="34"/>
+    </row>
+    <row r="32" spans="1:34" s="23" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="30"/>
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
@@ -5111,10 +4840,9 @@
       <c r="Z32" s="22"/>
       <c r="AA32" s="22"/>
       <c r="AB32" s="22"/>
-      <c r="AC32" s="22"/>
-    </row>
-    <row r="33" spans="1:35" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="34"/>
+    </row>
+    <row r="33" spans="1:34" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="30"/>
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
@@ -5141,12 +4869,11 @@
       <c r="Z33" s="22"/>
       <c r="AA33" s="22"/>
       <c r="AB33" s="22"/>
-      <c r="AC33" s="22"/>
-    </row>
-    <row r="34" spans="1:35" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:34" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="21"/>
-      <c r="B34" s="35" t="s">
-        <v>39</v>
+      <c r="B34" s="31" t="s">
+        <v>629</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
@@ -5174,125 +4901,121 @@
       <c r="Z34" s="15"/>
       <c r="AA34" s="15"/>
       <c r="AB34" s="15"/>
-      <c r="AC34" s="15"/>
+      <c r="AC34" s="21"/>
       <c r="AD34" s="21"/>
       <c r="AE34" s="21"/>
       <c r="AF34" s="21"/>
       <c r="AG34" s="21"/>
       <c r="AH34" s="21"/>
-      <c r="AI34" s="21"/>
-    </row>
-    <row r="35" spans="1:35" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:34" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="21"/>
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="24" t="s">
+      <c r="C35" s="24" t="s">
         <v>6</v>
       </c>
+      <c r="D35" s="25" t="s">
+        <v>7</v>
+      </c>
       <c r="E35" s="25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I35" s="25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J35" s="25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K35" s="25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L35" s="25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M35" s="25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N35" s="25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O35" s="25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P35" s="25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q35" s="25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R35" s="25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S35" s="25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T35" s="25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U35" s="25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="V35" s="25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="W35" s="25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="X35" s="25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y35" s="25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z35" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AA35" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB35" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="AC35" s="26" t="s">
+      <c r="AB35" s="26" t="s">
         <v>31</v>
       </c>
+      <c r="AC35" s="21"/>
       <c r="AD35" s="21"/>
       <c r="AE35" s="21"/>
       <c r="AF35" s="21"/>
       <c r="AG35" s="21"/>
       <c r="AH35" s="21"/>
-      <c r="AI35" s="21"/>
-    </row>
-    <row r="36" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="36" t="s">
+    </row>
+    <row r="36" spans="1:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="29">
-        <v>0</v>
+      <c r="C36" s="16" t="s">
+        <v>315</v>
       </c>
       <c r="D36" s="16" t="s">
         <v>315</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="H36" s="16" t="s">
         <v>320</v>
@@ -5301,22 +5024,22 @@
         <v>320</v>
       </c>
       <c r="J36" s="16" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="K36" s="16" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="L36" s="16" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="M36" s="16" t="s">
         <v>315</v>
       </c>
       <c r="N36" s="16" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="O36" s="16" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="P36" s="16" t="s">
         <v>320</v>
@@ -5325,7 +5048,7 @@
         <v>320</v>
       </c>
       <c r="R36" s="16" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="S36" s="16" t="s">
         <v>318</v>
@@ -5334,19 +5057,19 @@
         <v>318</v>
       </c>
       <c r="U36" s="16" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="V36" s="16" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="W36" s="16" t="s">
-        <v>320</v>
+        <v>43</v>
       </c>
       <c r="X36" s="16" t="s">
         <v>43</v>
       </c>
       <c r="Y36" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="Z36" s="16" t="s">
         <v>318</v>
@@ -5354,58 +5077,55 @@
       <c r="AA36" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="AB36" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="AC36" s="17" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B37" s="37" t="s">
+      <c r="AB36" s="17" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B37" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="30">
-        <v>0</v>
+      <c r="C37" s="16" t="s">
+        <v>318</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>315</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="G37" s="16" t="s">
         <v>318</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="I37" s="16" t="s">
         <v>320</v>
       </c>
       <c r="J37" s="16" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="K37" s="16" t="s">
         <v>317</v>
       </c>
       <c r="L37" s="16" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="M37" s="16" t="s">
         <v>315</v>
       </c>
       <c r="N37" s="16" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="O37" s="16" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P37" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Q37" s="16" t="s">
         <v>318</v>
@@ -5417,16 +5137,16 @@
         <v>318</v>
       </c>
       <c r="T37" s="16" t="s">
-        <v>318</v>
+        <v>43</v>
       </c>
       <c r="U37" s="16" t="s">
-        <v>43</v>
+        <v>320</v>
       </c>
       <c r="V37" s="16" t="s">
         <v>320</v>
       </c>
       <c r="W37" s="16" t="s">
-        <v>320</v>
+        <v>43</v>
       </c>
       <c r="X37" s="16" t="s">
         <v>43</v>
@@ -5440,22 +5160,19 @@
       <c r="AA37" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="AB37" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC37" s="17" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B38" s="37" t="s">
+      <c r="AB37" s="17" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B38" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="30">
-        <v>0</v>
+      <c r="C38" s="16" t="s">
+        <v>320</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="E38" s="16" t="s">
         <v>315</v>
@@ -5464,28 +5181,28 @@
         <v>315</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="H38" s="16" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="I38" s="16" t="s">
         <v>320</v>
       </c>
       <c r="J38" s="16" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K38" s="16" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L38" s="16" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="M38" s="16" t="s">
         <v>315</v>
       </c>
       <c r="N38" s="16" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="O38" s="16" t="s">
         <v>318</v>
@@ -5506,13 +5223,13 @@
         <v>318</v>
       </c>
       <c r="U38" s="16" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="V38" s="16" t="s">
         <v>320</v>
       </c>
       <c r="W38" s="16" t="s">
-        <v>320</v>
+        <v>43</v>
       </c>
       <c r="X38" s="16" t="s">
         <v>43</v>
@@ -5524,30 +5241,27 @@
         <v>43</v>
       </c>
       <c r="AA38" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB38" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="AC38" s="17" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B39" s="37" t="s">
+        <v>318</v>
+      </c>
+      <c r="AB38" s="17" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B39" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="30">
-        <v>0</v>
+      <c r="C39" s="16" t="s">
+        <v>316</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>315</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="G39" s="16" t="s">
         <v>320</v>
@@ -5559,25 +5273,25 @@
         <v>320</v>
       </c>
       <c r="J39" s="16" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K39" s="16" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L39" s="16" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="M39" s="16" t="s">
         <v>315</v>
       </c>
       <c r="N39" s="16" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="O39" s="16" t="s">
         <v>318</v>
       </c>
       <c r="P39" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Q39" s="16" t="s">
         <v>317</v>
@@ -5586,19 +5300,19 @@
         <v>317</v>
       </c>
       <c r="S39" s="16" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="T39" s="16" t="s">
         <v>318</v>
       </c>
       <c r="U39" s="16" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="V39" s="16" t="s">
         <v>320</v>
       </c>
       <c r="W39" s="16" t="s">
-        <v>320</v>
+        <v>43</v>
       </c>
       <c r="X39" s="16" t="s">
         <v>43</v>
@@ -5610,30 +5324,27 @@
         <v>43</v>
       </c>
       <c r="AA39" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB39" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="AC39" s="17" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="40" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="38" t="s">
+        <v>318</v>
+      </c>
+      <c r="AB39" s="17" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="31">
-        <v>0</v>
+      <c r="C40" s="18" t="s">
+        <v>320</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="E40" s="18" t="s">
         <v>315</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="G40" s="18" t="s">
         <v>320</v>
@@ -5645,19 +5356,19 @@
         <v>320</v>
       </c>
       <c r="J40" s="18" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="K40" s="18" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="L40" s="18" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="M40" s="18" t="s">
         <v>315</v>
       </c>
       <c r="N40" s="18" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="O40" s="18" t="s">
         <v>318</v>
@@ -5666,47 +5377,44 @@
         <v>318</v>
       </c>
       <c r="Q40" s="18" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="R40" s="18" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="S40" s="18" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="T40" s="18" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="U40" s="18" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="V40" s="18" t="s">
         <v>320</v>
       </c>
       <c r="W40" s="18" t="s">
-        <v>320</v>
+        <v>43</v>
       </c>
       <c r="X40" s="18" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="Y40" s="18" t="s">
-        <v>318</v>
+        <v>43</v>
       </c>
       <c r="Z40" s="18" t="s">
         <v>43</v>
       </c>
       <c r="AA40" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB40" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="AC40" s="19" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="41" spans="1:35" s="23" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="34"/>
+        <v>318</v>
+      </c>
+      <c r="AB40" s="19" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34" s="23" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="30"/>
       <c r="C41" s="22"/>
       <c r="D41" s="22"/>
       <c r="E41" s="22"/>
@@ -5733,10 +5441,9 @@
       <c r="Z41" s="22"/>
       <c r="AA41" s="22"/>
       <c r="AB41" s="22"/>
-      <c r="AC41" s="22"/>
-    </row>
-    <row r="42" spans="1:35" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="34"/>
+    </row>
+    <row r="42" spans="1:34" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="30"/>
       <c r="C42" s="22"/>
       <c r="D42" s="22"/>
       <c r="E42" s="22"/>
@@ -5763,12 +5470,11 @@
       <c r="Z42" s="22"/>
       <c r="AA42" s="22"/>
       <c r="AB42" s="22"/>
-      <c r="AC42" s="22"/>
-    </row>
-    <row r="43" spans="1:35" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:34" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="21"/>
-      <c r="B43" s="35" t="s">
-        <v>40</v>
+      <c r="B43" s="31" t="s">
+        <v>630</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
@@ -5796,131 +5502,127 @@
       <c r="Z43" s="15"/>
       <c r="AA43" s="15"/>
       <c r="AB43" s="15"/>
-      <c r="AC43" s="15"/>
+      <c r="AC43" s="21"/>
       <c r="AD43" s="21"/>
       <c r="AE43" s="21"/>
       <c r="AF43" s="21"/>
       <c r="AG43" s="21"/>
       <c r="AH43" s="21"/>
-      <c r="AI43" s="21"/>
-    </row>
-    <row r="44" spans="1:35" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:34" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="21"/>
-      <c r="B44" s="35" t="s">
+      <c r="B44" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" s="24" t="s">
+      <c r="C44" s="24" t="s">
         <v>6</v>
       </c>
+      <c r="D44" s="25" t="s">
+        <v>7</v>
+      </c>
       <c r="E44" s="25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I44" s="25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J44" s="25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K44" s="25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L44" s="25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M44" s="25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N44" s="25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O44" s="25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P44" s="25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q44" s="25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R44" s="25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S44" s="25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T44" s="25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U44" s="25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="V44" s="25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="W44" s="25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="X44" s="25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y44" s="25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z44" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AA44" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB44" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="AC44" s="26" t="s">
+      <c r="AB44" s="26" t="s">
         <v>31</v>
       </c>
+      <c r="AC44" s="21"/>
       <c r="AD44" s="21"/>
       <c r="AE44" s="21"/>
       <c r="AF44" s="21"/>
       <c r="AG44" s="21"/>
       <c r="AH44" s="21"/>
-      <c r="AI44" s="21"/>
-    </row>
-    <row r="45" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="36" t="s">
+    </row>
+    <row r="45" spans="1:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="29">
-        <v>0</v>
+      <c r="C45" s="16" t="s">
+        <v>43</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>43</v>
+        <v>317</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="G45" s="16" t="s">
         <v>320</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="I45" s="16" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J45" s="16" t="s">
         <v>318</v>
@@ -5935,10 +5637,10 @@
         <v>318</v>
       </c>
       <c r="N45" s="16" t="s">
-        <v>318</v>
+        <v>43</v>
       </c>
       <c r="O45" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="P45" s="16" t="s">
         <v>318</v>
@@ -5956,69 +5658,66 @@
         <v>318</v>
       </c>
       <c r="U45" s="16" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="V45" s="16" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="W45" s="16" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="X45" s="16" t="s">
-        <v>318</v>
+        <v>43</v>
       </c>
       <c r="Y45" s="16" t="s">
         <v>43</v>
       </c>
       <c r="Z45" s="16" t="s">
-        <v>43</v>
+        <v>315</v>
       </c>
       <c r="AA45" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="AB45" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="AC45" s="17" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B46" s="37" t="s">
+      <c r="AB45" s="17" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B46" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="30">
-        <v>0</v>
+      <c r="C46" s="16" t="s">
+        <v>43</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="G46" s="16" t="s">
         <v>320</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I46" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J46" s="16" t="s">
-        <v>317</v>
+        <v>43</v>
       </c>
       <c r="K46" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="L46" s="16" t="s">
         <v>318</v>
       </c>
       <c r="M46" s="16" t="s">
-        <v>318</v>
+        <v>43</v>
       </c>
       <c r="N46" s="16" t="s">
         <v>43</v>
@@ -6033,72 +5732,69 @@
         <v>43</v>
       </c>
       <c r="R46" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="S46" s="16" t="s">
         <v>318</v>
       </c>
       <c r="T46" s="16" t="s">
-        <v>318</v>
+        <v>43</v>
       </c>
       <c r="U46" s="16" t="s">
-        <v>43</v>
+        <v>320</v>
       </c>
       <c r="V46" s="16" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="W46" s="16" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="X46" s="16" t="s">
-        <v>318</v>
+        <v>43</v>
       </c>
       <c r="Y46" s="16" t="s">
         <v>43</v>
       </c>
       <c r="Z46" s="16" t="s">
-        <v>43</v>
+        <v>317</v>
       </c>
       <c r="AA46" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="AB46" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="AC46" s="17" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B47" s="37" t="s">
+        <v>315</v>
+      </c>
+      <c r="AB46" s="17" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B47" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="30">
-        <v>0</v>
+      <c r="C47" s="16" t="s">
+        <v>43</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="G47" s="16" t="s">
         <v>320</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I47" s="16" t="s">
         <v>318</v>
       </c>
       <c r="J47" s="16" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="K47" s="16" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="L47" s="16" t="s">
         <v>318</v>
@@ -6107,34 +5803,34 @@
         <v>318</v>
       </c>
       <c r="N47" s="16" t="s">
-        <v>318</v>
+        <v>43</v>
       </c>
       <c r="O47" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="P47" s="16" t="s">
-        <v>318</v>
+        <v>43</v>
       </c>
       <c r="Q47" s="16" t="s">
         <v>43</v>
       </c>
       <c r="R47" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="S47" s="16" t="s">
         <v>318</v>
       </c>
       <c r="T47" s="16" t="s">
-        <v>318</v>
+        <v>43</v>
       </c>
       <c r="U47" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="V47" s="16" t="s">
         <v>318</v>
       </c>
       <c r="W47" s="16" t="s">
-        <v>318</v>
+        <v>43</v>
       </c>
       <c r="X47" s="16" t="s">
         <v>43</v>
@@ -6143,48 +5839,45 @@
         <v>43</v>
       </c>
       <c r="Z47" s="16" t="s">
-        <v>43</v>
+        <v>317</v>
       </c>
       <c r="AA47" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="AB47" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="AC47" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="AB47" s="17" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B48" s="37" t="s">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B48" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="30">
-        <v>0</v>
+      <c r="C48" s="16" t="s">
+        <v>318</v>
       </c>
       <c r="D48" s="16" t="s">
         <v>318</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I48" s="16" t="s">
         <v>318</v>
       </c>
       <c r="J48" s="16" t="s">
-        <v>318</v>
+        <v>43</v>
       </c>
       <c r="K48" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="L48" s="16" t="s">
         <v>318</v>
@@ -6193,34 +5886,34 @@
         <v>318</v>
       </c>
       <c r="N48" s="16" t="s">
-        <v>318</v>
+        <v>43</v>
       </c>
       <c r="O48" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="P48" s="16" t="s">
-        <v>318</v>
+        <v>43</v>
       </c>
       <c r="Q48" s="16" t="s">
         <v>43</v>
       </c>
       <c r="R48" s="16" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="S48" s="16" t="s">
         <v>318</v>
       </c>
       <c r="T48" s="16" t="s">
-        <v>318</v>
+        <v>43</v>
       </c>
       <c r="U48" s="16" t="s">
-        <v>43</v>
+        <v>317</v>
       </c>
       <c r="V48" s="16" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="W48" s="16" t="s">
-        <v>318</v>
+        <v>43</v>
       </c>
       <c r="X48" s="16" t="s">
         <v>43</v>
@@ -6229,39 +5922,36 @@
         <v>43</v>
       </c>
       <c r="Z48" s="16" t="s">
-        <v>43</v>
+        <v>320</v>
       </c>
       <c r="AA48" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="AB48" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="AC48" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="AB48" s="17" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="49" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="38" t="s">
+    <row r="49" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C49" s="31">
-        <v>0</v>
+      <c r="C49" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="G49" s="18" t="s">
         <v>320</v>
       </c>
       <c r="H49" s="18" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I49" s="18" t="s">
         <v>318</v>
@@ -6273,13 +5963,13 @@
         <v>318</v>
       </c>
       <c r="L49" s="18" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M49" s="18" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N49" s="18" t="s">
-        <v>318</v>
+        <v>43</v>
       </c>
       <c r="O49" s="18" t="s">
         <v>43</v>
@@ -6291,7 +5981,7 @@
         <v>43</v>
       </c>
       <c r="R49" s="18" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="S49" s="18" t="s">
         <v>318</v>
@@ -6300,13 +5990,13 @@
         <v>318</v>
       </c>
       <c r="U49" s="18" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="V49" s="18" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="W49" s="18" t="s">
-        <v>318</v>
+        <v>43</v>
       </c>
       <c r="X49" s="18" t="s">
         <v>43</v>
@@ -6315,20 +6005,17 @@
         <v>43</v>
       </c>
       <c r="Z49" s="18" t="s">
-        <v>43</v>
+        <v>320</v>
       </c>
       <c r="AA49" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="AB49" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="AC49" s="19" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="50" spans="2:31" s="23" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="34"/>
+        <v>315</v>
+      </c>
+      <c r="AB49" s="19" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="50" spans="2:30" s="23" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="30"/>
       <c r="C50" s="22"/>
       <c r="D50" s="22"/>
       <c r="E50" s="22"/>
@@ -6355,12 +6042,11 @@
       <c r="Z50" s="22"/>
       <c r="AA50" s="22"/>
       <c r="AB50" s="22"/>
-      <c r="AC50" s="22"/>
-    </row>
-    <row r="51" spans="2:31" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="34"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="12"/>
+    </row>
+    <row r="51" spans="2:30" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="30"/>
+      <c r="C51" s="12"/>
+      <c r="E51" s="22"/>
       <c r="F51" s="22"/>
       <c r="G51" s="22"/>
       <c r="H51" s="22"/>
@@ -6386,17 +6072,16 @@
       <c r="AB51" s="22"/>
       <c r="AC51" s="22"/>
       <c r="AD51" s="22"/>
-      <c r="AE51" s="22"/>
-    </row>
-    <row r="52" spans="2:31" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="34"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="E52" s="23" t="s">
-        <v>326</v>
-      </c>
+    </row>
+    <row r="52" spans="2:30" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="30"/>
+      <c r="C52" s="40" t="s">
+        <v>315</v>
+      </c>
+      <c r="D52" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="E52" s="22"/>
       <c r="F52" s="22"/>
       <c r="G52" s="22"/>
       <c r="H52" s="22"/>
@@ -6422,17 +6107,16 @@
       <c r="AB52" s="22"/>
       <c r="AC52" s="22"/>
       <c r="AD52" s="22"/>
-      <c r="AE52" s="22"/>
-    </row>
-    <row r="53" spans="2:31" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="34"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="E53" s="23" t="s">
-        <v>327</v>
-      </c>
+    </row>
+    <row r="53" spans="2:30" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="30"/>
+      <c r="C53" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="D53" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="E53" s="22"/>
       <c r="F53" s="22"/>
       <c r="G53" s="22"/>
       <c r="H53" s="22"/>
@@ -6458,17 +6142,16 @@
       <c r="AB53" s="22"/>
       <c r="AC53" s="22"/>
       <c r="AD53" s="22"/>
-      <c r="AE53" s="22"/>
-    </row>
-    <row r="54" spans="2:31" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="34"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="E54" s="23" t="s">
-        <v>328</v>
-      </c>
+    </row>
+    <row r="54" spans="2:30" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="30"/>
+      <c r="C54" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="D54" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="E54" s="22"/>
       <c r="F54" s="22"/>
       <c r="G54" s="22"/>
       <c r="H54" s="22"/>
@@ -6494,17 +6177,16 @@
       <c r="AB54" s="22"/>
       <c r="AC54" s="22"/>
       <c r="AD54" s="22"/>
-      <c r="AE54" s="22"/>
-    </row>
-    <row r="55" spans="2:31" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="34"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="E55" s="23" t="s">
-        <v>329</v>
-      </c>
+    </row>
+    <row r="55" spans="2:30" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="30"/>
+      <c r="C55" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="D55" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="E55" s="22"/>
       <c r="F55" s="22"/>
       <c r="G55" s="22"/>
       <c r="H55" s="22"/>
@@ -6530,17 +6212,16 @@
       <c r="AB55" s="22"/>
       <c r="AC55" s="22"/>
       <c r="AD55" s="22"/>
-      <c r="AE55" s="22"/>
-    </row>
-    <row r="56" spans="2:31" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="34"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="E56" s="23" t="s">
-        <v>330</v>
-      </c>
+    </row>
+    <row r="56" spans="2:30" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="30"/>
+      <c r="C56" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="D56" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="E56" s="22"/>
       <c r="F56" s="22"/>
       <c r="G56" s="22"/>
       <c r="H56" s="22"/>
@@ -6566,17 +6247,16 @@
       <c r="AB56" s="22"/>
       <c r="AC56" s="22"/>
       <c r="AD56" s="22"/>
-      <c r="AE56" s="22"/>
-    </row>
-    <row r="57" spans="2:31" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="34"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E57" s="23" t="s">
-        <v>409</v>
-      </c>
+    </row>
+    <row r="57" spans="2:30" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="30"/>
+      <c r="C57" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="D57" s="23" t="s">
+        <v>330</v>
+      </c>
+      <c r="E57" s="22"/>
       <c r="F57" s="22"/>
       <c r="G57" s="22"/>
       <c r="H57" s="22"/>
@@ -6602,12 +6282,15 @@
       <c r="AB57" s="22"/>
       <c r="AC57" s="22"/>
       <c r="AD57" s="22"/>
-      <c r="AE57" s="22"/>
-    </row>
-    <row r="58" spans="2:31" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="34"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="22"/>
+    </row>
+    <row r="58" spans="2:30" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="30"/>
+      <c r="C58" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D58" s="23" t="s">
+        <v>409</v>
+      </c>
       <c r="E58" s="22"/>
       <c r="F58" s="22"/>
       <c r="G58" s="22"/>
@@ -6633,6 +6316,36 @@
       <c r="AA58" s="22"/>
       <c r="AB58" s="22"/>
       <c r="AC58" s="22"/>
+      <c r="AD58" s="22"/>
+    </row>
+    <row r="59" spans="2:30" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="30"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="22"/>
+      <c r="M59" s="22"/>
+      <c r="N59" s="22"/>
+      <c r="O59" s="22"/>
+      <c r="P59" s="22"/>
+      <c r="Q59" s="22"/>
+      <c r="R59" s="22"/>
+      <c r="S59" s="22"/>
+      <c r="T59" s="22"/>
+      <c r="U59" s="22"/>
+      <c r="V59" s="22"/>
+      <c r="W59" s="22"/>
+      <c r="X59" s="22"/>
+      <c r="Y59" s="22"/>
+      <c r="Z59" s="22"/>
+      <c r="AA59" s="22"/>
+      <c r="AB59" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6707,149 +6420,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A15:XFD49 A7:AD14 AG7:XFD14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="13" stopIfTrue="1" operator="containsText" id="{BBFFB4BC-563F-4E29-938F-E97493489E66}">
-            <xm:f>NOT(ISERROR(SEARCH("++",D51)))</xm:f>
-            <xm:f>"++"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9" tint="-0.499984740745262"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="14" stopIfTrue="1" operator="containsText" id="{4EB2560B-88BC-440F-9292-72F7B54358B2}">
-            <xm:f>NOT(ISERROR(SEARCH("+",D51)))</xm:f>
-            <xm:f>"+"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="15" stopIfTrue="1" operator="containsText" id="{149FD8FE-EDF1-46B5-8131-F1FBA561295A}">
-            <xm:f>NOT(ISERROR(SEARCH("^",D51)))</xm:f>
-            <xm:f>"^"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9" tint="0.79998168889431442"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="16" stopIfTrue="1" operator="containsText" id="{EEB470DD-4FDE-439E-8DDD-378F8F4C93C8}">
-            <xm:f>NOT(ISERROR(SEARCH("--",D51)))</xm:f>
-            <xm:f>"--"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFC00000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="17" stopIfTrue="1" operator="containsText" id="{52CBBC94-AC06-4D19-AFCC-C7FC8E9FD3D0}">
-            <xm:f>NOT(ISERROR(SEARCH("-",D51)))</xm:f>
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="18" stopIfTrue="1" operator="containsText" id="{BB7CB7A0-4338-4544-81EB-006C6582ECD6}">
-            <xm:f>NOT(ISERROR(SEARCH("v",D51)))</xm:f>
-            <xm:f>"v"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.79998168889431442"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>D51:E56</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="7" stopIfTrue="1" operator="containsText" id="{C948A42A-7F41-407C-976C-60F6AB8669C5}">
-            <xm:f>NOT(ISERROR(SEARCH("++",D57)))</xm:f>
-            <xm:f>"++"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9" tint="-0.499984740745262"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="8" stopIfTrue="1" operator="containsText" id="{4A3ED2F5-20C8-4CA3-B33E-5DE3B25C0732}">
-            <xm:f>NOT(ISERROR(SEARCH("+",D57)))</xm:f>
-            <xm:f>"+"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="9" stopIfTrue="1" operator="containsText" id="{9A5843A8-AFB9-43DC-98BA-1C5284DF2E27}">
-            <xm:f>NOT(ISERROR(SEARCH("^",D57)))</xm:f>
-            <xm:f>"^"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9" tint="0.79998168889431442"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="10" stopIfTrue="1" operator="containsText" id="{A7413A20-F5CD-4EE8-BDAA-4E9CE81A65BB}">
-            <xm:f>NOT(ISERROR(SEARCH("--",D57)))</xm:f>
-            <xm:f>"--"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFC00000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="11" stopIfTrue="1" operator="containsText" id="{552EB639-AE0C-4E71-BBBC-64E5E095A66D}">
-            <xm:f>NOT(ISERROR(SEARCH("-",D57)))</xm:f>
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="12" stopIfTrue="1" operator="containsText" id="{011EB7E7-70F3-463F-B7DC-02370E4834F1}">
-            <xm:f>NOT(ISERROR(SEARCH("v",D57)))</xm:f>
-            <xm:f>"v"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.79998168889431442"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>D57</xm:sqref>
+          <xm:sqref>AF7:XFD14 A7:AC14 A15:XFD49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="1" stopIfTrue="1" operator="containsText" id="{657C1858-1D28-43F9-9FE3-EC343FD1E812}">
-            <xm:f>NOT(ISERROR(SEARCH("++",E57)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("++",C51)))</xm:f>
             <xm:f>"++"</xm:f>
             <x14:dxf>
               <fill>
@@ -6860,7 +6435,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="2" stopIfTrue="1" operator="containsText" id="{016D27CB-5B77-455F-B98B-E49AC27D7D24}">
-            <xm:f>NOT(ISERROR(SEARCH("+",E57)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("+",C51)))</xm:f>
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <fill>
@@ -6871,7 +6446,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="3" stopIfTrue="1" operator="containsText" id="{45CBAFBE-1883-421F-BEC0-57296610A88B}">
-            <xm:f>NOT(ISERROR(SEARCH("^",E57)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("^",C51)))</xm:f>
             <xm:f>"^"</xm:f>
             <x14:dxf>
               <fill>
@@ -6882,7 +6457,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="4" stopIfTrue="1" operator="containsText" id="{F1DF1F43-5C37-42D1-8935-5EFD1CE4EF54}">
-            <xm:f>NOT(ISERROR(SEARCH("--",E57)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("--",C51)))</xm:f>
             <xm:f>"--"</xm:f>
             <x14:dxf>
               <fill>
@@ -6893,7 +6468,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="5" stopIfTrue="1" operator="containsText" id="{992D3FDD-7EAC-4F77-803E-EA6050CCD14A}">
-            <xm:f>NOT(ISERROR(SEARCH("-",E57)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("-",C51)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <fill>
@@ -6904,7 +6479,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="6" stopIfTrue="1" operator="containsText" id="{A0BB29E3-185D-4F3F-9789-35F2B11BB4EE}">
-            <xm:f>NOT(ISERROR(SEARCH("v",E57)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("v",C51)))</xm:f>
             <xm:f>"v"</xm:f>
             <x14:dxf>
               <fill>
@@ -6914,7 +6489,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E57</xm:sqref>
+          <xm:sqref>C51:D58</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -6926,7 +6501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5676BBC-4181-4DB2-9C99-4C4C3BE5CBF3}">
   <dimension ref="A1:AG51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A24" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="AB36" sqref="AB36"/>
     </sheetView>
   </sheetViews>
@@ -9779,7 +9354,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="19" stopIfTrue="1" operator="containsText" id="{71244CCF-BC83-4E16-A963-FB0432D0756B}">
+          <x14:cfRule type="containsText" priority="1" stopIfTrue="1" operator="containsText" id="{06FD3EB8-19C5-4B33-B8D7-8B547993AB63}">
             <xm:f>NOT(ISERROR(SEARCH("++",A7)))</xm:f>
             <xm:f>"++"</xm:f>
             <x14:dxf>
@@ -9790,7 +9365,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="20" stopIfTrue="1" operator="containsText" id="{2665A883-0294-49EA-B4EF-E7A85808A969}">
+          <x14:cfRule type="containsText" priority="2" stopIfTrue="1" operator="containsText" id="{19F5A300-7E18-4956-ACCD-0BFD22CC1816}">
             <xm:f>NOT(ISERROR(SEARCH("+",A7)))</xm:f>
             <xm:f>"+"</xm:f>
             <x14:dxf>
@@ -9801,7 +9376,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="21" stopIfTrue="1" operator="containsText" id="{42A6195A-6A12-40F3-96A1-4CA3F47702B8}">
+          <x14:cfRule type="containsText" priority="3" stopIfTrue="1" operator="containsText" id="{CF28723E-0860-4376-B613-15AC1A20A8FC}">
             <xm:f>NOT(ISERROR(SEARCH("^",A7)))</xm:f>
             <xm:f>"^"</xm:f>
             <x14:dxf>
@@ -9812,7 +9387,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="22" stopIfTrue="1" operator="containsText" id="{CB884B70-6313-4F78-BF9B-8AE2CF0E9087}">
+          <x14:cfRule type="containsText" priority="4" stopIfTrue="1" operator="containsText" id="{7FDDE60D-CD4C-4E9E-974A-2D9A88661770}">
             <xm:f>NOT(ISERROR(SEARCH("--",A7)))</xm:f>
             <xm:f>"--"</xm:f>
             <x14:dxf>
@@ -9823,7 +9398,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="23" stopIfTrue="1" operator="containsText" id="{B052520F-7078-4AE2-90B8-2FA99DB481DF}">
+          <x14:cfRule type="containsText" priority="5" stopIfTrue="1" operator="containsText" id="{762EEC2C-8BA8-49B5-B8D8-DA7E5CAC680E}">
             <xm:f>NOT(ISERROR(SEARCH("-",A7)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
@@ -9834,7 +9409,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="24" stopIfTrue="1" operator="containsText" id="{BE8F5D4A-109D-4C5A-8E41-5FD9DA7DB2AD}">
+          <x14:cfRule type="containsText" priority="6" stopIfTrue="1" operator="containsText" id="{A43EE60E-82DF-455E-8945-E9E6535FABE9}">
             <xm:f>NOT(ISERROR(SEARCH("v",A7)))</xm:f>
             <xm:f>"v"</xm:f>
             <x14:dxf>
@@ -9845,214 +9420,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A7:XFD7 AH8:XFD14 A8:AE49 AF15:XFD49</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="13" stopIfTrue="1" operator="containsText" id="{665C5C25-BF41-403A-97BC-83A471F5BB6C}">
-            <xm:f>NOT(ISERROR(SEARCH("++",AF8)))</xm:f>
-            <xm:f>"++"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9" tint="-0.499984740745262"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="14" stopIfTrue="1" operator="containsText" id="{62847F78-8ACE-417E-9CE6-EA1CAE027CA9}">
-            <xm:f>NOT(ISERROR(SEARCH("+",AF8)))</xm:f>
-            <xm:f>"+"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="15" stopIfTrue="1" operator="containsText" id="{3DD21383-F078-4C42-A6F7-0E80D39C74B3}">
-            <xm:f>NOT(ISERROR(SEARCH("^",AF8)))</xm:f>
-            <xm:f>"^"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9" tint="0.79998168889431442"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="16" stopIfTrue="1" operator="containsText" id="{C6418750-3B2A-4998-8B19-D52EDC301724}">
-            <xm:f>NOT(ISERROR(SEARCH("--",AF8)))</xm:f>
-            <xm:f>"--"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFC00000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="17" stopIfTrue="1" operator="containsText" id="{C006A424-08E6-43E9-AE2A-B9335B315DFD}">
-            <xm:f>NOT(ISERROR(SEARCH("-",AF8)))</xm:f>
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="18" stopIfTrue="1" operator="containsText" id="{1F073C9E-6DBC-4FE3-AEEF-90C0C776D56F}">
-            <xm:f>NOT(ISERROR(SEARCH("v",AF8)))</xm:f>
-            <xm:f>"v"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.79998168889431442"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>AF8:AG13</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="7" stopIfTrue="1" operator="containsText" id="{041B24D4-6502-4B15-BC10-278F1E64D409}">
-            <xm:f>NOT(ISERROR(SEARCH("++",AF14)))</xm:f>
-            <xm:f>"++"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9" tint="-0.499984740745262"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="8" stopIfTrue="1" operator="containsText" id="{AF5383FA-764C-4E4D-A5FA-F215D80B0B55}">
-            <xm:f>NOT(ISERROR(SEARCH("+",AF14)))</xm:f>
-            <xm:f>"+"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="9" stopIfTrue="1" operator="containsText" id="{973B45B1-D9BF-4F8F-AA53-F7F2AA8838B9}">
-            <xm:f>NOT(ISERROR(SEARCH("^",AF14)))</xm:f>
-            <xm:f>"^"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9" tint="0.79998168889431442"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="10" stopIfTrue="1" operator="containsText" id="{DE96C08A-624E-477F-9583-2417322B8DF2}">
-            <xm:f>NOT(ISERROR(SEARCH("--",AF14)))</xm:f>
-            <xm:f>"--"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFC00000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="11" stopIfTrue="1" operator="containsText" id="{37A506C4-1DB2-4DDB-813D-A99400157B15}">
-            <xm:f>NOT(ISERROR(SEARCH("-",AF14)))</xm:f>
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="12" stopIfTrue="1" operator="containsText" id="{F4A3FA46-D3AE-4A23-B581-3C1C089E27AF}">
-            <xm:f>NOT(ISERROR(SEARCH("v",AF14)))</xm:f>
-            <xm:f>"v"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.79998168889431442"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>AF14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="1" stopIfTrue="1" operator="containsText" id="{06FD3EB8-19C5-4B33-B8D7-8B547993AB63}">
-            <xm:f>NOT(ISERROR(SEARCH("++",AG14)))</xm:f>
-            <xm:f>"++"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9" tint="-0.499984740745262"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="2" stopIfTrue="1" operator="containsText" id="{19F5A300-7E18-4956-ACCD-0BFD22CC1816}">
-            <xm:f>NOT(ISERROR(SEARCH("+",AG14)))</xm:f>
-            <xm:f>"+"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="3" stopIfTrue="1" operator="containsText" id="{CF28723E-0860-4376-B613-15AC1A20A8FC}">
-            <xm:f>NOT(ISERROR(SEARCH("^",AG14)))</xm:f>
-            <xm:f>"^"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9" tint="0.79998168889431442"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="4" stopIfTrue="1" operator="containsText" id="{7FDDE60D-CD4C-4E9E-974A-2D9A88661770}">
-            <xm:f>NOT(ISERROR(SEARCH("--",AG14)))</xm:f>
-            <xm:f>"--"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFC00000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="5" stopIfTrue="1" operator="containsText" id="{762EEC2C-8BA8-49B5-B8D8-DA7E5CAC680E}">
-            <xm:f>NOT(ISERROR(SEARCH("-",AG14)))</xm:f>
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="6" stopIfTrue="1" operator="containsText" id="{A43EE60E-82DF-455E-8945-E9E6535FABE9}">
-            <xm:f>NOT(ISERROR(SEARCH("v",AG14)))</xm:f>
-            <xm:f>"v"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.79998168889431442"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>AG14</xm:sqref>
+          <xm:sqref>A7:XFD49</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -10061,6 +9429,2596 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482178E4-ACAC-497E-9AB1-6F0F21E20186}">
+  <dimension ref="A1:AA51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection sqref="A1:AA49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="38" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="39"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8" t="s">
+        <v>19</v>
+      </c>
+      <c r="P8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S8" t="s">
+        <v>23</v>
+      </c>
+      <c r="T8" t="s">
+        <v>24</v>
+      </c>
+      <c r="U8" t="s">
+        <v>25</v>
+      </c>
+      <c r="V8" t="s">
+        <v>26</v>
+      </c>
+      <c r="W8" t="s">
+        <v>27</v>
+      </c>
+      <c r="X8" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>318</v>
+      </c>
+      <c r="C9" t="s">
+        <v>318</v>
+      </c>
+      <c r="D9" t="s">
+        <v>318</v>
+      </c>
+      <c r="E9" t="s">
+        <v>318</v>
+      </c>
+      <c r="F9" t="s">
+        <v>317</v>
+      </c>
+      <c r="G9" t="s">
+        <v>318</v>
+      </c>
+      <c r="H9" t="s">
+        <v>315</v>
+      </c>
+      <c r="I9" t="s">
+        <v>315</v>
+      </c>
+      <c r="J9" t="s">
+        <v>320</v>
+      </c>
+      <c r="K9" t="s">
+        <v>315</v>
+      </c>
+      <c r="L9" t="s">
+        <v>318</v>
+      </c>
+      <c r="M9" t="s">
+        <v>315</v>
+      </c>
+      <c r="N9" t="s">
+        <v>318</v>
+      </c>
+      <c r="O9" t="s">
+        <v>315</v>
+      </c>
+      <c r="P9" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>318</v>
+      </c>
+      <c r="R9" t="s">
+        <v>318</v>
+      </c>
+      <c r="S9" t="s">
+        <v>319</v>
+      </c>
+      <c r="T9" t="s">
+        <v>317</v>
+      </c>
+      <c r="U9" t="s">
+        <v>318</v>
+      </c>
+      <c r="V9" t="s">
+        <v>318</v>
+      </c>
+      <c r="W9" t="s">
+        <v>319</v>
+      </c>
+      <c r="X9" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>319</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>319</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>318</v>
+      </c>
+      <c r="C10" t="s">
+        <v>317</v>
+      </c>
+      <c r="D10" t="s">
+        <v>318</v>
+      </c>
+      <c r="E10" t="s">
+        <v>317</v>
+      </c>
+      <c r="F10" t="s">
+        <v>318</v>
+      </c>
+      <c r="G10" t="s">
+        <v>318</v>
+      </c>
+      <c r="H10" t="s">
+        <v>316</v>
+      </c>
+      <c r="I10" t="s">
+        <v>315</v>
+      </c>
+      <c r="J10" t="s">
+        <v>320</v>
+      </c>
+      <c r="K10" t="s">
+        <v>315</v>
+      </c>
+      <c r="L10" t="s">
+        <v>317</v>
+      </c>
+      <c r="M10" t="s">
+        <v>315</v>
+      </c>
+      <c r="N10" t="s">
+        <v>316</v>
+      </c>
+      <c r="O10" t="s">
+        <v>315</v>
+      </c>
+      <c r="P10" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>318</v>
+      </c>
+      <c r="R10" t="s">
+        <v>318</v>
+      </c>
+      <c r="S10" t="s">
+        <v>317</v>
+      </c>
+      <c r="T10" t="s">
+        <v>318</v>
+      </c>
+      <c r="U10" t="s">
+        <v>318</v>
+      </c>
+      <c r="V10" t="s">
+        <v>317</v>
+      </c>
+      <c r="W10" t="s">
+        <v>317</v>
+      </c>
+      <c r="X10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>317</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>318</v>
+      </c>
+      <c r="C11" t="s">
+        <v>318</v>
+      </c>
+      <c r="D11" t="s">
+        <v>316</v>
+      </c>
+      <c r="E11" t="s">
+        <v>318</v>
+      </c>
+      <c r="F11" t="s">
+        <v>318</v>
+      </c>
+      <c r="G11" t="s">
+        <v>317</v>
+      </c>
+      <c r="H11" t="s">
+        <v>315</v>
+      </c>
+      <c r="I11" t="s">
+        <v>315</v>
+      </c>
+      <c r="J11" t="s">
+        <v>320</v>
+      </c>
+      <c r="K11" t="s">
+        <v>315</v>
+      </c>
+      <c r="L11" t="s">
+        <v>318</v>
+      </c>
+      <c r="M11" t="s">
+        <v>317</v>
+      </c>
+      <c r="N11" t="s">
+        <v>319</v>
+      </c>
+      <c r="O11" t="s">
+        <v>315</v>
+      </c>
+      <c r="P11" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>318</v>
+      </c>
+      <c r="R11" t="s">
+        <v>319</v>
+      </c>
+      <c r="S11" t="s">
+        <v>318</v>
+      </c>
+      <c r="T11" t="s">
+        <v>318</v>
+      </c>
+      <c r="U11" t="s">
+        <v>318</v>
+      </c>
+      <c r="V11" t="s">
+        <v>317</v>
+      </c>
+      <c r="W11" t="s">
+        <v>318</v>
+      </c>
+      <c r="X11" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>318</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>320</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>318</v>
+      </c>
+      <c r="C12" t="s">
+        <v>318</v>
+      </c>
+      <c r="D12" t="s">
+        <v>315</v>
+      </c>
+      <c r="E12" t="s">
+        <v>318</v>
+      </c>
+      <c r="F12" t="s">
+        <v>316</v>
+      </c>
+      <c r="G12" t="s">
+        <v>317</v>
+      </c>
+      <c r="H12" t="s">
+        <v>318</v>
+      </c>
+      <c r="I12" t="s">
+        <v>315</v>
+      </c>
+      <c r="J12" t="s">
+        <v>320</v>
+      </c>
+      <c r="K12" t="s">
+        <v>315</v>
+      </c>
+      <c r="L12" t="s">
+        <v>317</v>
+      </c>
+      <c r="M12" t="s">
+        <v>318</v>
+      </c>
+      <c r="N12" t="s">
+        <v>319</v>
+      </c>
+      <c r="O12" t="s">
+        <v>317</v>
+      </c>
+      <c r="P12" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>317</v>
+      </c>
+      <c r="R12" t="s">
+        <v>320</v>
+      </c>
+      <c r="S12" t="s">
+        <v>318</v>
+      </c>
+      <c r="T12" t="s">
+        <v>317</v>
+      </c>
+      <c r="U12" t="s">
+        <v>319</v>
+      </c>
+      <c r="V12" t="s">
+        <v>318</v>
+      </c>
+      <c r="W12" t="s">
+        <v>320</v>
+      </c>
+      <c r="X12" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>319</v>
+      </c>
+      <c r="C13" t="s">
+        <v>318</v>
+      </c>
+      <c r="D13" t="s">
+        <v>317</v>
+      </c>
+      <c r="E13" t="s">
+        <v>318</v>
+      </c>
+      <c r="F13" t="s">
+        <v>315</v>
+      </c>
+      <c r="G13" t="s">
+        <v>318</v>
+      </c>
+      <c r="H13" t="s">
+        <v>318</v>
+      </c>
+      <c r="I13" t="s">
+        <v>315</v>
+      </c>
+      <c r="J13" t="s">
+        <v>320</v>
+      </c>
+      <c r="K13" t="s">
+        <v>315</v>
+      </c>
+      <c r="L13" t="s">
+        <v>316</v>
+      </c>
+      <c r="M13" t="s">
+        <v>318</v>
+      </c>
+      <c r="N13" t="s">
+        <v>318</v>
+      </c>
+      <c r="O13" t="s">
+        <v>316</v>
+      </c>
+      <c r="P13" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>317</v>
+      </c>
+      <c r="R13" t="s">
+        <v>318</v>
+      </c>
+      <c r="S13" t="s">
+        <v>317</v>
+      </c>
+      <c r="T13" t="s">
+        <v>318</v>
+      </c>
+      <c r="U13" t="s">
+        <v>317</v>
+      </c>
+      <c r="V13" t="s">
+        <v>315</v>
+      </c>
+      <c r="W13" t="s">
+        <v>319</v>
+      </c>
+      <c r="X13" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="39"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="39"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" t="s">
+        <v>16</v>
+      </c>
+      <c r="M17" t="s">
+        <v>17</v>
+      </c>
+      <c r="N17" t="s">
+        <v>18</v>
+      </c>
+      <c r="O17" t="s">
+        <v>19</v>
+      </c>
+      <c r="P17" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" t="s">
+        <v>22</v>
+      </c>
+      <c r="S17" t="s">
+        <v>23</v>
+      </c>
+      <c r="T17" t="s">
+        <v>24</v>
+      </c>
+      <c r="U17" t="s">
+        <v>25</v>
+      </c>
+      <c r="V17" t="s">
+        <v>26</v>
+      </c>
+      <c r="W17" t="s">
+        <v>27</v>
+      </c>
+      <c r="X17" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>319</v>
+      </c>
+      <c r="C18" t="s">
+        <v>318</v>
+      </c>
+      <c r="D18" t="s">
+        <v>319</v>
+      </c>
+      <c r="E18" t="s">
+        <v>317</v>
+      </c>
+      <c r="F18" t="s">
+        <v>317</v>
+      </c>
+      <c r="G18" t="s">
+        <v>318</v>
+      </c>
+      <c r="H18" t="s">
+        <v>315</v>
+      </c>
+      <c r="I18" t="s">
+        <v>315</v>
+      </c>
+      <c r="J18" t="s">
+        <v>320</v>
+      </c>
+      <c r="K18" t="s">
+        <v>315</v>
+      </c>
+      <c r="L18" t="s">
+        <v>318</v>
+      </c>
+      <c r="M18" t="s">
+        <v>315</v>
+      </c>
+      <c r="N18" t="s">
+        <v>320</v>
+      </c>
+      <c r="O18" t="s">
+        <v>315</v>
+      </c>
+      <c r="P18" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>317</v>
+      </c>
+      <c r="R18" t="s">
+        <v>320</v>
+      </c>
+      <c r="S18" t="s">
+        <v>320</v>
+      </c>
+      <c r="T18" t="s">
+        <v>317</v>
+      </c>
+      <c r="U18" t="s">
+        <v>319</v>
+      </c>
+      <c r="V18" t="s">
+        <v>318</v>
+      </c>
+      <c r="W18" t="s">
+        <v>320</v>
+      </c>
+      <c r="X18" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>318</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>318</v>
+      </c>
+      <c r="C19" t="s">
+        <v>317</v>
+      </c>
+      <c r="D19" t="s">
+        <v>319</v>
+      </c>
+      <c r="E19" t="s">
+        <v>317</v>
+      </c>
+      <c r="F19" t="s">
+        <v>317</v>
+      </c>
+      <c r="G19" t="s">
+        <v>320</v>
+      </c>
+      <c r="H19" t="s">
+        <v>315</v>
+      </c>
+      <c r="I19" t="s">
+        <v>315</v>
+      </c>
+      <c r="J19" t="s">
+        <v>320</v>
+      </c>
+      <c r="K19" t="s">
+        <v>315</v>
+      </c>
+      <c r="L19" t="s">
+        <v>315</v>
+      </c>
+      <c r="M19" t="s">
+        <v>315</v>
+      </c>
+      <c r="N19" t="s">
+        <v>318</v>
+      </c>
+      <c r="O19" t="s">
+        <v>315</v>
+      </c>
+      <c r="P19" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>317</v>
+      </c>
+      <c r="R19" t="s">
+        <v>318</v>
+      </c>
+      <c r="S19" t="s">
+        <v>318</v>
+      </c>
+      <c r="T19" t="s">
+        <v>318</v>
+      </c>
+      <c r="U19" t="s">
+        <v>318</v>
+      </c>
+      <c r="V19" t="s">
+        <v>317</v>
+      </c>
+      <c r="W19" t="s">
+        <v>317</v>
+      </c>
+      <c r="X19" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>318</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>318</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>318</v>
+      </c>
+      <c r="C20" t="s">
+        <v>318</v>
+      </c>
+      <c r="D20" t="s">
+        <v>315</v>
+      </c>
+      <c r="E20" t="s">
+        <v>319</v>
+      </c>
+      <c r="F20" t="s">
+        <v>318</v>
+      </c>
+      <c r="G20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H20" t="s">
+        <v>315</v>
+      </c>
+      <c r="I20" t="s">
+        <v>315</v>
+      </c>
+      <c r="J20" t="s">
+        <v>320</v>
+      </c>
+      <c r="K20" t="s">
+        <v>315</v>
+      </c>
+      <c r="L20" t="s">
+        <v>318</v>
+      </c>
+      <c r="M20" t="s">
+        <v>315</v>
+      </c>
+      <c r="N20" t="s">
+        <v>320</v>
+      </c>
+      <c r="O20" t="s">
+        <v>315</v>
+      </c>
+      <c r="P20" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>315</v>
+      </c>
+      <c r="R20" t="s">
+        <v>319</v>
+      </c>
+      <c r="S20" t="s">
+        <v>318</v>
+      </c>
+      <c r="T20" t="s">
+        <v>320</v>
+      </c>
+      <c r="U20" t="s">
+        <v>320</v>
+      </c>
+      <c r="V20" t="s">
+        <v>317</v>
+      </c>
+      <c r="W20" t="s">
+        <v>320</v>
+      </c>
+      <c r="X20" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>320</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A21" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>320</v>
+      </c>
+      <c r="C21" t="s">
+        <v>320</v>
+      </c>
+      <c r="D21" t="s">
+        <v>317</v>
+      </c>
+      <c r="E21" t="s">
+        <v>317</v>
+      </c>
+      <c r="F21" t="s">
+        <v>315</v>
+      </c>
+      <c r="G21" t="s">
+        <v>318</v>
+      </c>
+      <c r="H21" t="s">
+        <v>315</v>
+      </c>
+      <c r="I21" t="s">
+        <v>315</v>
+      </c>
+      <c r="J21" t="s">
+        <v>319</v>
+      </c>
+      <c r="K21" t="s">
+        <v>315</v>
+      </c>
+      <c r="L21" t="s">
+        <v>316</v>
+      </c>
+      <c r="M21" t="s">
+        <v>315</v>
+      </c>
+      <c r="N21" t="s">
+        <v>320</v>
+      </c>
+      <c r="O21" t="s">
+        <v>315</v>
+      </c>
+      <c r="P21" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>317</v>
+      </c>
+      <c r="R21" t="s">
+        <v>320</v>
+      </c>
+      <c r="S21" t="s">
+        <v>318</v>
+      </c>
+      <c r="T21" t="s">
+        <v>315</v>
+      </c>
+      <c r="U21" t="s">
+        <v>318</v>
+      </c>
+      <c r="V21" t="s">
+        <v>318</v>
+      </c>
+      <c r="W21" t="s">
+        <v>320</v>
+      </c>
+      <c r="X21" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>317</v>
+      </c>
+      <c r="C22" t="s">
+        <v>320</v>
+      </c>
+      <c r="D22" t="s">
+        <v>315</v>
+      </c>
+      <c r="E22" t="s">
+        <v>319</v>
+      </c>
+      <c r="F22" t="s">
+        <v>315</v>
+      </c>
+      <c r="G22" t="s">
+        <v>318</v>
+      </c>
+      <c r="H22" t="s">
+        <v>315</v>
+      </c>
+      <c r="I22" t="s">
+        <v>315</v>
+      </c>
+      <c r="J22" t="s">
+        <v>320</v>
+      </c>
+      <c r="K22" t="s">
+        <v>315</v>
+      </c>
+      <c r="L22" t="s">
+        <v>315</v>
+      </c>
+      <c r="M22" t="s">
+        <v>315</v>
+      </c>
+      <c r="N22" t="s">
+        <v>320</v>
+      </c>
+      <c r="O22" t="s">
+        <v>315</v>
+      </c>
+      <c r="P22" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>316</v>
+      </c>
+      <c r="R22" t="s">
+        <v>320</v>
+      </c>
+      <c r="S22" t="s">
+        <v>320</v>
+      </c>
+      <c r="T22" t="s">
+        <v>315</v>
+      </c>
+      <c r="U22" t="s">
+        <v>320</v>
+      </c>
+      <c r="V22" t="s">
+        <v>315</v>
+      </c>
+      <c r="W22" t="s">
+        <v>320</v>
+      </c>
+      <c r="X22" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>318</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A23" s="39"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A24" s="39"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25" s="38" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A26" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" t="s">
+        <v>15</v>
+      </c>
+      <c r="L26" t="s">
+        <v>16</v>
+      </c>
+      <c r="M26" t="s">
+        <v>17</v>
+      </c>
+      <c r="N26" t="s">
+        <v>18</v>
+      </c>
+      <c r="O26" t="s">
+        <v>19</v>
+      </c>
+      <c r="P26" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>21</v>
+      </c>
+      <c r="R26" t="s">
+        <v>22</v>
+      </c>
+      <c r="S26" t="s">
+        <v>23</v>
+      </c>
+      <c r="T26" t="s">
+        <v>24</v>
+      </c>
+      <c r="U26" t="s">
+        <v>25</v>
+      </c>
+      <c r="V26" t="s">
+        <v>26</v>
+      </c>
+      <c r="W26" t="s">
+        <v>27</v>
+      </c>
+      <c r="X26" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A27" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>319</v>
+      </c>
+      <c r="C27" t="s">
+        <v>318</v>
+      </c>
+      <c r="D27" t="s">
+        <v>317</v>
+      </c>
+      <c r="E27" t="s">
+        <v>318</v>
+      </c>
+      <c r="F27" t="s">
+        <v>317</v>
+      </c>
+      <c r="G27" t="s">
+        <v>317</v>
+      </c>
+      <c r="H27" t="s">
+        <v>320</v>
+      </c>
+      <c r="I27" t="s">
+        <v>319</v>
+      </c>
+      <c r="J27" t="s">
+        <v>317</v>
+      </c>
+      <c r="K27" t="s">
+        <v>320</v>
+      </c>
+      <c r="L27" t="s">
+        <v>319</v>
+      </c>
+      <c r="M27" t="s">
+        <v>318</v>
+      </c>
+      <c r="N27" t="s">
+        <v>318</v>
+      </c>
+      <c r="O27" t="s">
+        <v>320</v>
+      </c>
+      <c r="P27" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>317</v>
+      </c>
+      <c r="R27" t="s">
+        <v>317</v>
+      </c>
+      <c r="S27" t="s">
+        <v>318</v>
+      </c>
+      <c r="T27" t="s">
+        <v>317</v>
+      </c>
+      <c r="U27" t="s">
+        <v>317</v>
+      </c>
+      <c r="V27" t="s">
+        <v>316</v>
+      </c>
+      <c r="W27" t="s">
+        <v>317</v>
+      </c>
+      <c r="X27" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>316</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>316</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A28" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
+        <v>320</v>
+      </c>
+      <c r="C28" t="s">
+        <v>318</v>
+      </c>
+      <c r="D28" t="s">
+        <v>317</v>
+      </c>
+      <c r="E28" t="s">
+        <v>318</v>
+      </c>
+      <c r="F28" t="s">
+        <v>317</v>
+      </c>
+      <c r="G28" t="s">
+        <v>315</v>
+      </c>
+      <c r="H28" t="s">
+        <v>319</v>
+      </c>
+      <c r="I28" t="s">
+        <v>319</v>
+      </c>
+      <c r="J28" t="s">
+        <v>318</v>
+      </c>
+      <c r="K28" t="s">
+        <v>320</v>
+      </c>
+      <c r="L28" t="s">
+        <v>319</v>
+      </c>
+      <c r="M28" t="s">
+        <v>318</v>
+      </c>
+      <c r="N28" t="s">
+        <v>316</v>
+      </c>
+      <c r="O28" t="s">
+        <v>318</v>
+      </c>
+      <c r="P28" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>317</v>
+      </c>
+      <c r="R28" t="s">
+        <v>317</v>
+      </c>
+      <c r="S28" t="s">
+        <v>317</v>
+      </c>
+      <c r="T28" t="s">
+        <v>318</v>
+      </c>
+      <c r="U28" t="s">
+        <v>317</v>
+      </c>
+      <c r="V28" t="s">
+        <v>317</v>
+      </c>
+      <c r="W28" t="s">
+        <v>317</v>
+      </c>
+      <c r="X28" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>317</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A29" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
+        <v>319</v>
+      </c>
+      <c r="C29" t="s">
+        <v>316</v>
+      </c>
+      <c r="D29" t="s">
+        <v>318</v>
+      </c>
+      <c r="E29" t="s">
+        <v>318</v>
+      </c>
+      <c r="F29" t="s">
+        <v>317</v>
+      </c>
+      <c r="G29" t="s">
+        <v>317</v>
+      </c>
+      <c r="H29" t="s">
+        <v>317</v>
+      </c>
+      <c r="I29" t="s">
+        <v>319</v>
+      </c>
+      <c r="J29" t="s">
+        <v>317</v>
+      </c>
+      <c r="K29" t="s">
+        <v>320</v>
+      </c>
+      <c r="L29" t="s">
+        <v>319</v>
+      </c>
+      <c r="M29" t="s">
+        <v>317</v>
+      </c>
+      <c r="N29" t="s">
+        <v>317</v>
+      </c>
+      <c r="O29" t="s">
+        <v>318</v>
+      </c>
+      <c r="P29" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>317</v>
+      </c>
+      <c r="R29" t="s">
+        <v>317</v>
+      </c>
+      <c r="S29" t="s">
+        <v>317</v>
+      </c>
+      <c r="T29" t="s">
+        <v>318</v>
+      </c>
+      <c r="U29" t="s">
+        <v>317</v>
+      </c>
+      <c r="V29" t="s">
+        <v>317</v>
+      </c>
+      <c r="W29" t="s">
+        <v>316</v>
+      </c>
+      <c r="X29" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>316</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>319</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A30" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" t="s">
+        <v>320</v>
+      </c>
+      <c r="C30" t="s">
+        <v>316</v>
+      </c>
+      <c r="D30" t="s">
+        <v>320</v>
+      </c>
+      <c r="E30" t="s">
+        <v>315</v>
+      </c>
+      <c r="F30" t="s">
+        <v>316</v>
+      </c>
+      <c r="G30" t="s">
+        <v>316</v>
+      </c>
+      <c r="H30" t="s">
+        <v>317</v>
+      </c>
+      <c r="I30" t="s">
+        <v>318</v>
+      </c>
+      <c r="J30" t="s">
+        <v>319</v>
+      </c>
+      <c r="K30" t="s">
+        <v>318</v>
+      </c>
+      <c r="L30" t="s">
+        <v>318</v>
+      </c>
+      <c r="M30" t="s">
+        <v>318</v>
+      </c>
+      <c r="N30" t="s">
+        <v>317</v>
+      </c>
+      <c r="O30" t="s">
+        <v>318</v>
+      </c>
+      <c r="P30" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>315</v>
+      </c>
+      <c r="R30" t="s">
+        <v>318</v>
+      </c>
+      <c r="S30" t="s">
+        <v>318</v>
+      </c>
+      <c r="T30" t="s">
+        <v>317</v>
+      </c>
+      <c r="U30" t="s">
+        <v>317</v>
+      </c>
+      <c r="V30" t="s">
+        <v>318</v>
+      </c>
+      <c r="W30" t="s">
+        <v>317</v>
+      </c>
+      <c r="X30" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>317</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>318</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A31" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
+        <v>320</v>
+      </c>
+      <c r="C31" t="s">
+        <v>315</v>
+      </c>
+      <c r="D31" t="s">
+        <v>318</v>
+      </c>
+      <c r="E31" t="s">
+        <v>316</v>
+      </c>
+      <c r="F31" t="s">
+        <v>318</v>
+      </c>
+      <c r="G31" t="s">
+        <v>315</v>
+      </c>
+      <c r="H31" t="s">
+        <v>318</v>
+      </c>
+      <c r="I31" t="s">
+        <v>320</v>
+      </c>
+      <c r="J31" t="s">
+        <v>319</v>
+      </c>
+      <c r="K31" t="s">
+        <v>320</v>
+      </c>
+      <c r="L31" t="s">
+        <v>320</v>
+      </c>
+      <c r="M31" t="s">
+        <v>318</v>
+      </c>
+      <c r="N31" t="s">
+        <v>316</v>
+      </c>
+      <c r="O31" t="s">
+        <v>318</v>
+      </c>
+      <c r="P31" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>318</v>
+      </c>
+      <c r="R31" t="s">
+        <v>317</v>
+      </c>
+      <c r="S31" t="s">
+        <v>317</v>
+      </c>
+      <c r="T31" t="s">
+        <v>318</v>
+      </c>
+      <c r="U31" t="s">
+        <v>316</v>
+      </c>
+      <c r="V31" t="s">
+        <v>318</v>
+      </c>
+      <c r="W31" t="s">
+        <v>315</v>
+      </c>
+      <c r="X31" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>320</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A32" s="39"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A33" s="39"/>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A34" s="38" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A35" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35" t="s">
+        <v>15</v>
+      </c>
+      <c r="L35" t="s">
+        <v>16</v>
+      </c>
+      <c r="M35" t="s">
+        <v>17</v>
+      </c>
+      <c r="N35" t="s">
+        <v>18</v>
+      </c>
+      <c r="O35" t="s">
+        <v>19</v>
+      </c>
+      <c r="P35" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>21</v>
+      </c>
+      <c r="R35" t="s">
+        <v>22</v>
+      </c>
+      <c r="S35" t="s">
+        <v>23</v>
+      </c>
+      <c r="T35" t="s">
+        <v>24</v>
+      </c>
+      <c r="U35" t="s">
+        <v>25</v>
+      </c>
+      <c r="V35" t="s">
+        <v>26</v>
+      </c>
+      <c r="W35" t="s">
+        <v>27</v>
+      </c>
+      <c r="X35" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A36" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" t="s">
+        <v>315</v>
+      </c>
+      <c r="C36" t="s">
+        <v>315</v>
+      </c>
+      <c r="D36" t="s">
+        <v>320</v>
+      </c>
+      <c r="E36" t="s">
+        <v>317</v>
+      </c>
+      <c r="F36" t="s">
+        <v>320</v>
+      </c>
+      <c r="G36" t="s">
+        <v>320</v>
+      </c>
+      <c r="H36" t="s">
+        <v>320</v>
+      </c>
+      <c r="I36" t="s">
+        <v>315</v>
+      </c>
+      <c r="J36" t="s">
+        <v>318</v>
+      </c>
+      <c r="K36" t="s">
+        <v>315</v>
+      </c>
+      <c r="L36" t="s">
+        <v>315</v>
+      </c>
+      <c r="M36" t="s">
+        <v>318</v>
+      </c>
+      <c r="N36" t="s">
+        <v>320</v>
+      </c>
+      <c r="O36" t="s">
+        <v>320</v>
+      </c>
+      <c r="P36" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>318</v>
+      </c>
+      <c r="R36" t="s">
+        <v>318</v>
+      </c>
+      <c r="S36" t="s">
+        <v>318</v>
+      </c>
+      <c r="T36" t="s">
+        <v>315</v>
+      </c>
+      <c r="U36" t="s">
+        <v>320</v>
+      </c>
+      <c r="V36" t="s">
+        <v>43</v>
+      </c>
+      <c r="W36" t="s">
+        <v>43</v>
+      </c>
+      <c r="X36" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>318</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>318</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A37" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" t="s">
+        <v>318</v>
+      </c>
+      <c r="C37" t="s">
+        <v>315</v>
+      </c>
+      <c r="D37" t="s">
+        <v>315</v>
+      </c>
+      <c r="E37" t="s">
+        <v>318</v>
+      </c>
+      <c r="F37" t="s">
+        <v>318</v>
+      </c>
+      <c r="G37" t="s">
+        <v>320</v>
+      </c>
+      <c r="H37" t="s">
+        <v>320</v>
+      </c>
+      <c r="I37" t="s">
+        <v>317</v>
+      </c>
+      <c r="J37" t="s">
+        <v>317</v>
+      </c>
+      <c r="K37" t="s">
+        <v>315</v>
+      </c>
+      <c r="L37" t="s">
+        <v>315</v>
+      </c>
+      <c r="M37" t="s">
+        <v>318</v>
+      </c>
+      <c r="N37" t="s">
+        <v>319</v>
+      </c>
+      <c r="O37" t="s">
+        <v>318</v>
+      </c>
+      <c r="P37" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>318</v>
+      </c>
+      <c r="R37" t="s">
+        <v>318</v>
+      </c>
+      <c r="S37" t="s">
+        <v>43</v>
+      </c>
+      <c r="T37" t="s">
+        <v>320</v>
+      </c>
+      <c r="U37" t="s">
+        <v>320</v>
+      </c>
+      <c r="V37" t="s">
+        <v>43</v>
+      </c>
+      <c r="W37" t="s">
+        <v>43</v>
+      </c>
+      <c r="X37" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A38" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" t="s">
+        <v>320</v>
+      </c>
+      <c r="C38" t="s">
+        <v>315</v>
+      </c>
+      <c r="D38" t="s">
+        <v>315</v>
+      </c>
+      <c r="E38" t="s">
+        <v>315</v>
+      </c>
+      <c r="F38" t="s">
+        <v>318</v>
+      </c>
+      <c r="G38" t="s">
+        <v>320</v>
+      </c>
+      <c r="H38" t="s">
+        <v>320</v>
+      </c>
+      <c r="I38" t="s">
+        <v>318</v>
+      </c>
+      <c r="J38" t="s">
+        <v>320</v>
+      </c>
+      <c r="K38" t="s">
+        <v>315</v>
+      </c>
+      <c r="L38" t="s">
+        <v>315</v>
+      </c>
+      <c r="M38" t="s">
+        <v>318</v>
+      </c>
+      <c r="N38" t="s">
+        <v>318</v>
+      </c>
+      <c r="O38" t="s">
+        <v>318</v>
+      </c>
+      <c r="P38" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>318</v>
+      </c>
+      <c r="R38" t="s">
+        <v>318</v>
+      </c>
+      <c r="S38" t="s">
+        <v>318</v>
+      </c>
+      <c r="T38" t="s">
+        <v>320</v>
+      </c>
+      <c r="U38" t="s">
+        <v>320</v>
+      </c>
+      <c r="V38" t="s">
+        <v>43</v>
+      </c>
+      <c r="W38" t="s">
+        <v>43</v>
+      </c>
+      <c r="X38" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>318</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A39" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" t="s">
+        <v>316</v>
+      </c>
+      <c r="C39" t="s">
+        <v>315</v>
+      </c>
+      <c r="D39" t="s">
+        <v>315</v>
+      </c>
+      <c r="E39" t="s">
+        <v>320</v>
+      </c>
+      <c r="F39" t="s">
+        <v>320</v>
+      </c>
+      <c r="G39" t="s">
+        <v>320</v>
+      </c>
+      <c r="H39" t="s">
+        <v>320</v>
+      </c>
+      <c r="I39" t="s">
+        <v>318</v>
+      </c>
+      <c r="J39" t="s">
+        <v>320</v>
+      </c>
+      <c r="K39" t="s">
+        <v>315</v>
+      </c>
+      <c r="L39" t="s">
+        <v>315</v>
+      </c>
+      <c r="M39" t="s">
+        <v>318</v>
+      </c>
+      <c r="N39" t="s">
+        <v>318</v>
+      </c>
+      <c r="O39" t="s">
+        <v>317</v>
+      </c>
+      <c r="P39" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>317</v>
+      </c>
+      <c r="R39" t="s">
+        <v>318</v>
+      </c>
+      <c r="S39" t="s">
+        <v>318</v>
+      </c>
+      <c r="T39" t="s">
+        <v>320</v>
+      </c>
+      <c r="U39" t="s">
+        <v>320</v>
+      </c>
+      <c r="V39" t="s">
+        <v>43</v>
+      </c>
+      <c r="W39" t="s">
+        <v>43</v>
+      </c>
+      <c r="X39" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>318</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A40" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" t="s">
+        <v>320</v>
+      </c>
+      <c r="C40" t="s">
+        <v>315</v>
+      </c>
+      <c r="D40" t="s">
+        <v>315</v>
+      </c>
+      <c r="E40" t="s">
+        <v>320</v>
+      </c>
+      <c r="F40" t="s">
+        <v>320</v>
+      </c>
+      <c r="G40" t="s">
+        <v>320</v>
+      </c>
+      <c r="H40" t="s">
+        <v>320</v>
+      </c>
+      <c r="I40" t="s">
+        <v>315</v>
+      </c>
+      <c r="J40" t="s">
+        <v>320</v>
+      </c>
+      <c r="K40" t="s">
+        <v>315</v>
+      </c>
+      <c r="L40" t="s">
+        <v>315</v>
+      </c>
+      <c r="M40" t="s">
+        <v>318</v>
+      </c>
+      <c r="N40" t="s">
+        <v>318</v>
+      </c>
+      <c r="O40" t="s">
+        <v>318</v>
+      </c>
+      <c r="P40" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>318</v>
+      </c>
+      <c r="R40" t="s">
+        <v>317</v>
+      </c>
+      <c r="S40" t="s">
+        <v>318</v>
+      </c>
+      <c r="T40" t="s">
+        <v>320</v>
+      </c>
+      <c r="U40" t="s">
+        <v>320</v>
+      </c>
+      <c r="V40" t="s">
+        <v>43</v>
+      </c>
+      <c r="W40" t="s">
+        <v>318</v>
+      </c>
+      <c r="X40" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>318</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A41" s="39"/>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A42" s="39"/>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A43" s="38" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A44" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" t="s">
+        <v>13</v>
+      </c>
+      <c r="J44" t="s">
+        <v>14</v>
+      </c>
+      <c r="K44" t="s">
+        <v>15</v>
+      </c>
+      <c r="L44" t="s">
+        <v>16</v>
+      </c>
+      <c r="M44" t="s">
+        <v>17</v>
+      </c>
+      <c r="N44" t="s">
+        <v>18</v>
+      </c>
+      <c r="O44" t="s">
+        <v>19</v>
+      </c>
+      <c r="P44" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>21</v>
+      </c>
+      <c r="R44" t="s">
+        <v>22</v>
+      </c>
+      <c r="S44" t="s">
+        <v>23</v>
+      </c>
+      <c r="T44" t="s">
+        <v>24</v>
+      </c>
+      <c r="U44" t="s">
+        <v>25</v>
+      </c>
+      <c r="V44" t="s">
+        <v>26</v>
+      </c>
+      <c r="W44" t="s">
+        <v>27</v>
+      </c>
+      <c r="X44" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A45" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" t="s">
+        <v>317</v>
+      </c>
+      <c r="D45" t="s">
+        <v>315</v>
+      </c>
+      <c r="E45" t="s">
+        <v>320</v>
+      </c>
+      <c r="F45" t="s">
+        <v>320</v>
+      </c>
+      <c r="G45" t="s">
+        <v>317</v>
+      </c>
+      <c r="H45" t="s">
+        <v>318</v>
+      </c>
+      <c r="I45" t="s">
+        <v>318</v>
+      </c>
+      <c r="J45" t="s">
+        <v>318</v>
+      </c>
+      <c r="K45" t="s">
+        <v>318</v>
+      </c>
+      <c r="L45" t="s">
+        <v>318</v>
+      </c>
+      <c r="M45" t="s">
+        <v>43</v>
+      </c>
+      <c r="N45" t="s">
+        <v>318</v>
+      </c>
+      <c r="O45" t="s">
+        <v>318</v>
+      </c>
+      <c r="P45" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>318</v>
+      </c>
+      <c r="R45" t="s">
+        <v>318</v>
+      </c>
+      <c r="S45" t="s">
+        <v>318</v>
+      </c>
+      <c r="T45" t="s">
+        <v>320</v>
+      </c>
+      <c r="U45" t="s">
+        <v>317</v>
+      </c>
+      <c r="V45" t="s">
+        <v>318</v>
+      </c>
+      <c r="W45" t="s">
+        <v>43</v>
+      </c>
+      <c r="X45" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>315</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A46" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" t="s">
+        <v>318</v>
+      </c>
+      <c r="D46" t="s">
+        <v>317</v>
+      </c>
+      <c r="E46" t="s">
+        <v>320</v>
+      </c>
+      <c r="F46" t="s">
+        <v>320</v>
+      </c>
+      <c r="G46" t="s">
+        <v>318</v>
+      </c>
+      <c r="H46" t="s">
+        <v>317</v>
+      </c>
+      <c r="I46" t="s">
+        <v>43</v>
+      </c>
+      <c r="J46" t="s">
+        <v>318</v>
+      </c>
+      <c r="K46" t="s">
+        <v>318</v>
+      </c>
+      <c r="L46" t="s">
+        <v>43</v>
+      </c>
+      <c r="M46" t="s">
+        <v>43</v>
+      </c>
+      <c r="N46" t="s">
+        <v>43</v>
+      </c>
+      <c r="O46" t="s">
+        <v>43</v>
+      </c>
+      <c r="P46" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>318</v>
+      </c>
+      <c r="R46" t="s">
+        <v>318</v>
+      </c>
+      <c r="S46" t="s">
+        <v>43</v>
+      </c>
+      <c r="T46" t="s">
+        <v>320</v>
+      </c>
+      <c r="U46" t="s">
+        <v>317</v>
+      </c>
+      <c r="V46" t="s">
+        <v>318</v>
+      </c>
+      <c r="W46" t="s">
+        <v>43</v>
+      </c>
+      <c r="X46" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>317</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>315</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A47" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" t="s">
+        <v>318</v>
+      </c>
+      <c r="D47" t="s">
+        <v>317</v>
+      </c>
+      <c r="E47" t="s">
+        <v>320</v>
+      </c>
+      <c r="F47" t="s">
+        <v>320</v>
+      </c>
+      <c r="G47" t="s">
+        <v>318</v>
+      </c>
+      <c r="H47" t="s">
+        <v>318</v>
+      </c>
+      <c r="I47" t="s">
+        <v>315</v>
+      </c>
+      <c r="J47" t="s">
+        <v>318</v>
+      </c>
+      <c r="K47" t="s">
+        <v>318</v>
+      </c>
+      <c r="L47" t="s">
+        <v>318</v>
+      </c>
+      <c r="M47" t="s">
+        <v>43</v>
+      </c>
+      <c r="N47" t="s">
+        <v>318</v>
+      </c>
+      <c r="O47" t="s">
+        <v>43</v>
+      </c>
+      <c r="P47" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>318</v>
+      </c>
+      <c r="R47" t="s">
+        <v>318</v>
+      </c>
+      <c r="S47" t="s">
+        <v>43</v>
+      </c>
+      <c r="T47" t="s">
+        <v>318</v>
+      </c>
+      <c r="U47" t="s">
+        <v>318</v>
+      </c>
+      <c r="V47" t="s">
+        <v>43</v>
+      </c>
+      <c r="W47" t="s">
+        <v>43</v>
+      </c>
+      <c r="X47" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>317</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>315</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A48" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" t="s">
+        <v>318</v>
+      </c>
+      <c r="C48" t="s">
+        <v>318</v>
+      </c>
+      <c r="D48" t="s">
+        <v>317</v>
+      </c>
+      <c r="E48" t="s">
+        <v>318</v>
+      </c>
+      <c r="F48" t="s">
+        <v>319</v>
+      </c>
+      <c r="G48" t="s">
+        <v>318</v>
+      </c>
+      <c r="H48" t="s">
+        <v>318</v>
+      </c>
+      <c r="I48" t="s">
+        <v>43</v>
+      </c>
+      <c r="J48" t="s">
+        <v>318</v>
+      </c>
+      <c r="K48" t="s">
+        <v>318</v>
+      </c>
+      <c r="L48" t="s">
+        <v>318</v>
+      </c>
+      <c r="M48" t="s">
+        <v>43</v>
+      </c>
+      <c r="N48" t="s">
+        <v>318</v>
+      </c>
+      <c r="O48" t="s">
+        <v>43</v>
+      </c>
+      <c r="P48" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>318</v>
+      </c>
+      <c r="R48" t="s">
+        <v>318</v>
+      </c>
+      <c r="S48" t="s">
+        <v>43</v>
+      </c>
+      <c r="T48" t="s">
+        <v>317</v>
+      </c>
+      <c r="U48" t="s">
+        <v>318</v>
+      </c>
+      <c r="V48" t="s">
+        <v>43</v>
+      </c>
+      <c r="W48" t="s">
+        <v>43</v>
+      </c>
+      <c r="X48" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>315</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A49" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" t="s">
+        <v>318</v>
+      </c>
+      <c r="D49" t="s">
+        <v>317</v>
+      </c>
+      <c r="E49" t="s">
+        <v>320</v>
+      </c>
+      <c r="F49" t="s">
+        <v>320</v>
+      </c>
+      <c r="G49" t="s">
+        <v>318</v>
+      </c>
+      <c r="H49" t="s">
+        <v>318</v>
+      </c>
+      <c r="I49" t="s">
+        <v>318</v>
+      </c>
+      <c r="J49" t="s">
+        <v>318</v>
+      </c>
+      <c r="K49" t="s">
+        <v>317</v>
+      </c>
+      <c r="L49" t="s">
+        <v>318</v>
+      </c>
+      <c r="M49" t="s">
+        <v>43</v>
+      </c>
+      <c r="N49" t="s">
+        <v>43</v>
+      </c>
+      <c r="O49" t="s">
+        <v>43</v>
+      </c>
+      <c r="P49" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>318</v>
+      </c>
+      <c r="R49" t="s">
+        <v>318</v>
+      </c>
+      <c r="S49" t="s">
+        <v>318</v>
+      </c>
+      <c r="T49" t="s">
+        <v>320</v>
+      </c>
+      <c r="U49" t="s">
+        <v>318</v>
+      </c>
+      <c r="V49" t="s">
+        <v>43</v>
+      </c>
+      <c r="W49" t="s">
+        <v>43</v>
+      </c>
+      <c r="X49" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>315</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A50" s="39"/>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A51" s="38" t="s">
+        <v>419</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5859B8-E6C5-4529-9990-34128CA7E9CF}">
   <sheetPr>
     <tabColor theme="1"/>
@@ -10103,7 +12061,7 @@
     </row>
     <row r="6" spans="1:36" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="28" t="s">
         <v>4</v>
       </c>
@@ -10185,14 +12143,14 @@
       <c r="AB7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="AC7" s="39"/>
-      <c r="AD7" s="39"/>
-      <c r="AE7" s="39"/>
-      <c r="AF7" s="39"/>
-      <c r="AG7" s="39"/>
-      <c r="AH7" s="39"/>
-      <c r="AI7" s="39"/>
-      <c r="AJ7" s="39"/>
+      <c r="AC7" s="35"/>
+      <c r="AD7" s="35"/>
+      <c r="AE7" s="35"/>
+      <c r="AF7" s="35"/>
+      <c r="AG7" s="35"/>
+      <c r="AH7" s="35"/>
+      <c r="AI7" s="35"/>
+      <c r="AJ7" s="35"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B8" s="27" t="s">
@@ -10616,82 +12574,82 @@
       <c r="B14" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="40">
+      <c r="C14" s="36">
         <v>0.192597548950556</v>
       </c>
-      <c r="D14" s="40">
+      <c r="D14" s="36">
         <v>3.1553739963375099E-2</v>
       </c>
-      <c r="E14" s="40">
+      <c r="E14" s="36">
         <v>1.00014086491055E-2</v>
       </c>
-      <c r="F14" s="40">
+      <c r="F14" s="36">
         <v>1.61994647133399E-3</v>
       </c>
-      <c r="G14" s="40">
+      <c r="G14" s="36">
         <v>0.10286660092970799</v>
       </c>
-      <c r="H14" s="40">
+      <c r="H14" s="36">
         <v>3.2117199605578198E-2</v>
       </c>
-      <c r="I14" s="40">
+      <c r="I14" s="36">
         <v>0.105859980278912</v>
       </c>
-      <c r="J14" s="40">
+      <c r="J14" s="36">
         <v>7.3003239892942606E-2</v>
       </c>
-      <c r="K14" s="40">
+      <c r="K14" s="36">
         <v>7.4904916185378201E-2</v>
       </c>
-      <c r="L14" s="40">
+      <c r="L14" s="36">
         <v>7.2193266657275598E-3</v>
       </c>
-      <c r="M14" s="40">
+      <c r="M14" s="36">
         <v>3.6167065783913203E-2</v>
       </c>
-      <c r="N14" s="40">
+      <c r="N14" s="36">
         <v>5.9867586984082199E-4</v>
       </c>
-      <c r="O14" s="40">
+      <c r="O14" s="36">
         <v>4.6203690660656403E-2</v>
       </c>
-      <c r="P14" s="40">
+      <c r="P14" s="36">
         <v>6.6910832511621297E-3</v>
       </c>
-      <c r="Q14" s="40">
+      <c r="Q14" s="36">
         <v>5.8951965065502099E-2</v>
       </c>
-      <c r="R14" s="40">
+      <c r="R14" s="36">
         <v>5.0922665164107601E-2</v>
       </c>
-      <c r="S14" s="40">
+      <c r="S14" s="36">
         <v>1.95802225665586E-2</v>
       </c>
-      <c r="T14" s="40">
+      <c r="T14" s="36">
         <v>4.2400338075785297E-2</v>
       </c>
-      <c r="U14" s="40">
+      <c r="U14" s="36">
         <v>1.60938160304268E-2</v>
       </c>
-      <c r="V14" s="40">
+      <c r="V14" s="36">
         <v>4.5675447246090899E-2</v>
       </c>
-      <c r="W14" s="40">
+      <c r="W14" s="36">
         <v>2.4827440484575199E-2</v>
       </c>
-      <c r="X14" s="40">
+      <c r="X14" s="36">
         <v>7.2897591210029497E-3</v>
       </c>
-      <c r="Y14" s="40">
+      <c r="Y14" s="36">
         <v>2.8172982110156301E-3</v>
       </c>
-      <c r="Z14" s="40">
+      <c r="Z14" s="36">
         <v>7.6067051697422099E-3</v>
       </c>
-      <c r="AA14" s="40">
+      <c r="AA14" s="36">
         <v>1.9368925200732401E-3</v>
       </c>
-      <c r="AB14" s="40">
+      <c r="AB14" s="36">
         <v>4.9302718692773603E-4</v>
       </c>
     </row>
@@ -10699,82 +12657,82 @@
       <c r="B15" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="40">
+      <c r="C15" s="36">
         <v>0.22103444552424101</v>
       </c>
-      <c r="D15" s="40">
+      <c r="D15" s="36">
         <v>6.6839434186372906E-2</v>
       </c>
-      <c r="E15" s="40">
+      <c r="E15" s="36">
         <v>2.49433106575963E-2</v>
       </c>
-      <c r="F15" s="40">
+      <c r="F15" s="36">
         <v>1.1877766979807699E-3</v>
       </c>
-      <c r="G15" s="40">
+      <c r="G15" s="36">
         <v>6.1224489795918297E-2</v>
       </c>
-      <c r="H15" s="40">
+      <c r="H15" s="36">
         <v>2.1919879062736201E-2</v>
       </c>
-      <c r="I15" s="40">
+      <c r="I15" s="36">
         <v>9.5022135838462293E-2</v>
       </c>
-      <c r="J15" s="40">
+      <c r="J15" s="36">
         <v>6.9646906381600204E-2</v>
       </c>
-      <c r="K15" s="40">
+      <c r="K15" s="36">
         <v>7.0834683079581004E-2</v>
       </c>
-      <c r="L15" s="40">
+      <c r="L15" s="36">
         <v>3.9952488932080699E-3</v>
       </c>
-      <c r="M15" s="40">
+      <c r="M15" s="36">
         <v>2.5267249757045598E-2</v>
       </c>
-      <c r="N15" s="40">
+      <c r="N15" s="36">
         <v>1.07979699816434E-4</v>
       </c>
-      <c r="O15" s="40">
+      <c r="O15" s="36">
         <v>6.31681243926141E-2</v>
       </c>
-      <c r="P15" s="40">
+      <c r="P15" s="36">
         <v>1.1013929381276299E-2</v>
       </c>
-      <c r="Q15" s="40">
+      <c r="Q15" s="36">
         <v>8.3144368858654505E-2</v>
       </c>
-      <c r="R15" s="40">
+      <c r="R15" s="36">
         <v>5.3449951409134999E-2</v>
       </c>
-      <c r="S15" s="40">
+      <c r="S15" s="36">
         <v>2.0840082064571799E-2</v>
       </c>
-      <c r="T15" s="40">
+      <c r="T15" s="36">
         <v>1.97602850664075E-2</v>
       </c>
-      <c r="U15" s="40">
+      <c r="U15" s="36">
         <v>6.0468631897203301E-3</v>
       </c>
-      <c r="V15" s="40">
+      <c r="V15" s="36">
         <v>3.3797646042543997E-2</v>
       </c>
-      <c r="W15" s="40">
+      <c r="W15" s="36">
         <v>3.0774214447683801E-2</v>
       </c>
-      <c r="X15" s="40">
+      <c r="X15" s="36">
         <v>6.15484288953676E-3</v>
       </c>
-      <c r="Y15" s="40">
+      <c r="Y15" s="36">
         <v>1.7276751970629501E-3</v>
       </c>
-      <c r="Z15" s="40">
+      <c r="Z15" s="36">
         <v>5.2910052910052898E-3</v>
       </c>
-      <c r="AA15" s="40">
+      <c r="AA15" s="36">
         <v>1.94363459669582E-3</v>
       </c>
-      <c r="AB15" s="40">
+      <c r="AB15" s="36">
         <v>8.6383759853147601E-4</v>
       </c>
     </row>
@@ -10782,82 +12740,82 @@
       <c r="B16" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="40">
+      <c r="C16" s="36">
         <v>0.12574464659475099</v>
       </c>
-      <c r="D16" s="40">
+      <c r="D16" s="36">
         <v>6.2711318628240198E-2</v>
       </c>
-      <c r="E16" s="40">
+      <c r="E16" s="36">
         <v>1.5617452906134199E-2</v>
       </c>
-      <c r="F16" s="40">
+      <c r="F16" s="36">
         <v>9.6602801481242902E-4</v>
       </c>
-      <c r="G16" s="40">
+      <c r="G16" s="36">
         <v>6.6977942360328405E-2</v>
       </c>
-      <c r="H16" s="40">
+      <c r="H16" s="36">
         <v>2.5680244727096999E-2</v>
       </c>
-      <c r="I16" s="40">
+      <c r="I16" s="36">
         <v>0.13524392207374</v>
       </c>
-      <c r="J16" s="40">
+      <c r="J16" s="36">
         <v>9.9903397198518706E-2</v>
       </c>
-      <c r="K16" s="40">
+      <c r="K16" s="36">
         <v>0.111576235710835</v>
       </c>
-      <c r="L16" s="40">
+      <c r="L16" s="36">
         <v>7.80872645306713E-3</v>
       </c>
-      <c r="M16" s="40">
+      <c r="M16" s="36">
         <v>2.9061342778940499E-2</v>
       </c>
-      <c r="N16" s="40">
+      <c r="N16" s="36">
         <v>6.4401867654161895E-4</v>
       </c>
-      <c r="O16" s="40">
+      <c r="O16" s="36">
         <v>7.28546127837707E-2</v>
       </c>
-      <c r="P16" s="40">
+      <c r="P16" s="36">
         <v>7.4867171147963204E-3</v>
       </c>
-      <c r="Q16" s="40">
+      <c r="Q16" s="36">
         <v>4.7174368056673598E-2</v>
       </c>
-      <c r="R16" s="40">
+      <c r="R16" s="36">
         <v>5.0313959104814003E-2</v>
       </c>
-      <c r="S16" s="40">
+      <c r="S16" s="36">
         <v>1.1431331508613699E-2</v>
       </c>
-      <c r="T16" s="40">
+      <c r="T16" s="36">
         <v>3.6226050555466099E-2</v>
       </c>
-      <c r="U16" s="40">
+      <c r="U16" s="36">
         <v>3.78360972468201E-3</v>
       </c>
-      <c r="V16" s="40">
+      <c r="V16" s="36">
         <v>3.9043632265335602E-2</v>
       </c>
-      <c r="W16" s="40">
+      <c r="W16" s="36">
         <v>2.54387377233939E-2</v>
       </c>
-      <c r="X16" s="40">
+      <c r="X16" s="36">
         <v>9.0162614715826699E-3</v>
       </c>
-      <c r="Y16" s="40">
+      <c r="Y16" s="36">
         <v>7.2452101110932201E-4</v>
       </c>
-      <c r="Z16" s="40">
+      <c r="Z16" s="36">
         <v>8.3722427950410506E-3</v>
       </c>
-      <c r="AA16" s="40">
+      <c r="AA16" s="36">
         <v>5.7156657543068704E-3</v>
       </c>
-      <c r="AB16" s="40">
+      <c r="AB16" s="36">
         <v>4.8301400740621402E-4</v>
       </c>
     </row>
@@ -10865,82 +12823,82 @@
       <c r="B17" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="40">
+      <c r="C17" s="36">
         <v>0.13790605874044801</v>
       </c>
-      <c r="D17" s="40">
+      <c r="D17" s="36">
         <v>7.9708832796146697E-2</v>
       </c>
-      <c r="E17" s="40">
+      <c r="E17" s="36">
         <v>2.75232680259298E-2</v>
       </c>
-      <c r="F17" s="40">
+      <c r="F17" s="36">
         <v>6.8808170064824504E-4</v>
       </c>
-      <c r="G17" s="40">
+      <c r="G17" s="36">
         <v>5.06645420635208E-2</v>
       </c>
-      <c r="H17" s="40">
+      <c r="H17" s="36">
         <v>3.7409915619454601E-2</v>
       </c>
-      <c r="I17" s="40">
+      <c r="I17" s="36">
         <v>0.136276391554702</v>
       </c>
-      <c r="J17" s="40">
+      <c r="J17" s="36">
         <v>6.8409806974975507E-2</v>
       </c>
-      <c r="K17" s="40">
+      <c r="K17" s="36">
         <v>9.9518342809546204E-2</v>
       </c>
-      <c r="L17" s="40">
+      <c r="L17" s="36">
         <v>5.7219425632853999E-3</v>
       </c>
-      <c r="M17" s="40">
+      <c r="M17" s="36">
         <v>1.42324267555137E-2</v>
       </c>
-      <c r="N17" s="40">
+      <c r="N17" s="36">
         <v>2.89718610799261E-4</v>
       </c>
-      <c r="O17" s="40">
+      <c r="O17" s="36">
         <v>6.9713540723572207E-2</v>
       </c>
-      <c r="P17" s="40">
+      <c r="P17" s="36">
         <v>6.5910983956831903E-3</v>
       </c>
-      <c r="Q17" s="40">
+      <c r="Q17" s="36">
         <v>8.5829138449281098E-2</v>
       </c>
-      <c r="R17" s="40">
+      <c r="R17" s="36">
         <v>3.1760402708868998E-2</v>
       </c>
-      <c r="S17" s="40">
+      <c r="S17" s="36">
         <v>1.14438851265708E-2</v>
       </c>
-      <c r="T17" s="40">
+      <c r="T17" s="36">
         <v>2.9768587259623999E-2</v>
       </c>
-      <c r="U17" s="40">
+      <c r="U17" s="36">
         <v>3.8749864194401098E-3</v>
       </c>
-      <c r="V17" s="40">
+      <c r="V17" s="36">
         <v>3.3752218158113897E-2</v>
       </c>
-      <c r="W17" s="40">
+      <c r="W17" s="36">
         <v>5.9573389345597999E-2</v>
       </c>
-      <c r="X17" s="40">
+      <c r="X17" s="36">
         <v>6.0478760004345697E-3</v>
       </c>
-      <c r="Y17" s="40">
+      <c r="Y17" s="36">
         <v>5.7943722159852201E-4</v>
       </c>
-      <c r="Z17" s="40">
+      <c r="Z17" s="36">
         <v>1.9193857965451001E-3</v>
       </c>
-      <c r="AA17" s="40">
+      <c r="AA17" s="36">
         <v>6.8808170064824504E-4</v>
       </c>
-      <c r="AB17" s="40">
+      <c r="AB17" s="36">
         <v>1.08644479049722E-4</v>
       </c>
     </row>
@@ -10948,82 +12906,82 @@
       <c r="B18" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="40">
+      <c r="C18" s="36">
         <v>0.139342802440001</v>
       </c>
-      <c r="D18" s="40">
+      <c r="D18" s="36">
         <v>6.4806981610935399E-2</v>
       </c>
-      <c r="E18" s="40">
+      <c r="E18" s="36">
         <v>3.7290173204505901E-2</v>
       </c>
-      <c r="F18" s="40">
+      <c r="F18" s="36">
         <v>2.9832138563604701E-3</v>
       </c>
-      <c r="G18" s="40">
+      <c r="G18" s="36">
         <v>6.9660269825014401E-2</v>
       </c>
-      <c r="H18" s="40">
+      <c r="H18" s="36">
         <v>2.4088338750612202E-2</v>
       </c>
-      <c r="I18" s="40">
+      <c r="I18" s="36">
         <v>0.104100805912997</v>
       </c>
-      <c r="J18" s="40">
+      <c r="J18" s="36">
         <v>0.10287635246449001</v>
       </c>
-      <c r="K18" s="40">
+      <c r="K18" s="36">
         <v>7.8966116033661299E-2</v>
       </c>
-      <c r="L18" s="40">
+      <c r="L18" s="36">
         <v>6.9237276815530503E-3</v>
       </c>
-      <c r="M18" s="40">
+      <c r="M18" s="36">
         <v>2.7850750256021999E-2</v>
       </c>
-      <c r="N18" s="40">
+      <c r="N18" s="36">
         <v>2.2262789972839301E-5</v>
       </c>
-      <c r="O18" s="40">
+      <c r="O18" s="36">
         <v>6.9682532614987303E-2</v>
       </c>
-      <c r="P18" s="40">
+      <c r="P18" s="36">
         <v>4.3412440447036802E-3</v>
       </c>
-      <c r="Q18" s="40">
+      <c r="Q18" s="36">
         <v>6.4139097911750306E-2</v>
       </c>
-      <c r="R18" s="40">
+      <c r="R18" s="36">
         <v>4.5638719444320699E-2</v>
       </c>
-      <c r="S18" s="40">
+      <c r="S18" s="36">
         <v>9.3503717885925399E-3</v>
       </c>
-      <c r="T18" s="40">
+      <c r="T18" s="36">
         <v>3.6733603455184997E-2</v>
       </c>
-      <c r="U18" s="40">
+      <c r="U18" s="36">
         <v>2.5156952669308499E-3</v>
       </c>
-      <c r="V18" s="40">
+      <c r="V18" s="36">
         <v>4.6640544993098498E-2</v>
       </c>
-      <c r="W18" s="40">
+      <c r="W18" s="36">
         <v>4.1297475399616999E-2</v>
       </c>
-      <c r="X18" s="40">
+      <c r="X18" s="36">
         <v>1.12872345162295E-2</v>
       </c>
-      <c r="Y18" s="40">
+      <c r="Y18" s="36">
         <v>7.3467206910369999E-4</v>
       </c>
-      <c r="Z18" s="40">
+      <c r="Z18" s="36">
         <v>6.9905160514715696E-3</v>
       </c>
-      <c r="AA18" s="40">
+      <c r="AA18" s="36">
         <v>1.60292087804443E-3</v>
       </c>
-      <c r="AB18" s="40">
+      <c r="AB18" s="36">
         <v>1.33576739837036E-4</v>
       </c>
     </row>
